--- a/2023/CB-M-week-lowPrice.xlsx
+++ b/2023/CB-M-week-lowPrice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D23D7E92-09E2-4180-A9B5-C9228EC5BB26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B335399F-2A8F-49FE-B637-5808A399CFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="311">
   <si>
     <t>收入</t>
   </si>
@@ -1307,6 +1307,10 @@
     <t>搜特亏完了所有的盈利</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>博22转债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1894,7 +1898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="229">
+  <cellXfs count="230">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2541,6 +2545,9 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3024,6 +3031,9 @@
                 <c:pt idx="62">
                   <c:v>45107</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>45121</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3221,6 +3231,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>-721.06</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>629.30999999999995</c:v>
                 </c:pt>
                 <c:pt idx="70">
                   <c:v>26009</c:v>
@@ -3503,6 +3516,9 @@
                 <c:pt idx="62">
                   <c:v>45107</c:v>
                 </c:pt>
+                <c:pt idx="63">
+                  <c:v>45121</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -3700,6 +3716,9 @@
                 </c:pt>
                 <c:pt idx="62">
                   <c:v>-2.5999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.3E-3</c:v>
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0</c:v>
@@ -4790,8 +4809,8 @@
   <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G62" sqref="G62"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5829,9 +5848,15 @@
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="27"/>
-      <c r="B65" s="176"/>
-      <c r="C65" s="28"/>
+      <c r="A65" s="27">
+        <v>45121</v>
+      </c>
+      <c r="B65" s="176">
+        <v>629.30999999999995</v>
+      </c>
+      <c r="C65" s="28">
+        <v>2.3E-3</v>
+      </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="27"/>
@@ -5925,8 +5950,8 @@
   <dimension ref="A1:W591"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A553" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+      <pane ySplit="2" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K449" sqref="K449"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5953,47 +5978,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="209"/>
-      <c r="B1" s="215" t="s">
+      <c r="A1" s="210"/>
+      <c r="B1" s="216" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="217" t="s">
+      <c r="C1" s="218" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="219" t="s">
+      <c r="D1" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="221" t="s">
+      <c r="E1" s="222" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="214" t="s">
+      <c r="F1" s="215" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="213" t="s">
+      <c r="G1" s="215"/>
+      <c r="H1" s="215"/>
+      <c r="I1" s="215"/>
+      <c r="J1" s="214" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="213"/>
-      <c r="L1" s="213"/>
-      <c r="M1" s="213"/>
-      <c r="N1" s="213"/>
-      <c r="O1" s="213"/>
-      <c r="P1" s="213"/>
-      <c r="Q1" s="211" t="s">
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="207" t="s">
+      <c r="S1" s="208" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="210"/>
-      <c r="B2" s="216"/>
-      <c r="C2" s="218"/>
-      <c r="D2" s="220"/>
-      <c r="E2" s="222"/>
+      <c r="A2" s="211"/>
+      <c r="B2" s="217"/>
+      <c r="C2" s="219"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="223"/>
       <c r="F2" s="18" t="s">
         <v>115</v>
       </c>
@@ -6027,11 +6052,11 @@
       <c r="P2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="212"/>
+      <c r="Q2" s="213"/>
       <c r="R2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="208"/>
+      <c r="S2" s="209"/>
     </row>
     <row r="3" spans="1:23" s="99" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
@@ -6112,7 +6137,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="12">
-        <v>106.286</v>
+        <v>106.6</v>
       </c>
       <c r="K4" s="12">
         <v>102.711</v>
@@ -6122,19 +6147,19 @@
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>4251.4400000000005</v>
+        <v>4264</v>
       </c>
       <c r="N4" s="23">
         <f t="shared" si="1"/>
-        <v>3.4806398535697274E-2</v>
+        <v>3.786351997351789E-2</v>
       </c>
       <c r="O4" s="11">
         <f>(J4-K4)*L4</f>
-        <v>143.00000000000011</v>
+        <v>155.55999999999983</v>
       </c>
       <c r="P4" s="23">
         <f t="shared" si="2"/>
-        <v>1.514776701162068E-2</v>
+        <v>1.5259096706565169E-2</v>
       </c>
       <c r="Q4" s="80"/>
       <c r="S4" s="24"/>
@@ -6272,7 +6297,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="12">
-        <v>120.379</v>
+        <v>118.791</v>
       </c>
       <c r="K7" s="12">
         <v>71.656000000000006</v>
@@ -6282,19 +6307,19 @@
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>6018.95</v>
+        <v>5939.55</v>
       </c>
       <c r="N7" s="23">
         <f t="shared" si="1"/>
-        <v>0.67995701685832299</v>
+        <v>0.65779557887685591</v>
       </c>
       <c r="O7" s="11">
         <f>(J7-K7)*L7</f>
-        <v>2436.15</v>
+        <v>2356.7499999999995</v>
       </c>
       <c r="P7" s="23">
         <f t="shared" si="2"/>
-        <v>2.1445357868062179E-2</v>
+        <v>2.1255198837588921E-2</v>
       </c>
       <c r="Q7" s="80"/>
       <c r="S7" s="24"/>
@@ -6323,7 +6348,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="12">
-        <v>104.551</v>
+        <v>105.26900000000001</v>
       </c>
       <c r="K8" s="12">
         <v>105.64700000000001</v>
@@ -6333,19 +6358,19 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>3136.53</v>
+        <v>3158.07</v>
       </c>
       <c r="N8" s="23">
         <f t="shared" si="1"/>
-        <v>-1.0374170586954704E-2</v>
+        <v>-3.5779529944058998E-3</v>
       </c>
       <c r="O8" s="11">
         <f>(J8-K8)*L8</f>
-        <v>-32.880000000000109</v>
+        <v>-11.340000000000003</v>
       </c>
       <c r="P8" s="23">
         <f t="shared" si="2"/>
-        <v>1.1175372500837036E-2</v>
+        <v>1.1301429534733178E-2</v>
       </c>
       <c r="Q8" s="80"/>
       <c r="S8" s="24"/>
@@ -6372,7 +6397,7 @@
         <v>65</v>
       </c>
       <c r="J9" s="12">
-        <v>113.069</v>
+        <v>114.52</v>
       </c>
       <c r="K9" s="12">
         <v>98.42</v>
@@ -6382,19 +6407,19 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>1130.69</v>
+        <v>1145.2</v>
       </c>
       <c r="N9" s="23">
         <f t="shared" si="1"/>
-        <v>0.14884169884169884</v>
+        <v>0.16358463726884773</v>
       </c>
       <c r="O9" s="11">
         <f>(J9-K9)*L9</f>
-        <v>146.49</v>
+        <v>160.99999999999994</v>
       </c>
       <c r="P9" s="23">
         <f t="shared" si="2"/>
-        <v>4.0286182287341196E-3</v>
+        <v>4.0981982993335908E-3</v>
       </c>
       <c r="Q9" s="80"/>
       <c r="S9" s="24"/>
@@ -6767,7 +6792,7 @@
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="12">
-        <v>124.545</v>
+        <v>125.22</v>
       </c>
       <c r="K17" s="12">
         <v>100.438</v>
@@ -6777,19 +6802,19 @@
       </c>
       <c r="M17" s="11">
         <f t="shared" si="0"/>
-        <v>4981.8</v>
+        <v>5008.8</v>
       </c>
       <c r="N17" s="23">
         <f t="shared" si="1"/>
-        <v>0.24001871801509386</v>
+        <v>0.24673928194508052</v>
       </c>
       <c r="O17" s="11">
         <f t="shared" si="3"/>
-        <v>964.28</v>
+        <v>991.27999999999986</v>
       </c>
       <c r="P17" s="23">
         <f t="shared" si="2"/>
-        <v>1.7750020157521192E-2</v>
+        <v>1.7924428607843251E-2</v>
       </c>
       <c r="Q17" s="80"/>
       <c r="S17" s="45"/>
@@ -6921,7 +6946,7 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="12">
-        <v>96.385000000000005</v>
+        <v>98.301000000000002</v>
       </c>
       <c r="K20" s="12">
         <v>98.27</v>
@@ -6931,19 +6956,19 @@
       </c>
       <c r="M20" s="11">
         <f t="shared" si="0"/>
-        <v>7710.8</v>
+        <v>7864.08</v>
       </c>
       <c r="N20" s="23">
         <f t="shared" si="1"/>
-        <v>-1.9181845934669695E-2</v>
+        <v>3.1545741324927155E-4</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="3"/>
-        <v>-150.79999999999927</v>
+        <v>2.4800000000004729</v>
       </c>
       <c r="P20" s="23">
         <f t="shared" si="2"/>
-        <v>2.7473374168094745E-2</v>
+        <v>2.8142297661389544E-2</v>
       </c>
       <c r="Q20" s="80"/>
       <c r="S20" s="24"/>
@@ -6975,7 +7000,7 @@
         <v>65</v>
       </c>
       <c r="J21" s="12">
-        <v>104.36</v>
+        <v>104.52</v>
       </c>
       <c r="K21" s="12">
         <v>102.69499999999999</v>
@@ -6985,19 +7010,19 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="0"/>
-        <v>2087.1999999999998</v>
+        <v>2090.4</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="1"/>
-        <v>1.6213058084619567E-2</v>
+        <v>1.7771069672330716E-2</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="3"/>
-        <v>33.300000000000125</v>
+        <v>36.500000000000057</v>
       </c>
       <c r="P21" s="23">
         <f t="shared" si="2"/>
-        <v>7.4366377760605052E-3</v>
+        <v>7.480679117120974E-3</v>
       </c>
       <c r="Q21" s="80"/>
       <c r="S21" s="24"/>
@@ -7027,7 +7052,7 @@
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="12">
-        <v>112.291</v>
+        <v>108.60899999999999</v>
       </c>
       <c r="K22" s="12">
         <v>63.146999999999998</v>
@@ -7037,19 +7062,19 @@
       </c>
       <c r="M22" s="11">
         <f>J22*L22</f>
-        <v>5614.55</v>
+        <v>5430.45</v>
       </c>
       <c r="N22" s="23">
         <f t="shared" si="1"/>
-        <v>0.77824758104106295</v>
+        <v>0.71993918951019042</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="3"/>
-        <v>2457.1999999999998</v>
+        <v>2273.1</v>
       </c>
       <c r="P22" s="23">
         <f t="shared" si="2"/>
-        <v>2.0004491484084189E-2</v>
+        <v>1.9433339988313043E-2</v>
       </c>
       <c r="Q22" s="80"/>
       <c r="S22" s="24"/>
@@ -7078,7 +7103,7 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="12">
-        <v>96</v>
+        <v>96.700999999999993</v>
       </c>
       <c r="K23" s="12">
         <v>96.222999999999999</v>
@@ -7088,19 +7113,19 @@
       </c>
       <c r="M23" s="11">
         <f t="shared" si="0"/>
-        <v>6720</v>
+        <v>6769.07</v>
       </c>
       <c r="N23" s="23">
         <f t="shared" si="1"/>
-        <v>-2.3175332301009007E-3</v>
+        <v>4.9676272824583983E-3</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="3"/>
-        <v>-15.609999999999928</v>
+        <v>33.45999999999961</v>
       </c>
       <c r="P23" s="23">
         <f t="shared" si="2"/>
-        <v>2.3943180267883578E-2</v>
+        <v>2.4223708664049975E-2</v>
       </c>
       <c r="Q23" s="80"/>
       <c r="S23" s="24"/>
@@ -7230,7 +7255,7 @@
         <v>51</v>
       </c>
       <c r="J26" s="12">
-        <v>111.554</v>
+        <v>112.5</v>
       </c>
       <c r="K26" s="12">
         <v>103.797</v>
@@ -7240,19 +7265,19 @@
       </c>
       <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>1115.54</v>
+        <v>1125</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="1"/>
-        <v>7.473241037794931E-2</v>
+        <v>8.384635394086537E-2</v>
       </c>
       <c r="O26" s="11">
         <f>(J26-K26)*L26</f>
-        <v>77.57000000000005</v>
+        <v>87.03000000000003</v>
       </c>
       <c r="P26" s="23">
         <f t="shared" si="2"/>
-        <v>3.9746391839337565E-3</v>
+        <v>4.0259108336974242E-3</v>
       </c>
       <c r="Q26" s="80"/>
       <c r="S26" s="24"/>
@@ -7327,7 +7352,7 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="12">
-        <v>106.941</v>
+        <v>107.331</v>
       </c>
       <c r="K28" s="12">
         <v>119.637</v>
@@ -7337,19 +7362,19 @@
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>10694.1</v>
+        <v>10733.1</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="1"/>
-        <v>-0.10612101607362269</v>
+        <v>-0.1028611549938564</v>
       </c>
       <c r="O28" s="11">
         <f>(J28-K28)*L28</f>
-        <v>-1269.5999999999999</v>
+        <v>-1230.5999999999997</v>
       </c>
       <c r="P28" s="23">
         <f t="shared" si="2"/>
-        <v>3.8102792277198476E-2</v>
+        <v>3.8409336505918067E-2</v>
       </c>
       <c r="Q28" s="80" t="s">
         <v>53</v>
@@ -7429,7 +7454,7 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="12">
-        <v>106.68899999999999</v>
+        <v>93.036000000000001</v>
       </c>
       <c r="K30" s="12">
         <v>90.962999999999994</v>
@@ -7439,19 +7464,19 @@
       </c>
       <c r="M30" s="11">
         <f t="shared" si="0"/>
-        <v>5334.45</v>
+        <v>4651.8</v>
       </c>
       <c r="N30" s="23">
         <f t="shared" si="1"/>
-        <v>0.17288348009630289</v>
+        <v>2.2789485834899988E-2</v>
       </c>
       <c r="O30" s="11">
         <f>(J30-K30)*L30</f>
-        <v>786.3</v>
+        <v>103.65000000000038</v>
       </c>
       <c r="P30" s="23">
         <f t="shared" si="2"/>
-        <v>1.9006502675596955E-2</v>
+        <v>1.6646872903283268E-2</v>
       </c>
       <c r="Q30" s="80"/>
       <c r="S30" s="24"/>
@@ -7483,7 +7508,7 @@
         <v>51</v>
       </c>
       <c r="J31" s="12">
-        <v>114.07</v>
+        <v>114.541</v>
       </c>
       <c r="K31" s="12">
         <v>101.621</v>
@@ -7493,19 +7518,19 @@
       </c>
       <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>1140.6999999999998</v>
+        <v>1145.4099999999999</v>
       </c>
       <c r="N31" s="23">
         <f t="shared" si="1"/>
-        <v>0.12250420680764801</v>
+        <v>0.12713907558477089</v>
       </c>
       <c r="O31" s="11">
         <f>(J31-K31)*L31</f>
-        <v>124.48999999999998</v>
+        <v>129.20000000000002</v>
       </c>
       <c r="P31" s="23">
         <f t="shared" si="2"/>
-        <v>4.0642835910081531E-3</v>
+        <v>4.0989498026892139E-3</v>
       </c>
       <c r="Q31" s="80"/>
       <c r="R31" s="7"/>
@@ -7586,7 +7611,7 @@
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="12">
-        <v>103.116</v>
+        <v>105.64700000000001</v>
       </c>
       <c r="K33" s="12">
         <v>101.00700000000001</v>
@@ -7596,19 +7621,19 @@
       </c>
       <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>8249.2800000000007</v>
+        <v>8451.76</v>
       </c>
       <c r="N33" s="23">
         <f t="shared" si="1"/>
-        <v>2.0879741008048892E-2</v>
+        <v>4.5937410278495551E-2</v>
       </c>
       <c r="O33" s="11">
         <f>(J33-K33)*L33</f>
-        <v>168.71999999999957</v>
+        <v>371.20000000000005</v>
       </c>
       <c r="P33" s="23">
         <f t="shared" si="2"/>
-        <v>2.9391964005989084E-2</v>
+        <v>3.0245361909164926E-2</v>
       </c>
       <c r="Q33" s="80"/>
       <c r="R33" s="8"/>
@@ -7690,7 +7715,7 @@
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="12">
-        <v>91.52</v>
+        <v>91.408000000000001</v>
       </c>
       <c r="K35" s="12">
         <v>96.945999999999998</v>
@@ -7700,19 +7725,19 @@
       </c>
       <c r="M35" s="11">
         <f t="shared" ref="M35:M59" si="6">J35*L35</f>
-        <v>10067.199999999999</v>
+        <v>10054.880000000001</v>
       </c>
       <c r="N35" s="23">
         <f t="shared" ref="N35:N59" si="7">(J35-K35)/K35</f>
-        <v>-5.596930249829804E-2</v>
+        <v>-5.7124584820415457E-2</v>
       </c>
       <c r="O35" s="11">
         <f>(J35-K35)*L35</f>
-        <v>-596.86000000000024</v>
+        <v>-609.17999999999961</v>
       </c>
       <c r="P35" s="23">
         <f t="shared" si="2"/>
-        <v>3.5869164344172248E-2</v>
+        <v>3.5982266954246722E-2</v>
       </c>
       <c r="Q35" s="80"/>
       <c r="S35" s="24"/>
@@ -8206,50 +8231,43 @@
       <c r="B46" s="60">
         <v>44</v>
       </c>
-      <c r="C46" s="29">
+      <c r="C46" s="39">
         <v>44541</v>
       </c>
-      <c r="D46" s="30">
+      <c r="D46" s="40">
         <v>128076</v>
       </c>
-      <c r="E46" s="121" t="s">
+      <c r="E46" s="205" t="s">
         <v>67</v>
       </c>
-      <c r="F46" s="19">
+      <c r="F46" s="42">
         <v>40</v>
       </c>
-      <c r="G46" s="19">
+      <c r="G46" s="42">
         <v>147.58199999999999</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="43">
         <f t="shared" si="5"/>
         <v>5903.28</v>
       </c>
-      <c r="I46" s="15"/>
-      <c r="J46" s="12">
-        <v>130.953</v>
-      </c>
-      <c r="K46" s="12">
-        <v>58.701999999999998</v>
-      </c>
-      <c r="L46" s="12">
-        <v>10</v>
-      </c>
-      <c r="M46" s="11">
+      <c r="I46" s="41"/>
+      <c r="J46" s="41"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
+      <c r="M46" s="43">
         <f t="shared" si="6"/>
-        <v>1309.53</v>
-      </c>
-      <c r="N46" s="23">
+        <v>0</v>
+      </c>
+      <c r="N46" s="44" t="e">
         <f t="shared" si="7"/>
-        <v>1.2308098531566216</v>
-      </c>
-      <c r="O46" s="11">
-        <f t="shared" si="8"/>
-        <v>722.51</v>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O46" s="43">
+        <v>732.78</v>
       </c>
       <c r="P46" s="23">
         <f t="shared" si="2"/>
-        <v>4.6658203655061872E-3</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="80"/>
       <c r="S46" s="24"/>
@@ -8282,7 +8300,7 @@
         <v>65</v>
       </c>
       <c r="J47" s="12">
-        <v>116.86</v>
+        <v>117.44</v>
       </c>
       <c r="K47" s="12">
         <v>115.91</v>
@@ -8292,19 +8310,19 @@
       </c>
       <c r="M47" s="11">
         <f t="shared" si="6"/>
-        <v>2337.1999999999998</v>
+        <v>2348.8000000000002</v>
       </c>
       <c r="N47" s="23">
         <f t="shared" si="7"/>
-        <v>8.1960141489086612E-3</v>
+        <v>1.3199896471400234E-2</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="8"/>
-        <v>19.000000000000057</v>
+        <v>30.600000000000023</v>
       </c>
       <c r="P47" s="23">
         <f t="shared" si="2"/>
-        <v>8.3273810895978413E-3</v>
+        <v>8.4053861032786763E-3</v>
       </c>
       <c r="Q47" s="80"/>
       <c r="S47" s="24"/>
@@ -8964,29 +8982,29 @@
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="12">
-        <v>87.9</v>
+        <v>86.5</v>
       </c>
       <c r="K61" s="12">
-        <v>95.247</v>
+        <v>94.004000000000005</v>
       </c>
       <c r="L61" s="12">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="M61" s="11">
         <f t="shared" ref="M61:M67" si="10">J61*L61</f>
-        <v>18459</v>
+        <v>17300</v>
       </c>
       <c r="N61" s="23">
         <f t="shared" ref="N61:N95" si="11">(J61-K61)/K61</f>
-        <v>-7.7136287757094649E-2</v>
+        <v>-7.9826390366367433E-2</v>
       </c>
       <c r="O61" s="11">
         <f t="shared" si="8"/>
-        <v>-1542.8699999999988</v>
+        <v>-1500.8000000000011</v>
       </c>
       <c r="P61" s="23">
         <f t="shared" si="2"/>
-        <v>6.5768923298342705E-2</v>
+        <v>6.1909562153747051E-2</v>
       </c>
       <c r="Q61" s="80"/>
       <c r="S61" s="24"/>
@@ -9265,7 +9283,7 @@
         <v>65</v>
       </c>
       <c r="J67" s="12">
-        <v>106.639</v>
+        <v>107.652</v>
       </c>
       <c r="K67" s="12">
         <v>105.10899999999999</v>
@@ -9275,19 +9293,19 @@
       </c>
       <c r="M67" s="11">
         <f t="shared" si="10"/>
-        <v>4265.5599999999995</v>
+        <v>4306.08</v>
       </c>
       <c r="N67" s="23">
         <f t="shared" si="11"/>
-        <v>1.455631772731166E-2</v>
+        <v>2.4193932013433735E-2</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="8"/>
-        <v>61.200000000000045</v>
+        <v>101.72000000000025</v>
       </c>
       <c r="P67" s="23">
         <f t="shared" ref="P67:P130" si="12">M67/$M$573</f>
-        <v>1.5198076193969264E-2</v>
+        <v>1.5409683664682492E-2</v>
       </c>
       <c r="Q67" s="80"/>
       <c r="S67" s="24"/>
@@ -9362,7 +9380,7 @@
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="12">
-        <v>101.70699999999999</v>
+        <v>100.8</v>
       </c>
       <c r="K69" s="12">
         <v>97.275999999999996</v>
@@ -9372,19 +9390,19 @@
       </c>
       <c r="M69" s="11">
         <f t="shared" ref="M69:M82" si="13">J69*L69</f>
-        <v>7119.49</v>
+        <v>7056</v>
       </c>
       <c r="N69" s="23">
         <f t="shared" si="11"/>
-        <v>4.5550803898186575E-2</v>
+        <v>3.6226818536946433E-2</v>
       </c>
       <c r="O69" s="11">
         <f>(J69-K69)*L69</f>
-        <v>310.16999999999985</v>
+        <v>246.68000000000006</v>
       </c>
       <c r="P69" s="23">
         <f t="shared" si="12"/>
-        <v>2.5366552453183696E-2</v>
+        <v>2.5250512748950245E-2</v>
       </c>
       <c r="Q69" s="80"/>
       <c r="S69" s="24"/>
@@ -9468,7 +9486,7 @@
         <v>51</v>
       </c>
       <c r="J71" s="12">
-        <v>103.71</v>
+        <v>104.999</v>
       </c>
       <c r="K71" s="12">
         <v>105.233</v>
@@ -9478,19 +9496,19 @@
       </c>
       <c r="M71" s="11">
         <f t="shared" si="13"/>
-        <v>5185.5</v>
+        <v>5249.95</v>
       </c>
       <c r="N71" s="23">
         <f t="shared" si="11"/>
-        <v>-1.4472646413197478E-2</v>
+        <v>-2.2236370720212181E-3</v>
       </c>
       <c r="O71" s="11">
         <f>(J71-K71)*L71</f>
-        <v>-76.150000000000517</v>
+        <v>-11.700000000000443</v>
       </c>
       <c r="P71" s="23">
         <f t="shared" si="12"/>
-        <v>1.847579780939141E-2</v>
+        <v>1.8787404961217592E-2</v>
       </c>
       <c r="Q71" s="80"/>
       <c r="S71" s="24"/>
@@ -9570,7 +9588,7 @@
         <v>51</v>
       </c>
       <c r="J73" s="12">
-        <v>117.401</v>
+        <v>118.32299999999999</v>
       </c>
       <c r="K73" s="12">
         <v>113.021</v>
@@ -9580,19 +9598,19 @@
       </c>
       <c r="M73" s="11">
         <f t="shared" si="13"/>
-        <v>1174.01</v>
+        <v>1183.23</v>
       </c>
       <c r="N73" s="23">
         <f t="shared" si="11"/>
-        <v>3.8753859902142036E-2</v>
+        <v>4.6911635890675117E-2</v>
       </c>
       <c r="O73" s="11">
         <f>(J73-K73)*L73</f>
-        <v>43.799999999999955</v>
+        <v>53.019999999999925</v>
       </c>
       <c r="P73" s="23">
         <f t="shared" si="12"/>
-        <v>4.1829662301038689E-3</v>
+        <v>4.2342919784496029E-3</v>
       </c>
       <c r="Q73" s="80"/>
       <c r="S73" s="24"/>
@@ -9772,7 +9790,7 @@
         <v>51</v>
       </c>
       <c r="J77" s="12">
-        <v>115.76900000000001</v>
+        <v>120.39100000000001</v>
       </c>
       <c r="K77" s="12">
         <v>96.376000000000005</v>
@@ -9782,19 +9800,19 @@
       </c>
       <c r="M77" s="11">
         <f t="shared" si="13"/>
-        <v>2315.38</v>
+        <v>2407.8200000000002</v>
       </c>
       <c r="N77" s="23">
         <f t="shared" si="11"/>
-        <v>0.20122229600730471</v>
+        <v>0.24918029384909104</v>
       </c>
       <c r="O77" s="11">
         <f t="shared" si="14"/>
-        <v>387.86</v>
+        <v>480.3</v>
       </c>
       <c r="P77" s="23">
         <f t="shared" si="12"/>
-        <v>8.2496370131923038E-3</v>
+        <v>8.6165943320829618E-3</v>
       </c>
       <c r="Q77" s="80"/>
       <c r="S77" s="24"/>
@@ -9876,7 +9894,7 @@
         <v>51</v>
       </c>
       <c r="J79" s="12">
-        <v>126.95099999999999</v>
+        <v>125.712</v>
       </c>
       <c r="K79" s="12">
         <v>108.59</v>
@@ -9886,19 +9904,19 @@
       </c>
       <c r="M79" s="11">
         <f t="shared" si="13"/>
-        <v>1269.51</v>
+        <v>1257.1200000000001</v>
       </c>
       <c r="N79" s="23">
         <f t="shared" si="11"/>
-        <v>0.16908555115572327</v>
+        <v>0.15767566074224146</v>
       </c>
       <c r="O79" s="11">
         <f t="shared" si="14"/>
-        <v>183.6099999999999</v>
+        <v>171.22</v>
       </c>
       <c r="P79" s="23">
         <f t="shared" si="12"/>
-        <v>4.5232301758751309E-3</v>
+        <v>4.4987138020068495E-3</v>
       </c>
       <c r="Q79" s="80"/>
       <c r="S79" s="24"/>
@@ -9929,29 +9947,29 @@
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="12">
-        <v>98.03</v>
+        <v>102</v>
       </c>
       <c r="K80" s="12">
-        <v>103.34</v>
+        <v>102.825</v>
       </c>
       <c r="L80" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M80" s="11">
         <f t="shared" si="13"/>
-        <v>6862.1</v>
+        <v>8160</v>
       </c>
       <c r="N80" s="23">
         <f t="shared" si="11"/>
-        <v>-5.1383781691503795E-2</v>
+        <v>-8.023340627279385E-3</v>
       </c>
       <c r="O80" s="11">
         <f t="shared" si="14"/>
-        <v>-371.70000000000016</v>
+        <v>-66.000000000000227</v>
       </c>
       <c r="P80" s="23">
         <f t="shared" si="12"/>
-        <v>2.4449478767298201E-2</v>
+        <v>2.9201273247085314E-2</v>
       </c>
       <c r="Q80" s="80"/>
       <c r="S80" s="24"/>
@@ -10030,7 +10048,7 @@
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="12">
-        <v>106.196</v>
+        <v>106.396</v>
       </c>
       <c r="K82" s="12">
         <v>102.733</v>
@@ -10040,19 +10058,19 @@
       </c>
       <c r="M82" s="11">
         <f t="shared" si="13"/>
-        <v>4247.84</v>
+        <v>4255.84</v>
       </c>
       <c r="N82" s="23">
         <f t="shared" si="11"/>
-        <v>3.3708740132187262E-2</v>
+        <v>3.5655534248975468E-2</v>
       </c>
       <c r="O82" s="11">
         <f t="shared" si="14"/>
-        <v>138.51999999999975</v>
+        <v>146.51999999999987</v>
       </c>
       <c r="P82" s="23">
         <f t="shared" si="12"/>
-        <v>1.513494030790574E-2</v>
+        <v>1.5229895433318085E-2</v>
       </c>
       <c r="Q82" s="80"/>
       <c r="S82" s="24"/>
@@ -10132,7 +10150,7 @@
         <v>51</v>
       </c>
       <c r="J84" s="12">
-        <v>109.23399999999999</v>
+        <v>114</v>
       </c>
       <c r="K84" s="12">
         <v>107.426</v>
@@ -10142,19 +10160,19 @@
       </c>
       <c r="M84" s="11">
         <f t="shared" ref="M84:M95" si="15">J84*L84</f>
-        <v>2184.6799999999998</v>
+        <v>2280</v>
       </c>
       <c r="N84" s="23">
         <f t="shared" si="11"/>
-        <v>1.6830190084337057E-2</v>
+        <v>6.1195613724796587E-2</v>
       </c>
       <c r="O84" s="11">
         <f t="shared" si="14"/>
-        <v>36.159999999999854</v>
+        <v>131.47999999999996</v>
       </c>
       <c r="P84" s="23">
         <f t="shared" si="12"/>
-        <v>7.7839564088749832E-3</v>
+        <v>8.1591792896267799E-3</v>
       </c>
       <c r="Q84" s="80"/>
       <c r="S84" s="24"/>
@@ -10185,7 +10203,7 @@
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="12">
-        <v>104.044</v>
+        <v>109.68</v>
       </c>
       <c r="K85" s="12">
         <v>104.024</v>
@@ -10195,19 +10213,19 @@
       </c>
       <c r="M85" s="11">
         <f t="shared" si="15"/>
-        <v>4161.76</v>
+        <v>4387.2000000000007</v>
       </c>
       <c r="N85" s="23">
         <f t="shared" si="11"/>
-        <v>1.9226332384830443E-4</v>
+        <v>5.4372067984311372E-2</v>
       </c>
       <c r="O85" s="11">
         <f t="shared" si="14"/>
-        <v>0.79999999999984084</v>
+        <v>226.24000000000024</v>
       </c>
       <c r="P85" s="23">
         <f t="shared" si="12"/>
-        <v>1.4828239570188565E-2</v>
+        <v>1.5699978675197637E-2</v>
       </c>
       <c r="Q85" s="80"/>
       <c r="S85" s="24"/>
@@ -10432,7 +10450,7 @@
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="12">
-        <v>100.25</v>
+        <v>100.559</v>
       </c>
       <c r="K90" s="12">
         <v>101.515</v>
@@ -10442,19 +10460,19 @@
       </c>
       <c r="M90" s="11">
         <f t="shared" si="15"/>
-        <v>5012.5</v>
+        <v>5027.95</v>
       </c>
       <c r="N90" s="23">
         <f t="shared" si="11"/>
-        <v>-1.2461212628675571E-2</v>
+        <v>-9.4173274885485207E-3</v>
       </c>
       <c r="O90" s="11">
         <f t="shared" si="14"/>
-        <v>-63.250000000000028</v>
+        <v>-47.800000000000153</v>
       </c>
       <c r="P90" s="23">
         <f t="shared" si="12"/>
-        <v>1.7859403436423577E-2</v>
+        <v>1.79929585567013E-2</v>
       </c>
       <c r="Q90" s="80"/>
       <c r="S90" s="24"/>
@@ -11151,7 +11169,7 @@
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="12">
-        <v>85.248999999999995</v>
+        <v>86.488</v>
       </c>
       <c r="K105" s="12">
         <v>100.524</v>
@@ -11161,19 +11179,19 @@
       </c>
       <c r="M105" s="11">
         <f t="shared" si="17"/>
-        <v>8524.9</v>
+        <v>8648.7999999999993</v>
       </c>
       <c r="N105" s="23">
         <f t="shared" si="18"/>
-        <v>-0.15195376228562338</v>
+        <v>-0.13962834745931321</v>
       </c>
       <c r="O105" s="11">
         <f t="shared" si="14"/>
-        <v>-1527.5000000000005</v>
+        <v>-1403.6000000000001</v>
       </c>
       <c r="P105" s="23">
         <f t="shared" si="12"/>
-        <v>3.0373990694297723E-2</v>
+        <v>3.0950486771984247E-2</v>
       </c>
       <c r="Q105" s="80" t="s">
         <v>105</v>
@@ -11206,7 +11224,7 @@
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="12">
-        <v>108.18300000000001</v>
+        <v>109.342</v>
       </c>
       <c r="K106" s="12">
         <v>105.187</v>
@@ -11216,19 +11234,19 @@
       </c>
       <c r="M106" s="11">
         <f t="shared" si="17"/>
-        <v>3245.4900000000002</v>
+        <v>3280.2599999999998</v>
       </c>
       <c r="N106" s="23">
         <f t="shared" si="18"/>
-        <v>2.8482607166284896E-2</v>
+        <v>3.9501079030678711E-2</v>
       </c>
       <c r="O106" s="11">
         <f t="shared" si="14"/>
-        <v>89.88000000000028</v>
+        <v>124.65000000000003</v>
       </c>
       <c r="P106" s="23">
         <f t="shared" si="12"/>
-        <v>1.1563594066609149E-2</v>
+        <v>1.1738697130083832E-2</v>
       </c>
       <c r="Q106" s="80" t="s">
         <v>105</v>
@@ -11560,29 +11578,29 @@
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="12">
-        <v>96.745999999999995</v>
+        <v>97.319000000000003</v>
       </c>
       <c r="K113" s="12">
-        <v>102.785</v>
+        <v>101</v>
       </c>
       <c r="L113" s="12">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M113" s="11">
         <f t="shared" si="17"/>
-        <v>1934.9199999999998</v>
+        <v>2919.57</v>
       </c>
       <c r="N113" s="23">
         <f t="shared" si="18"/>
-        <v>-5.8753709198813071E-2</v>
+        <v>-3.6445544554455422E-2</v>
       </c>
       <c r="O113" s="11">
         <f t="shared" si="19"/>
-        <v>-120.78000000000003</v>
+        <v>-110.42999999999992</v>
       </c>
       <c r="P113" s="23">
         <f t="shared" si="12"/>
-        <v>6.8940682089186434E-3</v>
+        <v>1.0447936437989323E-2</v>
       </c>
       <c r="Q113" s="80" t="s">
         <v>105</v>
@@ -12263,7 +12281,7 @@
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="12">
-        <v>115</v>
+        <v>112.194</v>
       </c>
       <c r="K127" s="12">
         <v>108.29900000000001</v>
@@ -12273,19 +12291,19 @@
       </c>
       <c r="M127" s="11">
         <f t="shared" si="17"/>
-        <v>2300</v>
+        <v>2243.88</v>
       </c>
       <c r="N127" s="23">
         <f t="shared" si="18"/>
-        <v>6.1874994228940182E-2</v>
+        <v>3.5965244369754068E-2</v>
       </c>
       <c r="O127" s="11">
         <f t="shared" si="19"/>
-        <v>134.01999999999987</v>
+        <v>77.89999999999992</v>
       </c>
       <c r="P127" s="23">
         <f t="shared" si="12"/>
-        <v>8.1948384845434864E-3</v>
+        <v>8.0299207124595352E-3</v>
       </c>
       <c r="Q127" s="80" t="s">
         <v>105</v>
@@ -12561,7 +12579,7 @@
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="12">
-        <v>111.199</v>
+        <v>112.65600000000001</v>
       </c>
       <c r="K133" s="12">
         <v>111.721</v>
@@ -12571,19 +12589,19 @@
       </c>
       <c r="M133" s="11">
         <f t="shared" si="17"/>
-        <v>1111.99</v>
+        <v>1126.56</v>
       </c>
       <c r="N133" s="23">
         <f t="shared" si="23"/>
-        <v>-4.6723534519025568E-3</v>
+        <v>8.3690622174882271E-3</v>
       </c>
       <c r="O133" s="11">
         <f t="shared" si="21"/>
-        <v>-5.2200000000000557</v>
+        <v>9.3500000000000227</v>
       </c>
       <c r="P133" s="23">
         <f t="shared" si="22"/>
-        <v>3.9619906288815262E-3</v>
+        <v>4.0314934300534839E-3</v>
       </c>
       <c r="Q133" s="80" t="s">
         <v>105</v>
@@ -12665,7 +12683,7 @@
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="12">
-        <v>109.592</v>
+        <v>110.057</v>
       </c>
       <c r="K135" s="12">
         <v>107.63</v>
@@ -12675,19 +12693,19 @@
       </c>
       <c r="M135" s="11">
         <f t="shared" si="17"/>
-        <v>1095.92</v>
+        <v>1100.57</v>
       </c>
       <c r="N135" s="23">
         <f t="shared" si="23"/>
-        <v>1.8229118275573757E-2</v>
+        <v>2.2549475053423831E-2</v>
       </c>
       <c r="O135" s="11">
         <f t="shared" si="21"/>
-        <v>19.620000000000033</v>
+        <v>24.270000000000067</v>
       </c>
       <c r="P135" s="23">
         <f t="shared" si="22"/>
-        <v>3.904733648687347E-3</v>
+        <v>3.9384859433265543E-3</v>
       </c>
       <c r="Q135" s="80" t="s">
         <v>119</v>
@@ -12820,7 +12838,7 @@
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="12">
-        <v>92.17</v>
+        <v>93.864999999999995</v>
       </c>
       <c r="K138" s="12">
         <v>104.178</v>
@@ -12830,19 +12848,19 @@
       </c>
       <c r="M138" s="11">
         <f t="shared" si="17"/>
-        <v>4608.5</v>
+        <v>4693.25</v>
       </c>
       <c r="N138" s="23">
         <f t="shared" si="23"/>
-        <v>-0.11526425924859371</v>
+        <v>-9.8994029449595913E-2</v>
       </c>
       <c r="O138" s="11">
         <f t="shared" si="21"/>
-        <v>-600.39999999999975</v>
+        <v>-515.65000000000009</v>
       </c>
       <c r="P138" s="23">
         <f t="shared" si="22"/>
-        <v>1.641996224174724E-2</v>
+        <v>1.679520535133372E-2</v>
       </c>
       <c r="Q138" s="80" t="s">
         <v>105</v>
@@ -12973,7 +12991,7 @@
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="12">
-        <v>111.02800000000001</v>
+        <v>110.31100000000001</v>
       </c>
       <c r="K141" s="12">
         <v>107.151</v>
@@ -12983,19 +13001,19 @@
       </c>
       <c r="M141" s="11">
         <f t="shared" ref="M141:M172" si="24">J141*L141</f>
-        <v>1110.28</v>
+        <v>1103.1100000000001</v>
       </c>
       <c r="N141" s="23">
         <f t="shared" si="23"/>
-        <v>3.6182583456990693E-2</v>
+        <v>2.9491092010340648E-2</v>
       </c>
       <c r="O141" s="11">
         <f>(J141-K141)*L141</f>
-        <v>38.770000000000095</v>
+        <v>31.600000000000108</v>
       </c>
       <c r="P141" s="23">
         <f t="shared" si="22"/>
-        <v>3.9558979446169314E-3</v>
+        <v>3.9475755553421915E-3</v>
       </c>
       <c r="Q141" s="80" t="s">
         <v>105</v>
@@ -13028,7 +13046,7 @@
       </c>
       <c r="I142" s="15"/>
       <c r="J142" s="12">
-        <v>111.194</v>
+        <v>113.86799999999999</v>
       </c>
       <c r="K142" s="12">
         <v>109.321</v>
@@ -13038,19 +13056,19 @@
       </c>
       <c r="M142" s="11">
         <f t="shared" si="24"/>
-        <v>1111.94</v>
+        <v>1138.6799999999998</v>
       </c>
       <c r="N142" s="23">
         <f t="shared" si="23"/>
-        <v>1.713303025036365E-2</v>
+        <v>4.1593106539457171E-2</v>
       </c>
       <c r="O142" s="11">
         <f>(J142-K142)*L142</f>
-        <v>18.730000000000047</v>
+        <v>45.46999999999997</v>
       </c>
       <c r="P142" s="23">
         <f t="shared" si="22"/>
-        <v>3.961812480218819E-3</v>
+        <v>4.0748659094351838E-3</v>
       </c>
       <c r="Q142" s="80" t="s">
         <v>105</v>
@@ -13328,7 +13346,7 @@
       </c>
       <c r="I148" s="15"/>
       <c r="J148" s="12">
-        <v>108.02</v>
+        <v>107.999</v>
       </c>
       <c r="K148" s="12">
         <v>106.078</v>
@@ -13338,19 +13356,19 @@
       </c>
       <c r="M148" s="11">
         <f t="shared" si="24"/>
-        <v>1080.2</v>
+        <v>1079.99</v>
       </c>
       <c r="N148" s="23">
         <f t="shared" si="23"/>
-        <v>1.8307283319821198E-2</v>
+        <v>1.8109315786496657E-2</v>
       </c>
       <c r="O148" s="11">
         <f t="shared" si="25"/>
-        <v>19.419999999999931</v>
+        <v>19.209999999999923</v>
       </c>
       <c r="P148" s="23">
         <f t="shared" si="22"/>
-        <v>3.848723709132119E-3</v>
+        <v>3.8648386144754499E-3</v>
       </c>
       <c r="Q148" s="80" t="s">
         <v>105</v>
@@ -13383,7 +13401,7 @@
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="12">
-        <v>124.761</v>
+        <v>124.818</v>
       </c>
       <c r="K149" s="77">
         <v>106.556</v>
@@ -13393,19 +13411,19 @@
       </c>
       <c r="M149" s="11">
         <f t="shared" si="24"/>
-        <v>3742.83</v>
+        <v>3744.54</v>
       </c>
       <c r="N149" s="23">
         <f t="shared" si="23"/>
-        <v>0.17084913097338489</v>
+        <v>0.17138406096324937</v>
       </c>
       <c r="O149" s="11">
         <f t="shared" si="25"/>
-        <v>546.15</v>
+        <v>547.86</v>
       </c>
       <c r="P149" s="23">
         <f t="shared" si="22"/>
-        <v>1.3335603184827781E-2</v>
+        <v>1.3400163691745202E-2</v>
       </c>
       <c r="Q149" s="80" t="s">
         <v>105</v>
@@ -13534,7 +13552,7 @@
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="12">
-        <v>104.96899999999999</v>
+        <v>106.07599999999999</v>
       </c>
       <c r="K152" s="12">
         <v>110.26300000000001</v>
@@ -13544,19 +13562,19 @@
       </c>
       <c r="M152" s="11">
         <f t="shared" si="24"/>
-        <v>3149.0699999999997</v>
+        <v>3182.2799999999997</v>
       </c>
       <c r="N152" s="23">
         <f t="shared" si="23"/>
-        <v>-4.8012479254146999E-2</v>
+        <v>-3.7972846739160113E-2</v>
       </c>
       <c r="O152" s="11">
         <f t="shared" ref="O152:O163" si="26">(J152-K152)*L152</f>
-        <v>-158.82000000000033</v>
+        <v>-125.61000000000035</v>
       </c>
       <c r="P152" s="23">
         <f t="shared" si="22"/>
-        <v>1.1220052185444066E-2</v>
+        <v>1.1388067135874345E-2</v>
       </c>
       <c r="Q152" s="80" t="s">
         <v>131</v>
@@ -13788,7 +13806,7 @@
         <v>65</v>
       </c>
       <c r="J157" s="12">
-        <v>126.505</v>
+        <v>126.02800000000001</v>
       </c>
       <c r="K157" s="12">
         <v>109.09</v>
@@ -13798,19 +13816,19 @@
       </c>
       <c r="M157" s="11">
         <f t="shared" si="24"/>
-        <v>1265.05</v>
+        <v>1260.28</v>
       </c>
       <c r="N157" s="23">
         <f t="shared" si="23"/>
-        <v>0.15963883032358595</v>
+        <v>0.15526629388578239</v>
       </c>
       <c r="O157" s="11">
         <f t="shared" si="26"/>
-        <v>174.14999999999992</v>
+        <v>169.38000000000002</v>
       </c>
       <c r="P157" s="23">
         <f t="shared" si="22"/>
-        <v>4.5073393151616251E-3</v>
+        <v>4.5100221382152793E-3</v>
       </c>
       <c r="Q157" s="80" t="s">
         <v>135</v>
@@ -13894,7 +13912,7 @@
         <v>65</v>
       </c>
       <c r="J159" s="12">
-        <v>119.301</v>
+        <v>116.29900000000001</v>
       </c>
       <c r="K159" s="12">
         <v>107.64400000000001</v>
@@ -13904,19 +13922,19 @@
       </c>
       <c r="M159" s="11">
         <f t="shared" si="24"/>
-        <v>1193.01</v>
+        <v>1162.99</v>
       </c>
       <c r="N159" s="23">
         <f t="shared" si="23"/>
-        <v>0.10829214819218903</v>
+        <v>8.0403924045929179E-2</v>
       </c>
       <c r="O159" s="11">
         <f t="shared" si="26"/>
-        <v>116.56999999999996</v>
+        <v>86.550000000000011</v>
       </c>
       <c r="P159" s="23">
         <f t="shared" si="22"/>
-        <v>4.250662721932706E-3</v>
+        <v>4.1618613693171266E-3</v>
       </c>
       <c r="Q159" s="80"/>
       <c r="S159" s="24"/>
@@ -14094,7 +14112,7 @@
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="12">
-        <v>105.322</v>
+        <v>107.44499999999999</v>
       </c>
       <c r="K163" s="12">
         <v>107.374</v>
@@ -14104,19 +14122,19 @@
       </c>
       <c r="M163" s="11">
         <f t="shared" si="24"/>
-        <v>3159.66</v>
+        <v>3223.35</v>
       </c>
       <c r="N163" s="23">
         <f t="shared" si="23"/>
-        <v>-1.911077169519616E-2</v>
+        <v>6.6124015124702402E-4</v>
       </c>
       <c r="O163" s="11">
         <f t="shared" si="26"/>
-        <v>-61.559999999999775</v>
+        <v>2.1299999999999386</v>
       </c>
       <c r="P163" s="23">
         <f t="shared" si="22"/>
-        <v>1.1257784072205509E-2</v>
+        <v>1.1535039720709859E-2</v>
       </c>
       <c r="Q163" s="80" t="s">
         <v>105</v>
@@ -14393,7 +14411,7 @@
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="12">
-        <v>106.351</v>
+        <v>106.758</v>
       </c>
       <c r="K169" s="12">
         <v>105.581</v>
@@ -14403,19 +14421,19 @@
       </c>
       <c r="M169" s="11">
         <f t="shared" si="24"/>
-        <v>3190.5299999999997</v>
+        <v>3202.74</v>
       </c>
       <c r="N169" s="23">
         <f t="shared" si="28"/>
-        <v>7.2929788503612964E-3</v>
+        <v>1.1147839099837967E-2</v>
       </c>
       <c r="O169" s="11">
         <f t="shared" si="29"/>
-        <v>23.099999999999881</v>
+        <v>35.309999999999775</v>
       </c>
       <c r="P169" s="23">
         <f t="shared" si="22"/>
-        <v>1.1367773056561099E-2</v>
+        <v>1.1461285034236521E-2</v>
       </c>
       <c r="Q169" s="80" t="s">
         <v>105</v>
@@ -14499,7 +14517,7 @@
         <v>65</v>
       </c>
       <c r="J171" s="12">
-        <v>106.839</v>
+        <v>107.53400000000001</v>
       </c>
       <c r="K171" s="12">
         <v>106.58799999999999</v>
@@ -14509,19 +14527,19 @@
       </c>
       <c r="M171" s="11">
         <f t="shared" si="24"/>
-        <v>4273.5599999999995</v>
+        <v>4301.3600000000006</v>
       </c>
       <c r="N171" s="23">
         <f t="shared" si="28"/>
-        <v>2.3548617105115474E-3</v>
+        <v>8.875295530453825E-3</v>
       </c>
       <c r="O171" s="11">
         <f t="shared" si="29"/>
-        <v>10.040000000000191</v>
+        <v>37.840000000000487</v>
       </c>
       <c r="P171" s="23">
         <f t="shared" si="22"/>
-        <v>1.522657998000246E-2</v>
+        <v>1.5392792732118004E-2</v>
       </c>
       <c r="Q171" s="80" t="s">
         <v>105</v>
@@ -14556,7 +14574,7 @@
         <v>65</v>
       </c>
       <c r="J172" s="12">
-        <v>115.52</v>
+        <v>116.58</v>
       </c>
       <c r="K172" s="12">
         <v>108.875</v>
@@ -14566,19 +14584,19 @@
       </c>
       <c r="M172" s="11">
         <f t="shared" si="24"/>
-        <v>2310.4</v>
+        <v>2331.6</v>
       </c>
       <c r="N172" s="23">
         <f t="shared" si="28"/>
-        <v>6.1033295063145775E-2</v>
+        <v>7.0769230769230751E-2</v>
       </c>
       <c r="O172" s="11">
         <f t="shared" si="29"/>
-        <v>132.89999999999992</v>
+        <v>154.09999999999997</v>
       </c>
       <c r="P172" s="23">
         <f t="shared" si="22"/>
-        <v>8.2318934063866402E-3</v>
+        <v>8.3438343998657009E-3</v>
       </c>
       <c r="Q172" s="80" t="s">
         <v>105</v>
@@ -14809,7 +14827,7 @@
       </c>
       <c r="I177" s="15"/>
       <c r="J177" s="12">
-        <v>107.26</v>
+        <v>107.81399999999999</v>
       </c>
       <c r="K177" s="12">
         <v>109.65</v>
@@ -14819,19 +14837,19 @@
       </c>
       <c r="M177" s="11">
         <f t="shared" si="30"/>
-        <v>1072.6000000000001</v>
+        <v>1078.1399999999999</v>
       </c>
       <c r="N177" s="23">
         <f t="shared" si="28"/>
-        <v>-2.1796625626994987E-2</v>
+        <v>-1.6744186046511744E-2</v>
       </c>
       <c r="O177" s="11">
         <f t="shared" si="29"/>
-        <v>-23.900000000000006</v>
+        <v>-18.360000000000127</v>
       </c>
       <c r="P177" s="23">
         <f t="shared" si="22"/>
-        <v>3.8216451124005843E-3</v>
+        <v>3.8582182277711471E-3</v>
       </c>
       <c r="Q177" s="80" t="s">
         <v>149</v>
@@ -15165,7 +15183,7 @@
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="12">
-        <v>122.417</v>
+        <v>124.2</v>
       </c>
       <c r="K184" s="12">
         <v>105.38</v>
@@ -15175,19 +15193,19 @@
       </c>
       <c r="M184" s="11">
         <f t="shared" si="30"/>
-        <v>1224.17</v>
+        <v>1242</v>
       </c>
       <c r="N184" s="23">
         <f t="shared" si="28"/>
-        <v>0.16167204403112551</v>
+        <v>0.17859176314291145</v>
       </c>
       <c r="O184" s="11">
         <f t="shared" si="29"/>
-        <v>170.37000000000006</v>
+        <v>188.20000000000007</v>
       </c>
       <c r="P184" s="23">
         <f t="shared" si="22"/>
-        <v>4.3616849685319996E-3</v>
+        <v>4.4446055604019565E-3</v>
       </c>
       <c r="Q184" s="80" t="s">
         <v>156</v>
@@ -16201,7 +16219,7 @@
       </c>
       <c r="I205" s="15"/>
       <c r="J205" s="12">
-        <v>125.8</v>
+        <v>128.458</v>
       </c>
       <c r="K205" s="12">
         <v>108.934</v>
@@ -16211,19 +16229,19 @@
       </c>
       <c r="M205" s="11">
         <f t="shared" ref="M205:M227" si="34">J205*L205</f>
-        <v>2516</v>
+        <v>2569.16</v>
       </c>
       <c r="N205" s="23">
         <f t="shared" si="33"/>
-        <v>0.15482769383296308</v>
+        <v>0.17922778930361505</v>
       </c>
       <c r="O205" s="11">
         <f t="shared" si="29"/>
-        <v>337.32</v>
+        <v>390.48</v>
       </c>
       <c r="P205" s="23">
         <f t="shared" si="32"/>
-        <v>8.9644407074397445E-3</v>
+        <v>9.1939636244462875E-3</v>
       </c>
       <c r="Q205" s="113" t="s">
         <v>163</v>
@@ -16454,7 +16472,7 @@
         <v>51</v>
       </c>
       <c r="J210" s="12">
-        <v>93.665999999999997</v>
+        <v>93.495999999999995</v>
       </c>
       <c r="K210" s="13">
         <v>102.309</v>
@@ -16464,19 +16482,19 @@
       </c>
       <c r="M210" s="11">
         <f t="shared" si="34"/>
-        <v>4683.3</v>
+        <v>4674.8</v>
       </c>
       <c r="N210" s="23">
         <f t="shared" si="33"/>
-        <v>-8.4479371316306492E-2</v>
+        <v>-8.6141004212728134E-2</v>
       </c>
       <c r="O210" s="11">
         <f t="shared" si="29"/>
-        <v>-432.15000000000003</v>
+        <v>-440.65000000000009</v>
       </c>
       <c r="P210" s="23">
         <f t="shared" si="32"/>
-        <v>1.6686472641157614E-2</v>
+        <v>1.6729180413661084E-2</v>
       </c>
       <c r="Q210" s="128" t="s">
         <v>167</v>
@@ -17197,7 +17215,7 @@
       </c>
       <c r="I225" s="15"/>
       <c r="J225" s="12">
-        <v>114.998</v>
+        <v>114.681</v>
       </c>
       <c r="K225" s="12">
         <v>108.65</v>
@@ -17207,19 +17225,19 @@
       </c>
       <c r="M225" s="11">
         <f t="shared" si="34"/>
-        <v>2299.96</v>
+        <v>2293.62</v>
       </c>
       <c r="N225" s="23">
         <f t="shared" si="37"/>
-        <v>5.8426138978370901E-2</v>
+        <v>5.5508513575701718E-2</v>
       </c>
       <c r="O225" s="11">
         <f t="shared" si="29"/>
-        <v>126.95999999999998</v>
+        <v>120.61999999999983</v>
       </c>
       <c r="P225" s="23">
         <f t="shared" si="32"/>
-        <v>8.1946959656133203E-3</v>
+        <v>8.2079196501200751E-3</v>
       </c>
       <c r="Q225" s="130" t="s">
         <v>139</v>
@@ -17497,7 +17515,7 @@
       </c>
       <c r="I231" s="15"/>
       <c r="J231" s="12">
-        <v>104.01300000000001</v>
+        <v>103.999</v>
       </c>
       <c r="K231" s="12">
         <v>105.709</v>
@@ -17507,19 +17525,19 @@
       </c>
       <c r="M231" s="11">
         <f t="shared" ref="M231:M245" si="41">J231*L231</f>
-        <v>3120.3900000000003</v>
+        <v>3119.97</v>
       </c>
       <c r="N231" s="23">
         <f t="shared" ref="N231:N245" si="42">(J231-K231)/K231</f>
-        <v>-1.6044045445515499E-2</v>
+        <v>-1.6176484499900747E-2</v>
       </c>
       <c r="O231" s="11">
         <f t="shared" ref="O231:O245" si="43">(J231-K231)*L231</f>
-        <v>-50.879999999999939</v>
+        <v>-51.300000000000239</v>
       </c>
       <c r="P231" s="23">
         <f t="shared" si="32"/>
-        <v>1.1117866112515066E-2</v>
+        <v>1.1165085354498623E-2</v>
       </c>
       <c r="Q231" s="108" t="s">
         <v>181</v>
@@ -17649,7 +17667,7 @@
       </c>
       <c r="I234" s="15"/>
       <c r="J234" s="12">
-        <v>109.065</v>
+        <v>109.407</v>
       </c>
       <c r="K234" s="12">
         <v>106.96</v>
@@ -17659,19 +17677,19 @@
       </c>
       <c r="M234" s="11">
         <f t="shared" si="41"/>
-        <v>4362.6000000000004</v>
+        <v>4376.28</v>
       </c>
       <c r="N234" s="23">
         <f t="shared" si="42"/>
-        <v>1.9680254300673189E-2</v>
+        <v>2.2877711293941689E-2</v>
       </c>
       <c r="O234" s="11">
         <f t="shared" si="43"/>
-        <v>84.200000000000159</v>
+        <v>97.880000000000109</v>
       </c>
       <c r="P234" s="23">
         <f t="shared" si="32"/>
-        <v>1.554382711855192E-2</v>
+        <v>1.5660900500705212E-2</v>
       </c>
       <c r="Q234" s="134"/>
       <c r="S234" s="24"/>
@@ -17749,7 +17767,7 @@
       </c>
       <c r="I236" s="15"/>
       <c r="J236" s="12">
-        <v>106.95</v>
+        <v>107.91200000000001</v>
       </c>
       <c r="K236" s="12">
         <v>108.294</v>
@@ -17759,19 +17777,19 @@
       </c>
       <c r="M236" s="11">
         <f t="shared" si="41"/>
-        <v>2139</v>
+        <v>2158.2400000000002</v>
       </c>
       <c r="N236" s="23">
         <f t="shared" si="42"/>
-        <v>-1.2410659870352874E-2</v>
+        <v>-3.5274345762460598E-3</v>
       </c>
       <c r="O236" s="11">
         <f t="shared" si="43"/>
-        <v>-26.879999999999882</v>
+        <v>-7.6399999999998158</v>
       </c>
       <c r="P236" s="23">
         <f t="shared" si="32"/>
-        <v>7.6211997906254422E-3</v>
+        <v>7.7234504868614485E-3</v>
       </c>
       <c r="Q236" s="134"/>
       <c r="S236" s="24"/>
@@ -17802,7 +17820,7 @@
       </c>
       <c r="I237" s="15"/>
       <c r="J237" s="12">
-        <v>95.5</v>
+        <v>97</v>
       </c>
       <c r="K237" s="12">
         <v>104.71299999999999</v>
@@ -17812,19 +17830,19 @@
       </c>
       <c r="M237" s="11">
         <f t="shared" si="41"/>
-        <v>1910</v>
+        <v>1940</v>
       </c>
       <c r="N237" s="23">
         <f t="shared" si="42"/>
-        <v>-8.7983344952393627E-2</v>
+        <v>-7.3658476024944311E-2</v>
       </c>
       <c r="O237" s="11">
         <f t="shared" si="43"/>
-        <v>-184.25999999999988</v>
+        <v>-154.25999999999988</v>
       </c>
       <c r="P237" s="23">
         <f t="shared" si="32"/>
-        <v>6.8052789154252431E-3</v>
+        <v>6.9424595709982242E-3</v>
       </c>
       <c r="Q237" s="134"/>
       <c r="S237" s="24"/>
@@ -17902,7 +17920,7 @@
       </c>
       <c r="I239" s="15"/>
       <c r="J239" s="12">
-        <v>112.321</v>
+        <v>113.297</v>
       </c>
       <c r="K239" s="12">
         <v>108.596</v>
@@ -17912,19 +17930,19 @@
       </c>
       <c r="M239" s="11">
         <f t="shared" si="41"/>
-        <v>2246.42</v>
+        <v>2265.94</v>
       </c>
       <c r="N239" s="23">
         <f t="shared" si="42"/>
-        <v>3.4301447567129488E-2</v>
+        <v>4.3288887251832421E-2</v>
       </c>
       <c r="O239" s="11">
         <f t="shared" si="43"/>
-        <v>74.499999999999886</v>
+        <v>94.019999999999868</v>
       </c>
       <c r="P239" s="23">
         <f t="shared" si="32"/>
-        <v>8.0039343775861645E-3</v>
+        <v>8.1088643506740804E-3</v>
       </c>
       <c r="Q239" s="134" t="s">
         <v>190</v>
@@ -18195,7 +18213,7 @@
       </c>
       <c r="I245" s="15"/>
       <c r="J245" s="12">
-        <v>106.021</v>
+        <v>106.45</v>
       </c>
       <c r="K245" s="12">
         <v>106.852</v>
@@ -18205,19 +18223,19 @@
       </c>
       <c r="M245" s="11">
         <f t="shared" si="41"/>
-        <v>2120.42</v>
+        <v>2129</v>
       </c>
       <c r="N245" s="23">
         <f t="shared" si="42"/>
-        <v>-7.7771122674353595E-3</v>
+        <v>-3.7622131546438159E-3</v>
       </c>
       <c r="O245" s="11">
         <f t="shared" si="43"/>
-        <v>-16.620000000000061</v>
+        <v>-8.0400000000000205</v>
       </c>
       <c r="P245" s="23">
         <f t="shared" si="32"/>
-        <v>7.5549997475633478E-3</v>
+        <v>7.6188125910593915E-3</v>
       </c>
       <c r="Q245" s="80"/>
       <c r="S245" s="24"/>
@@ -18533,7 +18551,7 @@
       </c>
       <c r="I252" s="15"/>
       <c r="J252" s="12">
-        <v>110.83199999999999</v>
+        <v>111.8</v>
       </c>
       <c r="K252" s="12">
         <v>109.35</v>
@@ -18543,19 +18561,19 @@
       </c>
       <c r="M252" s="11">
         <f t="shared" si="44"/>
-        <v>1108.32</v>
+        <v>1118</v>
       </c>
       <c r="N252" s="23">
         <f t="shared" si="45"/>
-        <v>1.3552812071330585E-2</v>
+        <v>2.2405121170553297E-2</v>
       </c>
       <c r="O252" s="11">
         <f t="shared" si="46"/>
-        <v>14.819999999999993</v>
+        <v>24.500000000000028</v>
       </c>
       <c r="P252" s="23">
         <f t="shared" si="32"/>
-        <v>3.9489145170387985E-3</v>
+        <v>4.0008607218433067E-3</v>
       </c>
       <c r="Q252" s="80" t="s">
         <v>105</v>
@@ -18587,7 +18605,7 @@
       </c>
       <c r="I253" s="15"/>
       <c r="J253" s="12">
-        <v>114.021</v>
+        <v>113.36199999999999</v>
       </c>
       <c r="K253" s="12">
         <v>109.39100000000001</v>
@@ -18597,19 +18615,19 @@
       </c>
       <c r="M253" s="11">
         <f t="shared" si="44"/>
-        <v>1140.21</v>
+        <v>1133.6199999999999</v>
       </c>
       <c r="N253" s="23">
         <f t="shared" si="45"/>
-        <v>4.232523699390256E-2</v>
+        <v>3.6300975400169931E-2</v>
       </c>
       <c r="O253" s="11">
         <f t="shared" si="46"/>
-        <v>46.299999999999955</v>
+        <v>39.709999999999894</v>
       </c>
       <c r="P253" s="23">
         <f t="shared" si="32"/>
-        <v>4.0625377341136212E-3</v>
+        <v>4.056758257152065E-3</v>
       </c>
       <c r="Q253" s="80" t="s">
         <v>105</v>
@@ -18668,52 +18686,51 @@
       <c r="B255" s="155">
         <v>254</v>
       </c>
-      <c r="C255" s="29">
+      <c r="C255" s="162">
         <v>44852</v>
       </c>
-      <c r="D255" s="30">
+      <c r="D255" s="163">
         <v>113013</v>
       </c>
-      <c r="E255" s="115" t="s">
+      <c r="E255" s="164" t="s">
         <v>204</v>
       </c>
-      <c r="F255" s="19">
-        <v>10</v>
-      </c>
-      <c r="G255" s="19">
+      <c r="F255" s="165">
+        <v>10</v>
+      </c>
+      <c r="G255" s="165">
         <v>108.06</v>
       </c>
-      <c r="H255" s="14">
+      <c r="H255" s="166">
         <f t="shared" si="38"/>
         <v>1080.5999999999999</v>
       </c>
-      <c r="I255" s="15"/>
-      <c r="J255" s="12">
-        <v>104.876</v>
-      </c>
-      <c r="K255" s="12">
-        <v>106.13</v>
-      </c>
-      <c r="L255" s="12">
-        <v>30</v>
-      </c>
-      <c r="M255" s="11">
+      <c r="I255" s="167"/>
+      <c r="J255" s="167">
+        <v>0</v>
+      </c>
+      <c r="K255" s="167">
+        <v>0</v>
+      </c>
+      <c r="L255" s="167">
+        <v>0</v>
+      </c>
+      <c r="M255" s="166">
         <f t="shared" si="44"/>
-        <v>3146.28</v>
-      </c>
-      <c r="N255" s="23">
+        <v>0</v>
+      </c>
+      <c r="N255" s="168" t="e">
         <f t="shared" si="45"/>
-        <v>-1.181569772919995E-2</v>
-      </c>
-      <c r="O255" s="11">
-        <f t="shared" si="46"/>
-        <v>-37.61999999999972</v>
-      </c>
-      <c r="P255" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O255" s="166">
+        <v>-63.79</v>
+      </c>
+      <c r="P255" s="168">
         <f t="shared" si="32"/>
-        <v>1.1210111490064992E-2</v>
-      </c>
-      <c r="Q255" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q255" s="169" t="s">
         <v>105</v>
       </c>
       <c r="S255" s="24"/>
@@ -19030,7 +19047,7 @@
       </c>
       <c r="I262" s="15"/>
       <c r="J262" s="12">
-        <v>96.814999999999998</v>
+        <v>98.95</v>
       </c>
       <c r="K262" s="12">
         <v>102.337</v>
@@ -19040,19 +19057,19 @@
       </c>
       <c r="M262" s="11">
         <f t="shared" si="44"/>
-        <v>1936.3</v>
+        <v>1979</v>
       </c>
       <c r="N262" s="23">
         <f t="shared" si="45"/>
-        <v>-5.3958978668516816E-2</v>
+        <v>-3.3096534000410412E-2</v>
       </c>
       <c r="O262" s="11">
         <f t="shared" si="46"/>
-        <v>-110.44000000000011</v>
+        <v>-67.740000000000009</v>
       </c>
       <c r="P262" s="23">
         <f t="shared" si="47"/>
-        <v>6.8989851120093704E-3</v>
+        <v>7.0820244798997355E-3</v>
       </c>
       <c r="Q262" s="80"/>
       <c r="S262" s="24"/>
@@ -19128,7 +19145,7 @@
       </c>
       <c r="I264" s="15"/>
       <c r="J264" s="12">
-        <v>104.61</v>
+        <v>106.39</v>
       </c>
       <c r="K264" s="12">
         <v>105.532</v>
@@ -19138,19 +19155,19 @@
       </c>
       <c r="M264" s="11">
         <f t="shared" si="44"/>
-        <v>1046.0999999999999</v>
+        <v>1063.9000000000001</v>
       </c>
       <c r="N264" s="23">
         <f t="shared" si="45"/>
-        <v>-8.7366865026721474E-3</v>
+        <v>8.130235378842476E-3</v>
       </c>
       <c r="O264" s="11">
         <f t="shared" si="46"/>
-        <v>-9.2199999999999704</v>
+        <v>8.5800000000000409</v>
       </c>
       <c r="P264" s="23">
         <f t="shared" si="47"/>
-        <v>3.7272263211656259E-3</v>
+        <v>3.8072591430850576E-3</v>
       </c>
       <c r="Q264" s="80"/>
       <c r="S264" s="24"/>
@@ -19612,7 +19629,7 @@
       </c>
       <c r="I274" s="15"/>
       <c r="J274" s="12">
-        <v>101.173</v>
+        <v>101.807</v>
       </c>
       <c r="K274" s="12">
         <v>98.712000000000003</v>
@@ -19622,19 +19639,19 @@
       </c>
       <c r="M274" s="11">
         <f t="shared" si="48"/>
-        <v>3035.19</v>
+        <v>3054.21</v>
       </c>
       <c r="N274" s="23">
         <f t="shared" si="49"/>
-        <v>2.4931112731987989E-2</v>
+        <v>3.1353837426047478E-2</v>
       </c>
       <c r="O274" s="11">
         <f t="shared" si="50"/>
-        <v>73.829999999999956</v>
+        <v>92.849999999999966</v>
       </c>
       <c r="P274" s="23">
         <f t="shared" si="47"/>
-        <v>1.0814300791261541E-2</v>
+        <v>1.092975744656623E-2</v>
       </c>
       <c r="Q274" s="80"/>
       <c r="S274" s="24"/>
@@ -19760,7 +19777,7 @@
       </c>
       <c r="I277" s="15"/>
       <c r="J277" s="12">
-        <v>115.992</v>
+        <v>117.84</v>
       </c>
       <c r="K277" s="12">
         <v>108.184</v>
@@ -19770,19 +19787,19 @@
       </c>
       <c r="M277" s="11">
         <f t="shared" si="48"/>
-        <v>2319.84</v>
+        <v>2356.8000000000002</v>
       </c>
       <c r="N277" s="23">
         <f t="shared" si="49"/>
-        <v>7.2173334319307905E-2</v>
+        <v>8.9255342749389982E-2</v>
       </c>
       <c r="O277" s="11">
         <f t="shared" si="50"/>
-        <v>156.16000000000014</v>
+        <v>193.12000000000012</v>
       </c>
       <c r="P277" s="23">
         <f t="shared" si="47"/>
-        <v>8.2655278739058088E-3</v>
+        <v>8.4340148025405237E-3</v>
       </c>
       <c r="Q277" s="80"/>
       <c r="S277" s="24"/>
@@ -19860,7 +19877,7 @@
       </c>
       <c r="I279" s="15"/>
       <c r="J279" s="12">
-        <v>113.15</v>
+        <v>115.878</v>
       </c>
       <c r="K279" s="12">
         <v>108.63</v>
@@ -19870,19 +19887,19 @@
       </c>
       <c r="M279" s="11">
         <f t="shared" si="48"/>
-        <v>1131.5</v>
+        <v>1158.78</v>
       </c>
       <c r="N279" s="23">
         <f t="shared" si="49"/>
-        <v>4.1609131915677167E-2</v>
+        <v>6.6721900027616729E-2</v>
       </c>
       <c r="O279" s="11">
         <f t="shared" si="50"/>
-        <v>45.200000000000102</v>
+        <v>72.480000000000047</v>
       </c>
       <c r="P279" s="23">
         <f t="shared" si="47"/>
-        <v>4.03150423706998E-3</v>
+        <v>4.146795516330579E-3</v>
       </c>
       <c r="Q279" s="86" t="s">
         <v>218</v>
@@ -20055,7 +20072,7 @@
       </c>
       <c r="I283" s="15"/>
       <c r="J283" s="12">
-        <v>106.53</v>
+        <v>108.41</v>
       </c>
       <c r="K283" s="12">
         <v>107.79300000000001</v>
@@ -20065,19 +20082,19 @@
       </c>
       <c r="M283" s="11">
         <f t="shared" si="52"/>
-        <v>1065.3</v>
+        <v>1084.0999999999999</v>
       </c>
       <c r="N283" s="23">
         <f t="shared" si="53"/>
-        <v>-1.1716901839637131E-2</v>
+        <v>5.7239338361488243E-3</v>
       </c>
       <c r="O283" s="11">
         <f t="shared" si="54"/>
-        <v>-12.630000000000052</v>
+        <v>6.1699999999999022</v>
       </c>
       <c r="P283" s="23">
         <f t="shared" si="47"/>
-        <v>3.7956354076452937E-3</v>
+        <v>3.8795466087212238E-3</v>
       </c>
       <c r="Q283" s="80"/>
       <c r="S283" s="24"/>
@@ -20156,7 +20173,7 @@
       </c>
       <c r="I285" s="15"/>
       <c r="J285" s="12">
-        <v>111.601</v>
+        <v>111.831</v>
       </c>
       <c r="K285" s="12">
         <v>108.64</v>
@@ -20166,19 +20183,19 @@
       </c>
       <c r="M285" s="11">
         <f t="shared" si="52"/>
-        <v>1116.01</v>
+        <v>1118.31</v>
       </c>
       <c r="N285" s="23">
         <f t="shared" si="53"/>
-        <v>2.7255154639175244E-2</v>
+        <v>2.9372238586156136E-2</v>
       </c>
       <c r="O285" s="11">
         <f t="shared" si="54"/>
-        <v>29.609999999999985</v>
+        <v>31.910000000000025</v>
       </c>
       <c r="P285" s="23">
         <f t="shared" si="47"/>
-        <v>3.9763137813632072E-3</v>
+        <v>4.0019700839397029E-3</v>
       </c>
       <c r="Q285" s="80"/>
       <c r="S285" s="24"/>
@@ -20306,7 +20323,7 @@
       </c>
       <c r="I288" s="15"/>
       <c r="J288" s="12">
-        <v>122.85</v>
+        <v>126.4</v>
       </c>
       <c r="K288" s="12">
         <v>112.685</v>
@@ -20316,19 +20333,19 @@
       </c>
       <c r="M288" s="11">
         <f t="shared" si="52"/>
-        <v>1228.5</v>
+        <v>1264</v>
       </c>
       <c r="N288" s="23">
         <f t="shared" si="53"/>
-        <v>9.0207214802324992E-2</v>
+        <v>0.12171096419221727</v>
       </c>
       <c r="O288" s="11">
         <f t="shared" si="54"/>
-        <v>101.64999999999992</v>
+        <v>137.15000000000003</v>
       </c>
       <c r="P288" s="23">
         <f t="shared" si="47"/>
-        <v>4.3771126427224662E-3</v>
+        <v>4.523334483372039E-3</v>
       </c>
       <c r="Q288" s="80" t="s">
         <v>227</v>
@@ -21079,7 +21096,7 @@
         <v>65</v>
       </c>
       <c r="J304" s="12">
-        <v>95.763999999999996</v>
+        <v>96.540999999999997</v>
       </c>
       <c r="K304" s="12">
         <v>109.995</v>
@@ -21089,19 +21106,19 @@
       </c>
       <c r="M304" s="11">
         <f t="shared" si="55"/>
-        <v>4788.2</v>
+        <v>4827.05</v>
       </c>
       <c r="N304" s="23">
         <f t="shared" si="56"/>
-        <v>-0.12937860811855093</v>
+        <v>-0.12231465066593943</v>
       </c>
       <c r="O304" s="11">
         <f t="shared" si="57"/>
-        <v>-711.55000000000041</v>
+        <v>-672.70000000000039</v>
       </c>
       <c r="P304" s="23">
         <f t="shared" si="47"/>
-        <v>1.7060228535517877E-2</v>
+        <v>1.7274020346488134E-2</v>
       </c>
       <c r="Q304" s="172"/>
       <c r="S304" s="24"/>
@@ -21462,7 +21479,7 @@
       </c>
       <c r="I312" s="15"/>
       <c r="J312" s="12">
-        <v>106.842</v>
+        <v>106.9</v>
       </c>
       <c r="K312" s="12">
         <v>107.489</v>
@@ -21472,19 +21489,19 @@
       </c>
       <c r="M312" s="11">
         <f t="shared" ref="M312:M326" si="59">J312*L312</f>
-        <v>2136.84</v>
+        <v>2138</v>
       </c>
       <c r="N312" s="23">
         <f t="shared" ref="N312:N326" si="60">(J312-K312)/K312</f>
-        <v>-6.0192205714073585E-3</v>
+        <v>-5.4796304738159128E-3</v>
       </c>
       <c r="O312" s="11">
         <f t="shared" ref="O312:O326" si="61">(J312-K312)*L312</f>
-        <v>-12.940000000000111</v>
+        <v>-11.779999999999973</v>
       </c>
       <c r="P312" s="23">
         <f t="shared" si="47"/>
-        <v>7.6135037683964799E-3</v>
+        <v>7.6510198777289713E-3</v>
       </c>
       <c r="Q312" s="80"/>
       <c r="S312" s="24"/>
@@ -21610,7 +21627,7 @@
       </c>
       <c r="I315" s="15"/>
       <c r="J315" s="12">
-        <v>117.499</v>
+        <v>115.557</v>
       </c>
       <c r="K315" s="12">
         <v>107.2</v>
@@ -21620,19 +21637,19 @@
       </c>
       <c r="M315" s="11">
         <f t="shared" si="59"/>
-        <v>1174.99</v>
+        <v>1155.57</v>
       </c>
       <c r="N315" s="23">
         <f t="shared" si="60"/>
-        <v>9.6072761194029771E-2</v>
+        <v>7.7957089552238804E-2</v>
       </c>
       <c r="O315" s="11">
         <f t="shared" si="61"/>
-        <v>102.98999999999992</v>
+        <v>83.57</v>
       </c>
       <c r="P315" s="23">
         <f t="shared" si="47"/>
-        <v>4.1864579438929354E-3</v>
+        <v>4.1353082507517621E-3</v>
       </c>
       <c r="Q315" s="80"/>
       <c r="S315" s="24"/>
@@ -21758,7 +21775,7 @@
         <v>80</v>
       </c>
       <c r="J318" s="12">
-        <v>98.75</v>
+        <v>98.921999999999997</v>
       </c>
       <c r="K318" s="12">
         <v>100</v>
@@ -21768,19 +21785,19 @@
       </c>
       <c r="M318" s="11">
         <f t="shared" si="59"/>
-        <v>987.5</v>
+        <v>989.22</v>
       </c>
       <c r="N318" s="23">
         <f t="shared" si="60"/>
-        <v>-1.2500000000000001E-2</v>
+        <v>-1.0780000000000029E-2</v>
       </c>
       <c r="O318" s="11">
         <f t="shared" si="61"/>
-        <v>-12.5</v>
+        <v>-10.78000000000003</v>
       </c>
       <c r="P318" s="23">
         <f t="shared" si="47"/>
-        <v>3.5184360884724748E-3</v>
+        <v>3.5400102354757029E-3</v>
       </c>
       <c r="Q318" s="80"/>
       <c r="S318" s="24"/>
@@ -21810,7 +21827,7 @@
       </c>
       <c r="I319" s="15"/>
       <c r="J319" s="12">
-        <v>120.07299999999999</v>
+        <v>123.22</v>
       </c>
       <c r="K319" s="12">
         <v>74.602999999999994</v>
@@ -21820,19 +21837,19 @@
       </c>
       <c r="M319" s="11">
         <f t="shared" si="59"/>
-        <v>1200.73</v>
+        <v>1232.2</v>
       </c>
       <c r="N319" s="23">
         <f t="shared" si="60"/>
-        <v>0.60949291583448395</v>
+        <v>0.65167620605069509</v>
       </c>
       <c r="O319" s="11">
         <f t="shared" si="61"/>
-        <v>454.7</v>
+        <v>486.17000000000007</v>
       </c>
       <c r="P319" s="23">
         <f t="shared" si="47"/>
-        <v>4.2781688754547388E-3</v>
+        <v>4.4095354038061916E-3</v>
       </c>
       <c r="Q319" s="80"/>
       <c r="S319" s="24"/>
@@ -21862,7 +21879,7 @@
       </c>
       <c r="I320" s="15"/>
       <c r="J320" s="12">
-        <v>121.81699999999999</v>
+        <v>119.9</v>
       </c>
       <c r="K320" s="12">
         <v>107.321</v>
@@ -21872,19 +21889,19 @@
       </c>
       <c r="M320" s="11">
         <f t="shared" si="59"/>
-        <v>1218.1699999999998</v>
+        <v>1199</v>
       </c>
       <c r="N320" s="23">
         <f t="shared" si="60"/>
-        <v>0.13507142125026783</v>
+        <v>0.11720912030264355</v>
       </c>
       <c r="O320" s="11">
         <f t="shared" si="61"/>
-        <v>144.95999999999995</v>
+        <v>125.79000000000008</v>
       </c>
       <c r="P320" s="23">
         <f t="shared" si="47"/>
-        <v>4.3403071290071035E-3</v>
+        <v>4.2907263018695215E-3</v>
       </c>
       <c r="Q320" s="80"/>
       <c r="S320" s="24"/>
@@ -21914,7 +21931,7 @@
       </c>
       <c r="I321" s="15"/>
       <c r="J321" s="12">
-        <v>119.688</v>
+        <v>120.92700000000001</v>
       </c>
       <c r="K321" s="12">
         <v>107.5</v>
@@ -21924,19 +21941,19 @@
       </c>
       <c r="M321" s="11">
         <f t="shared" si="59"/>
-        <v>1196.8800000000001</v>
+        <v>1209.27</v>
       </c>
       <c r="N321" s="23">
         <f t="shared" si="60"/>
-        <v>0.11337674418604653</v>
+        <v>0.12490232558139541</v>
       </c>
       <c r="O321" s="11">
         <f t="shared" si="61"/>
-        <v>121.88000000000002</v>
+        <v>134.27000000000007</v>
       </c>
       <c r="P321" s="23">
         <f t="shared" si="47"/>
-        <v>4.2644514284262648E-3</v>
+        <v>4.3274783945469186E-3</v>
       </c>
       <c r="Q321" s="80"/>
       <c r="S321" s="24"/>
@@ -22012,7 +22029,7 @@
       </c>
       <c r="I323" s="15"/>
       <c r="J323" s="12">
-        <v>112.065</v>
+        <v>112.482</v>
       </c>
       <c r="K323" s="12">
         <v>108.402</v>
@@ -22022,19 +22039,19 @@
       </c>
       <c r="M323" s="11">
         <f t="shared" si="59"/>
-        <v>1120.6500000000001</v>
+        <v>1124.82</v>
       </c>
       <c r="N323" s="23">
         <f t="shared" si="60"/>
-        <v>3.379088946698397E-2</v>
+        <v>3.7637681961587406E-2</v>
       </c>
       <c r="O323" s="11">
         <f t="shared" si="61"/>
-        <v>36.629999999999967</v>
+        <v>40.799999999999983</v>
       </c>
       <c r="P323" s="23">
         <f t="shared" ref="P323:P388" si="62">M323/$M$573</f>
-        <v>3.9928459772624603E-3</v>
+        <v>4.0252666879640325E-3</v>
       </c>
       <c r="Q323" s="80"/>
       <c r="S323" s="24"/>
@@ -22064,7 +22081,7 @@
       </c>
       <c r="I324" s="15"/>
       <c r="J324" s="12">
-        <v>103.974</v>
+        <v>103.886</v>
       </c>
       <c r="K324" s="12">
         <v>106.306</v>
@@ -22074,19 +22091,19 @@
       </c>
       <c r="M324" s="11">
         <f t="shared" si="59"/>
-        <v>1039.74</v>
+        <v>1038.8599999999999</v>
       </c>
       <c r="N324" s="23">
         <f t="shared" si="60"/>
-        <v>-2.1936673376855433E-2</v>
+        <v>-2.2764472372208546E-2</v>
       </c>
       <c r="O324" s="11">
         <f t="shared" si="61"/>
-        <v>-23.319999999999936</v>
+        <v>-24.200000000000017</v>
       </c>
       <c r="P324" s="23">
         <f t="shared" si="62"/>
-        <v>3.7045658112692366E-3</v>
+        <v>3.7176513143954717E-3</v>
       </c>
       <c r="Q324" s="80"/>
       <c r="S324" s="24"/>
@@ -22116,7 +22133,7 @@
       </c>
       <c r="I325" s="15"/>
       <c r="J325" s="12">
-        <v>105.53400000000001</v>
+        <v>106.11199999999999</v>
       </c>
       <c r="K325" s="12">
         <v>107.97499999999999</v>
@@ -22126,19 +22143,19 @@
       </c>
       <c r="M325" s="11">
         <f t="shared" si="59"/>
-        <v>1055.3400000000001</v>
+        <v>1061.1199999999999</v>
       </c>
       <c r="N325" s="23">
         <f t="shared" si="60"/>
-        <v>-2.2607084973373357E-2</v>
+        <v>-1.7253993980087982E-2</v>
       </c>
       <c r="O325" s="11">
         <f t="shared" si="61"/>
-        <v>-24.409999999999883</v>
+        <v>-18.629999999999995</v>
       </c>
       <c r="P325" s="23">
         <f t="shared" si="62"/>
-        <v>3.7601481940339669E-3</v>
+        <v>3.7973106700915646E-3</v>
       </c>
       <c r="Q325" s="80"/>
       <c r="S325" s="24"/>
@@ -22168,7 +22185,7 @@
       </c>
       <c r="I326" s="15"/>
       <c r="J326" s="12">
-        <v>105.34699999999999</v>
+        <v>106.22</v>
       </c>
       <c r="K326" s="12">
         <v>104.95</v>
@@ -22178,19 +22195,19 @@
       </c>
       <c r="M326" s="11">
         <f t="shared" si="59"/>
-        <v>1053.47</v>
+        <v>1062.2</v>
       </c>
       <c r="N326" s="23">
         <f t="shared" si="60"/>
-        <v>3.7827536922343148E-3</v>
+        <v>1.2101000476417304E-2</v>
       </c>
       <c r="O326" s="11">
         <f t="shared" si="61"/>
-        <v>3.9699999999999136</v>
+        <v>12.69999999999996</v>
       </c>
       <c r="P326" s="23">
         <f t="shared" si="62"/>
-        <v>3.7534854340487071E-3</v>
+        <v>3.8011755444919146E-3</v>
       </c>
       <c r="Q326" s="80"/>
       <c r="S326" s="24"/>
@@ -22268,7 +22285,7 @@
       </c>
       <c r="I328" s="15"/>
       <c r="J328" s="12">
-        <v>112.911</v>
+        <v>112.774</v>
       </c>
       <c r="K328" s="12">
         <v>108.532</v>
@@ -22278,19 +22295,19 @@
       </c>
       <c r="M328" s="11">
         <f t="shared" si="63"/>
-        <v>1129.1100000000001</v>
+        <v>1127.74</v>
       </c>
       <c r="N328" s="23">
         <f t="shared" si="64"/>
-        <v>4.0347547267165489E-2</v>
+        <v>3.9085246747503084E-2</v>
       </c>
       <c r="O328" s="11">
         <f t="shared" si="65"/>
-        <v>43.790000000000049</v>
+        <v>42.420000000000044</v>
       </c>
       <c r="P328" s="23">
         <f t="shared" si="62"/>
-        <v>4.0229887309925641E-3</v>
+        <v>4.0357161631946071E-3</v>
       </c>
       <c r="Q328" s="80"/>
       <c r="S328" s="24"/>
@@ -22320,7 +22337,7 @@
       </c>
       <c r="I329" s="15"/>
       <c r="J329" s="12">
-        <v>111.1</v>
+        <v>111.63200000000001</v>
       </c>
       <c r="K329" s="12">
         <v>108.93</v>
@@ -22330,19 +22347,19 @@
       </c>
       <c r="M329" s="11">
         <f t="shared" si="63"/>
-        <v>1111</v>
+        <v>1116.3200000000002</v>
       </c>
       <c r="N329" s="23">
         <f t="shared" si="64"/>
-        <v>1.9921050215734759E-2</v>
+        <v>2.4804920591205343E-2</v>
       </c>
       <c r="O329" s="11">
         <f t="shared" si="65"/>
-        <v>21.699999999999875</v>
+        <v>27.019999999999982</v>
       </c>
       <c r="P329" s="23">
         <f t="shared" si="62"/>
-        <v>3.9584632853599186E-3</v>
+        <v>3.9948486949983189E-3</v>
       </c>
       <c r="Q329" s="80"/>
       <c r="S329" s="24"/>
@@ -23406,7 +23423,7 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="Q352" s="205" t="s">
+      <c r="Q352" s="206" t="s">
         <v>254</v>
       </c>
       <c r="S352" s="24"/>
@@ -23454,7 +23471,7 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="Q353" s="206"/>
+      <c r="Q353" s="207"/>
       <c r="S353" s="24"/>
     </row>
     <row r="354" spans="1:19" x14ac:dyDescent="0.2">
@@ -23992,7 +24009,7 @@
         <v>65</v>
       </c>
       <c r="J365" s="12">
-        <v>111.72499999999999</v>
+        <v>110.84099999999999</v>
       </c>
       <c r="K365" s="12">
         <v>108.342</v>
@@ -24002,19 +24019,19 @@
       </c>
       <c r="M365" s="11">
         <f t="shared" si="73"/>
-        <v>1117.25</v>
+        <v>1108.4099999999999</v>
       </c>
       <c r="N365" s="23">
         <f t="shared" si="74"/>
-        <v>3.1225194292148897E-2</v>
+        <v>2.3065847039929071E-2</v>
       </c>
       <c r="O365" s="11">
         <f t="shared" si="75"/>
-        <v>33.829999999999956</v>
+        <v>24.989999999999952</v>
       </c>
       <c r="P365" s="23">
         <f t="shared" si="62"/>
-        <v>3.9807318681983521E-3</v>
+        <v>3.9665420686031657E-3</v>
       </c>
       <c r="Q365" s="80"/>
       <c r="S365" s="24"/>
@@ -24236,7 +24253,7 @@
       </c>
       <c r="I370" s="15"/>
       <c r="J370" s="12">
-        <v>110.223</v>
+        <v>111.541</v>
       </c>
       <c r="K370" s="12">
         <v>109.801</v>
@@ -24246,19 +24263,19 @@
       </c>
       <c r="M370" s="11">
         <f t="shared" si="73"/>
-        <v>1102.23</v>
+        <v>1115.4099999999999</v>
       </c>
       <c r="N370" s="23">
         <f t="shared" si="77"/>
-        <v>3.8433165453866272E-3</v>
+        <v>1.5846850210835921E-2</v>
       </c>
       <c r="O370" s="11">
         <f t="shared" si="78"/>
-        <v>4.2199999999999704</v>
+        <v>17.399999999999949</v>
       </c>
       <c r="P370" s="23">
         <f t="shared" si="62"/>
-        <v>3.9272160099210291E-3</v>
+        <v>3.9915921804572832E-3</v>
       </c>
       <c r="Q370" s="80"/>
       <c r="S370" s="24"/>
@@ -24522,7 +24539,7 @@
         <v>276</v>
       </c>
       <c r="J376" s="12">
-        <v>106.8</v>
+        <v>104.946</v>
       </c>
       <c r="K376" s="12">
         <v>108.158</v>
@@ -24532,19 +24549,19 @@
       </c>
       <c r="M376" s="11">
         <f t="shared" si="79"/>
-        <v>2136</v>
+        <v>2098.92</v>
       </c>
       <c r="N376" s="23">
         <f t="shared" si="80"/>
-        <v>-1.2555705541892455E-2</v>
+        <v>-2.9697294698496673E-2</v>
       </c>
       <c r="O376" s="11">
         <f t="shared" si="81"/>
-        <v>-27.160000000000082</v>
+        <v>-64.240000000000066</v>
       </c>
       <c r="P376" s="23">
         <f t="shared" si="62"/>
-        <v>7.6105108708629937E-3</v>
+        <v>7.5111686818348424E-3</v>
       </c>
       <c r="Q376" s="80"/>
       <c r="S376" s="24"/>
@@ -24668,7 +24685,7 @@
         <v>65</v>
       </c>
       <c r="J379" s="12">
-        <v>111.142</v>
+        <v>111.64</v>
       </c>
       <c r="K379" s="12">
         <v>109.14100000000001</v>
@@ -24678,19 +24695,19 @@
       </c>
       <c r="M379" s="11">
         <f t="shared" si="79"/>
-        <v>1111.42</v>
+        <v>1116.4000000000001</v>
       </c>
       <c r="N379" s="23">
         <f t="shared" si="80"/>
-        <v>1.833408160086485E-2</v>
+        <v>2.2896986467047169E-2</v>
       </c>
       <c r="O379" s="11">
         <f t="shared" si="81"/>
-        <v>20.009999999999906</v>
+        <v>24.989999999999952</v>
       </c>
       <c r="P379" s="23">
         <f t="shared" si="62"/>
-        <v>3.9599597341266621E-3</v>
+        <v>3.9951349819909374E-3</v>
       </c>
       <c r="Q379" s="80"/>
       <c r="S379" s="24"/>
@@ -24904,7 +24921,7 @@
       </c>
       <c r="I384" s="15"/>
       <c r="J384" s="12">
-        <v>116.4</v>
+        <v>118.55800000000001</v>
       </c>
       <c r="K384" s="12">
         <v>109.128</v>
@@ -24914,19 +24931,19 @@
       </c>
       <c r="M384" s="11">
         <f t="shared" si="79"/>
-        <v>1164</v>
+        <v>1185.5800000000002</v>
       </c>
       <c r="N384" s="23">
         <f t="shared" si="80"/>
-        <v>6.6637343303276933E-2</v>
+        <v>8.6412286489260387E-2</v>
       </c>
       <c r="O384" s="11">
         <f t="shared" si="81"/>
-        <v>72.720000000000056</v>
+        <v>94.300000000000068</v>
       </c>
       <c r="P384" s="23">
         <f t="shared" si="62"/>
-        <v>4.1473008678298336E-3</v>
+        <v>4.2427016588577711E-3</v>
       </c>
       <c r="Q384" s="80"/>
       <c r="S384" s="24"/>
@@ -25094,7 +25111,7 @@
       </c>
       <c r="I388" s="15"/>
       <c r="J388" s="12">
-        <v>113.501</v>
+        <v>113.88800000000001</v>
       </c>
       <c r="K388" s="12">
         <v>109.63200000000001</v>
@@ -25104,19 +25121,19 @@
       </c>
       <c r="M388" s="11">
         <f t="shared" si="79"/>
-        <v>1135.01</v>
+        <v>1138.8800000000001</v>
       </c>
       <c r="N388" s="23">
         <f t="shared" si="80"/>
-        <v>3.5290791009924105E-2</v>
+        <v>3.8820782253356688E-2</v>
       </c>
       <c r="O388" s="11">
         <f t="shared" si="81"/>
-        <v>38.69</v>
+        <v>42.56</v>
       </c>
       <c r="P388" s="23">
         <f t="shared" si="62"/>
-        <v>4.0440102731920443E-3</v>
+        <v>4.0755816269167312E-3</v>
       </c>
       <c r="Q388" s="80"/>
       <c r="S388" s="24"/>
@@ -25289,7 +25306,7 @@
         <v>65</v>
       </c>
       <c r="J392" s="12">
-        <v>107.377</v>
+        <v>107.554</v>
       </c>
       <c r="K392" s="12">
         <v>109.98399999999999</v>
@@ -25299,19 +25316,19 @@
       </c>
       <c r="M392" s="11">
         <f t="shared" si="82"/>
-        <v>1073.77</v>
+        <v>1075.54</v>
       </c>
       <c r="N392" s="23">
         <f t="shared" si="83"/>
-        <v>-2.37034477742217E-2</v>
+        <v>-2.2094122781495425E-2</v>
       </c>
       <c r="O392" s="11">
         <f t="shared" si="84"/>
-        <v>-26.069999999999993</v>
+        <v>-24.299999999999926</v>
       </c>
       <c r="P392" s="23">
         <f t="shared" si="85"/>
-        <v>3.8258137911079387E-3</v>
+        <v>3.8489139005110466E-3</v>
       </c>
       <c r="Q392" s="80"/>
       <c r="S392" s="24"/>
@@ -26228,7 +26245,7 @@
       </c>
       <c r="I412" s="15"/>
       <c r="J412" s="12">
-        <v>107.41800000000001</v>
+        <v>108.6</v>
       </c>
       <c r="K412" s="12">
         <v>107.4</v>
@@ -26238,19 +26255,19 @@
       </c>
       <c r="M412" s="11">
         <f t="shared" si="86"/>
-        <v>1074.18</v>
+        <v>1086</v>
       </c>
       <c r="N412" s="23">
         <f t="shared" si="87"/>
-        <v>1.6759776536313484E-4</v>
+        <v>1.1173184357541792E-2</v>
       </c>
       <c r="O412" s="11">
         <f t="shared" si="88"/>
-        <v>0.18000000000000682</v>
+        <v>11.999999999999886</v>
       </c>
       <c r="P412" s="23">
         <f t="shared" si="89"/>
-        <v>3.8272746101421402E-3</v>
+        <v>3.8863459247959133E-3</v>
       </c>
       <c r="Q412" s="80"/>
       <c r="S412" s="24"/>
@@ -26280,7 +26297,7 @@
       </c>
       <c r="I413" s="15"/>
       <c r="J413" s="12">
-        <v>108.88</v>
+        <v>112.21299999999999</v>
       </c>
       <c r="K413" s="12">
         <v>109.3</v>
@@ -26290,19 +26307,19 @@
       </c>
       <c r="M413" s="11">
         <f t="shared" si="86"/>
-        <v>1088.8</v>
+        <v>1122.1299999999999</v>
       </c>
       <c r="N413" s="23">
         <f t="shared" si="87"/>
-        <v>-3.8426349496797963E-3</v>
+        <v>2.6651418115279019E-2</v>
       </c>
       <c r="O413" s="11">
         <f t="shared" si="88"/>
-        <v>-4.2000000000000171</v>
+        <v>29.129999999999967</v>
       </c>
       <c r="P413" s="23">
         <f t="shared" si="89"/>
-        <v>3.8793652791178032E-3</v>
+        <v>4.0156402878372358E-3</v>
       </c>
       <c r="Q413" s="80"/>
       <c r="S413" s="24"/>
@@ -26378,7 +26395,7 @@
       </c>
       <c r="I415" s="15"/>
       <c r="J415" s="12">
-        <v>92</v>
+        <v>97.82</v>
       </c>
       <c r="K415" s="12">
         <v>95.531000000000006</v>
@@ -26388,19 +26405,19 @@
       </c>
       <c r="M415" s="11">
         <f t="shared" si="86"/>
-        <v>920</v>
+        <v>978.19999999999993</v>
       </c>
       <c r="N415" s="23">
         <f t="shared" si="90"/>
-        <v>-3.6961823910563123E-2</v>
+        <v>2.396080853335553E-2</v>
       </c>
       <c r="O415" s="11">
         <f t="shared" si="91"/>
-        <v>-35.310000000000059</v>
+        <v>22.889999999999873</v>
       </c>
       <c r="P415" s="23">
         <f t="shared" si="92"/>
-        <v>3.2779353938173945E-3</v>
+        <v>3.5005742022425064E-3</v>
       </c>
       <c r="Q415" s="80"/>
       <c r="S415" s="24"/>
@@ -26522,7 +26539,7 @@
       </c>
       <c r="I418" s="15"/>
       <c r="J418" s="12">
-        <v>114.947</v>
+        <v>110.53</v>
       </c>
       <c r="K418" s="12">
         <v>105.82299999999999</v>
@@ -26532,19 +26549,19 @@
       </c>
       <c r="M418" s="11">
         <f t="shared" si="86"/>
-        <v>1149.47</v>
+        <v>1105.3</v>
       </c>
       <c r="N418" s="23">
         <f t="shared" si="90"/>
-        <v>8.6219441898264179E-2</v>
+        <v>4.4479933473819566E-2</v>
       </c>
       <c r="O418" s="11">
         <f t="shared" si="91"/>
-        <v>91.240000000000094</v>
+        <v>47.070000000000078</v>
       </c>
       <c r="P418" s="23">
         <f t="shared" si="92"/>
-        <v>4.0955308664470443E-3</v>
+        <v>3.955412661765122E-3</v>
       </c>
       <c r="Q418" s="80"/>
       <c r="S418" s="24"/>
@@ -26574,7 +26591,7 @@
       </c>
       <c r="I419" s="15"/>
       <c r="J419" s="12">
-        <v>113.96299999999999</v>
+        <v>119.145</v>
       </c>
       <c r="K419" s="12">
         <v>109.39</v>
@@ -26584,19 +26601,19 @@
       </c>
       <c r="M419" s="11">
         <f t="shared" si="86"/>
-        <v>1139.6299999999999</v>
+        <v>1191.45</v>
       </c>
       <c r="N419" s="23">
         <f t="shared" si="90"/>
-        <v>4.1804552518511687E-2</v>
+        <v>8.9176341530304376E-2</v>
       </c>
       <c r="O419" s="11">
         <f t="shared" si="91"/>
-        <v>45.729999999999933</v>
+        <v>97.549999999999955</v>
       </c>
       <c r="P419" s="23">
         <f t="shared" si="92"/>
-        <v>4.0604712096262143E-3</v>
+        <v>4.2637079669411524E-3</v>
       </c>
       <c r="Q419" s="80"/>
       <c r="S419" s="24"/>
@@ -26764,7 +26781,7 @@
       </c>
       <c r="I423" s="15"/>
       <c r="J423" s="12">
-        <v>110.14100000000001</v>
+        <v>110.878</v>
       </c>
       <c r="K423" s="12">
         <v>109.82299999999999</v>
@@ -26774,19 +26791,19 @@
       </c>
       <c r="M423" s="11">
         <f t="shared" si="86"/>
-        <v>1101.4100000000001</v>
+        <v>1108.78</v>
       </c>
       <c r="N423" s="23">
         <f t="shared" si="90"/>
-        <v>2.8955683235753174E-3</v>
+        <v>9.6063666080876218E-3</v>
       </c>
       <c r="O423" s="11">
         <f t="shared" si="91"/>
-        <v>3.1800000000001205</v>
+        <v>10.550000000000068</v>
       </c>
       <c r="P423" s="23">
         <f t="shared" si="92"/>
-        <v>3.9242943718526269E-3</v>
+        <v>3.9678661459440264E-3</v>
       </c>
       <c r="Q423" s="80"/>
       <c r="S423" s="24"/>
@@ -26862,7 +26879,7 @@
       </c>
       <c r="I425" s="15"/>
       <c r="J425" s="12">
-        <v>109.64</v>
+        <v>109.85</v>
       </c>
       <c r="K425" s="12">
         <v>108.205</v>
@@ -26872,19 +26889,19 @@
       </c>
       <c r="M425" s="11">
         <f t="shared" si="86"/>
-        <v>1096.4000000000001</v>
+        <v>1098.5</v>
       </c>
       <c r="N425" s="23">
         <f t="shared" si="90"/>
-        <v>1.3261864054341318E-2</v>
+        <v>1.5202624647659499E-2</v>
       </c>
       <c r="O425" s="11">
         <f t="shared" si="91"/>
-        <v>14.350000000000023</v>
+        <v>16.44999999999996</v>
       </c>
       <c r="P425" s="23">
         <f t="shared" si="92"/>
-        <v>3.9064438758493383E-3</v>
+        <v>3.931078267392551E-3</v>
       </c>
       <c r="Q425" s="80"/>
       <c r="S425" s="24"/>
@@ -26914,7 +26931,7 @@
       </c>
       <c r="I426" s="15"/>
       <c r="J426" s="12">
-        <v>109.735</v>
+        <v>111.10899999999999</v>
       </c>
       <c r="K426" s="12">
         <v>108.21</v>
@@ -26924,19 +26941,19 @@
       </c>
       <c r="M426" s="11">
         <f t="shared" si="86"/>
-        <v>1097.3499999999999</v>
+        <v>1111.0899999999999</v>
       </c>
       <c r="N426" s="23">
         <f t="shared" si="90"/>
-        <v>1.4092967378246056E-2</v>
+        <v>2.679049995379356E-2</v>
       </c>
       <c r="O426" s="11">
         <f t="shared" si="91"/>
-        <v>15.250000000000057</v>
+        <v>28.990000000000009</v>
       </c>
       <c r="P426" s="23">
         <f t="shared" si="92"/>
-        <v>3.9098287004407798E-3</v>
+        <v>3.976132682855885E-3</v>
       </c>
       <c r="Q426" s="80"/>
       <c r="S426" s="24"/>
@@ -26966,7 +26983,7 @@
       </c>
       <c r="I427" s="15"/>
       <c r="J427" s="12">
-        <v>107.94199999999999</v>
+        <v>108.52</v>
       </c>
       <c r="K427" s="12">
         <v>109.922</v>
@@ -26976,19 +26993,19 @@
       </c>
       <c r="M427" s="11">
         <f t="shared" si="86"/>
-        <v>1079.4199999999998</v>
+        <v>1085.2</v>
       </c>
       <c r="N427" s="23">
         <f t="shared" si="90"/>
-        <v>-1.8012772693364421E-2</v>
+        <v>-1.2754498644493378E-2</v>
       </c>
       <c r="O427" s="11">
         <f t="shared" si="91"/>
-        <v>-19.80000000000004</v>
+        <v>-14.02000000000001</v>
       </c>
       <c r="P427" s="23">
         <f t="shared" si="92"/>
-        <v>3.8459445899938819E-3</v>
+        <v>3.8834830548697286E-3</v>
       </c>
       <c r="Q427" s="80"/>
       <c r="S427" s="24"/>
@@ -27018,7 +27035,7 @@
       </c>
       <c r="I428" s="15"/>
       <c r="J428" s="12">
-        <v>103.03</v>
+        <v>102.559</v>
       </c>
       <c r="K428" s="12">
         <v>107.59699999999999</v>
@@ -27028,19 +27045,19 @@
       </c>
       <c r="M428" s="11">
         <f t="shared" si="86"/>
-        <v>1030.3</v>
+        <v>1025.5899999999999</v>
       </c>
       <c r="N428" s="23">
         <f t="shared" si="90"/>
-        <v>-4.2445421340743639E-2</v>
+        <v>-4.682286680855411E-2</v>
       </c>
       <c r="O428" s="11">
         <f t="shared" si="91"/>
-        <v>-45.669999999999931</v>
+        <v>-50.379999999999967</v>
       </c>
       <c r="P428" s="23">
         <f t="shared" si="92"/>
-        <v>3.6709313437500667E-3</v>
+        <v>3.6701634594948807E-3</v>
       </c>
       <c r="Q428" s="80"/>
       <c r="S428" s="24"/>
@@ -27162,7 +27179,7 @@
       </c>
       <c r="I431" s="15"/>
       <c r="J431" s="12">
-        <v>108.831</v>
+        <v>109.19799999999999</v>
       </c>
       <c r="K431" s="12">
         <v>109.211</v>
@@ -27172,19 +27189,19 @@
       </c>
       <c r="M431" s="11">
         <f t="shared" si="86"/>
-        <v>1088.31</v>
+        <v>1091.98</v>
       </c>
       <c r="N431" s="23">
         <f t="shared" si="90"/>
-        <v>-3.4795029804689588E-3</v>
+        <v>-1.1903562827925053E-4</v>
       </c>
       <c r="O431" s="11">
         <f t="shared" si="91"/>
-        <v>-3.7999999999999545</v>
+        <v>-0.1300000000000523</v>
       </c>
       <c r="P431" s="23">
         <f t="shared" si="92"/>
-        <v>3.8776194222232699E-3</v>
+        <v>3.9077458774941448E-3</v>
       </c>
       <c r="Q431" s="80"/>
       <c r="S431" s="24"/>
@@ -27214,7 +27231,7 @@
       </c>
       <c r="I432" s="15"/>
       <c r="J432" s="12">
-        <v>111.541</v>
+        <v>110.946</v>
       </c>
       <c r="K432" s="12">
         <v>109.928</v>
@@ -27224,19 +27241,19 @@
       </c>
       <c r="M432" s="11">
         <f t="shared" si="86"/>
-        <v>1115.4099999999999</v>
+        <v>1109.46</v>
       </c>
       <c r="N432" s="23">
         <f t="shared" si="90"/>
-        <v>1.4673240666618147E-2</v>
+        <v>9.2606069427261552E-3</v>
       </c>
       <c r="O432" s="11">
         <f t="shared" si="91"/>
-        <v>16.129999999999995</v>
+        <v>10.180000000000007</v>
       </c>
       <c r="P432" s="23">
         <f t="shared" si="92"/>
-        <v>3.9741759974107164E-3</v>
+        <v>3.9702995853812834E-3</v>
       </c>
       <c r="Q432" s="80"/>
       <c r="S432" s="24"/>
@@ -27404,7 +27421,7 @@
       </c>
       <c r="I436" s="15"/>
       <c r="J436" s="12">
-        <v>109.754</v>
+        <v>112.663</v>
       </c>
       <c r="K436" s="12">
         <v>109.125</v>
@@ -27414,19 +27431,19 @@
       </c>
       <c r="M436" s="11">
         <f t="shared" si="86"/>
-        <v>1097.54</v>
+        <v>1126.6299999999999</v>
       </c>
       <c r="N436" s="23">
         <f t="shared" si="90"/>
-        <v>5.7640320733104685E-3</v>
+        <v>3.2421534936998828E-2</v>
       </c>
       <c r="O436" s="11">
         <f t="shared" si="91"/>
-        <v>6.2900000000000489</v>
+        <v>35.379999999999967</v>
       </c>
       <c r="P436" s="23">
         <f t="shared" si="92"/>
-        <v>3.9105056653590681E-3</v>
+        <v>4.0317439311720249E-3</v>
       </c>
       <c r="Q436" s="80"/>
       <c r="S436" s="24"/>
@@ -27621,14 +27638,24 @@
       <c r="B441" s="103">
         <v>440</v>
       </c>
-      <c r="C441" s="29"/>
-      <c r="D441" s="30"/>
-      <c r="E441" s="115"/>
-      <c r="F441" s="19"/>
-      <c r="G441" s="19"/>
+      <c r="C441" s="29">
+        <v>45110</v>
+      </c>
+      <c r="D441" s="30">
+        <v>113578</v>
+      </c>
+      <c r="E441" s="115" t="s">
+        <v>55</v>
+      </c>
+      <c r="F441" s="19">
+        <v>10</v>
+      </c>
+      <c r="G441" s="19">
+        <v>100.917</v>
+      </c>
       <c r="H441" s="14">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1009.1700000000001</v>
       </c>
       <c r="I441" s="15"/>
       <c r="J441" s="12"/>
@@ -27657,14 +27684,24 @@
       <c r="B442" s="103">
         <v>441</v>
       </c>
-      <c r="C442" s="29"/>
-      <c r="D442" s="30"/>
-      <c r="E442" s="115"/>
-      <c r="F442" s="19"/>
-      <c r="G442" s="19"/>
+      <c r="C442" s="29">
+        <v>45111</v>
+      </c>
+      <c r="D442" s="30">
+        <v>128114</v>
+      </c>
+      <c r="E442" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="F442" s="19">
+        <v>-10</v>
+      </c>
+      <c r="G442" s="19">
+        <v>99.111000000000004</v>
+      </c>
       <c r="H442" s="14">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>-991.11</v>
       </c>
       <c r="I442" s="15"/>
       <c r="J442" s="12"/>
@@ -27693,14 +27730,24 @@
       <c r="B443" s="103">
         <v>442</v>
       </c>
-      <c r="C443" s="29"/>
-      <c r="D443" s="30"/>
-      <c r="E443" s="115"/>
-      <c r="F443" s="19"/>
-      <c r="G443" s="19"/>
+      <c r="C443" s="29">
+        <v>45111</v>
+      </c>
+      <c r="D443" s="30">
+        <v>123096</v>
+      </c>
+      <c r="E443" s="115" t="s">
+        <v>91</v>
+      </c>
+      <c r="F443" s="19">
+        <v>10</v>
+      </c>
+      <c r="G443" s="19">
+        <v>99.197999999999993</v>
+      </c>
       <c r="H443" s="14">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>991.9799999999999</v>
       </c>
       <c r="I443" s="15"/>
       <c r="J443" s="12"/>
@@ -27729,34 +27776,50 @@
       <c r="B444" s="103">
         <v>443</v>
       </c>
-      <c r="C444" s="29"/>
-      <c r="D444" s="30"/>
-      <c r="E444" s="115"/>
-      <c r="F444" s="19"/>
-      <c r="G444" s="19"/>
+      <c r="C444" s="29">
+        <v>45111</v>
+      </c>
+      <c r="D444" s="30">
+        <v>113650</v>
+      </c>
+      <c r="E444" s="30" t="s">
+        <v>310</v>
+      </c>
+      <c r="F444" s="19">
+        <v>10</v>
+      </c>
+      <c r="G444" s="19">
+        <v>109.931</v>
+      </c>
       <c r="H444" s="14">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1099.31</v>
       </c>
       <c r="I444" s="15"/>
-      <c r="J444" s="12"/>
-      <c r="K444" s="12"/>
-      <c r="L444" s="12"/>
+      <c r="J444" s="12">
+        <v>110.581</v>
+      </c>
+      <c r="K444" s="12">
+        <v>109.95099999999999</v>
+      </c>
+      <c r="L444" s="12">
+        <v>10</v>
+      </c>
       <c r="M444" s="11">
         <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N444" s="23" t="e">
+        <v>1105.81</v>
+      </c>
+      <c r="N444" s="23">
         <f t="shared" si="90"/>
-        <v>#DIV/0!</v>
+        <v>5.7298251039100117E-3</v>
       </c>
       <c r="O444" s="11">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>6.3000000000000966</v>
       </c>
       <c r="P444" s="23">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>3.9572377413430648E-3</v>
       </c>
       <c r="Q444" s="80"/>
       <c r="S444" s="24"/>
@@ -27765,14 +27828,24 @@
       <c r="B445" s="103">
         <v>444</v>
       </c>
-      <c r="C445" s="29"/>
-      <c r="D445" s="30"/>
-      <c r="E445" s="115"/>
-      <c r="F445" s="19"/>
-      <c r="G445" s="19"/>
+      <c r="C445" s="29">
+        <v>45113</v>
+      </c>
+      <c r="D445" s="30">
+        <v>123049</v>
+      </c>
+      <c r="E445" s="115" t="s">
+        <v>104</v>
+      </c>
+      <c r="F445" s="19">
+        <v>10</v>
+      </c>
+      <c r="G445" s="19">
+        <v>96.426000000000002</v>
+      </c>
       <c r="H445" s="14">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>964.26</v>
       </c>
       <c r="I445" s="15"/>
       <c r="J445" s="12"/>
@@ -27795,43 +27868,55 @@
       <c r="S445" s="24"/>
     </row>
     <row r="446" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B446" s="103">
+      <c r="B446" s="160">
         <v>445</v>
       </c>
-      <c r="C446" s="29"/>
-      <c r="D446" s="30"/>
-      <c r="E446" s="115"/>
-      <c r="F446" s="19"/>
-      <c r="G446" s="19"/>
-      <c r="H446" s="14">
+      <c r="C446" s="49">
+        <v>45120</v>
+      </c>
+      <c r="D446" s="50">
+        <v>128076</v>
+      </c>
+      <c r="E446" s="114" t="s">
+        <v>67</v>
+      </c>
+      <c r="F446" s="52">
+        <v>-10</v>
+      </c>
+      <c r="G446" s="52">
+        <v>132.01</v>
+      </c>
+      <c r="H446" s="53">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="I446" s="15"/>
-      <c r="J446" s="12"/>
-      <c r="K446" s="12"/>
-      <c r="L446" s="12"/>
-      <c r="M446" s="11">
+        <v>-1320.1</v>
+      </c>
+      <c r="I446" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="J446" s="51"/>
+      <c r="K446" s="51"/>
+      <c r="L446" s="51"/>
+      <c r="M446" s="53">
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="N446" s="23" t="e">
+      <c r="N446" s="54" t="e">
         <f t="shared" si="71"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O446" s="11">
+      <c r="O446" s="53">
         <f t="shared" si="91"/>
         <v>0</v>
       </c>
-      <c r="P446" s="23">
+      <c r="P446" s="54">
         <f t="shared" si="92"/>
         <v>0</v>
       </c>
-      <c r="Q446" s="80"/>
+      <c r="Q446" s="83"/>
       <c r="S446" s="24"/>
     </row>
     <row r="447" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B447" s="103">
+      <c r="B447" s="160">
         <v>446</v>
       </c>
       <c r="C447" s="29"/>
@@ -27867,7 +27952,7 @@
       <c r="S447" s="24"/>
     </row>
     <row r="448" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B448" s="103">
+      <c r="B448" s="160">
         <v>447</v>
       </c>
       <c r="C448" s="29"/>
@@ -27903,7 +27988,7 @@
       <c r="S448" s="24"/>
     </row>
     <row r="449" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B449" s="103">
+      <c r="B449" s="160">
         <v>448</v>
       </c>
       <c r="C449" s="29"/>
@@ -27939,7 +28024,7 @@
       <c r="S449" s="24"/>
     </row>
     <row r="450" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B450" s="103">
+      <c r="B450" s="160">
         <v>449</v>
       </c>
       <c r="C450" s="29"/>
@@ -27975,7 +28060,7 @@
       <c r="S450" s="24"/>
     </row>
     <row r="451" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B451" s="103">
+      <c r="B451" s="160">
         <v>450</v>
       </c>
       <c r="C451" s="29"/>
@@ -28011,7 +28096,7 @@
       <c r="S451" s="24"/>
     </row>
     <row r="452" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B452" s="103">
+      <c r="B452" s="160">
         <v>451</v>
       </c>
       <c r="C452" s="29"/>
@@ -28047,7 +28132,7 @@
       <c r="S452" s="24"/>
     </row>
     <row r="453" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B453" s="103">
+      <c r="B453" s="160">
         <v>452</v>
       </c>
       <c r="C453" s="29"/>
@@ -28083,7 +28168,7 @@
       <c r="S453" s="24"/>
     </row>
     <row r="454" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B454" s="103">
+      <c r="B454" s="160">
         <v>453</v>
       </c>
       <c r="C454" s="29"/>
@@ -28119,7 +28204,7 @@
       <c r="S454" s="24"/>
     </row>
     <row r="455" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B455" s="103">
+      <c r="B455" s="160">
         <v>454</v>
       </c>
       <c r="C455" s="29"/>
@@ -28155,7 +28240,7 @@
       <c r="S455" s="24"/>
     </row>
     <row r="456" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B456" s="103">
+      <c r="B456" s="160">
         <v>455</v>
       </c>
       <c r="C456" s="29"/>
@@ -28191,7 +28276,7 @@
       <c r="S456" s="24"/>
     </row>
     <row r="457" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B457" s="103">
+      <c r="B457" s="160">
         <v>456</v>
       </c>
       <c r="C457" s="29"/>
@@ -30921,31 +31006,31 @@
       <c r="E573" s="115"/>
       <c r="F573" s="19">
         <f>SUM(F3:F572)</f>
-        <v>2870</v>
+        <v>2890</v>
       </c>
       <c r="G573" s="19"/>
       <c r="H573" s="14">
         <f>SUM(H3:H572)</f>
-        <v>279506.3699999997</v>
+        <v>281259.87999999971</v>
       </c>
       <c r="I573" s="15"/>
       <c r="J573" s="12"/>
       <c r="K573" s="12"/>
       <c r="L573" s="12">
         <f>SUM(L3:L572)</f>
-        <v>2850</v>
+        <v>2830</v>
       </c>
       <c r="M573" s="11">
         <f>SUM(M3:M572)</f>
-        <v>280664.46999999991</v>
+        <v>279439.87000000005</v>
       </c>
       <c r="N573" s="23">
         <f>O573/M573</f>
-        <v>-2.5691174946369331E-3</v>
+        <v>2.2520408415592067E-3</v>
       </c>
       <c r="O573" s="11">
         <f>SUM(O3:O572)</f>
-        <v>-721.06000000000245</v>
+        <v>629.3099999999954</v>
       </c>
       <c r="P573" s="23"/>
       <c r="Q573" s="80"/>
@@ -31083,16 +31168,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="223">
+      <c r="B2" s="224">
         <v>44805</v>
       </c>
-      <c r="C2" s="224"/>
-      <c r="D2" s="224"/>
-      <c r="E2" s="224"/>
-      <c r="F2" s="224"/>
-      <c r="G2" s="224"/>
-      <c r="H2" s="224"/>
-      <c r="I2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="225"/>
+      <c r="F2" s="225"/>
+      <c r="G2" s="225"/>
+      <c r="H2" s="225"/>
+      <c r="I2" s="226"/>
       <c r="M2" s="183" t="s">
         <v>260</v>
       </c>
@@ -33287,14 +33372,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="226" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="226"/>
-      <c r="D1" s="227" t="s">
+      <c r="B1" s="227" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="227"/>
+      <c r="D1" s="228" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="228"/>
+      <c r="E1" s="229"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>

--- a/2023/CB-M-week-lowPrice.xlsx
+++ b/2023/CB-M-week-lowPrice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CB\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B335399F-2A8F-49FE-B637-5808A399CFC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DEEA301-C24C-41DD-BF1E-C5CB06B98176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D298135B-E4C0-45E9-BB28-1F0B05CAE31B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="320">
   <si>
     <t>收入</t>
   </si>
@@ -1311,6 +1311,41 @@
     <t>博22转债</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇通转债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>150手</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>锂科转债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>买</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉元转债</t>
+  </si>
+  <si>
+    <t>海优转债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆22转债</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1898,7 +1933,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="230">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2548,6 +2583,9 @@
     <xf numFmtId="14" fontId="11" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2640,7 +2678,21 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2838,10 +2890,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$72</c:f>
+              <c:f>收益weekly!$A$2:$A$79</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -3034,15 +3086,18 @@
                 <c:pt idx="63">
                   <c:v>45121</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>45170</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$B$2:$B$72</c:f>
+              <c:f>收益weekly!$B$2:$B$79</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>475.78</c:v>
                 </c:pt>
@@ -3235,7 +3290,10 @@
                 <c:pt idx="63">
                   <c:v>629.30999999999995</c:v>
                 </c:pt>
-                <c:pt idx="70">
+                <c:pt idx="64">
+                  <c:v>6186.32</c:v>
+                </c:pt>
+                <c:pt idx="77">
                   <c:v>26009</c:v>
                 </c:pt>
               </c:numCache>
@@ -3323,10 +3381,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>收益weekly!$A$2:$A$72</c:f>
+              <c:f>收益weekly!$A$2:$A$79</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>44400</c:v>
                 </c:pt>
@@ -3519,15 +3577,18 @@
                 <c:pt idx="63">
                   <c:v>45121</c:v>
                 </c:pt>
+                <c:pt idx="64">
+                  <c:v>45170</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>收益weekly!$C$2:$C$72</c:f>
+              <c:f>收益weekly!$C$2:$C$79</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="71"/>
+                <c:ptCount val="78"/>
                 <c:pt idx="0">
                   <c:v>2.8400000000000002E-2</c:v>
                 </c:pt>
@@ -3720,13 +3781,16 @@
                 <c:pt idx="63">
                   <c:v>2.3E-3</c:v>
                 </c:pt>
-                <c:pt idx="67">
+                <c:pt idx="64">
+                  <c:v>2.35E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="68">
+                <c:pt idx="75">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="69">
+                <c:pt idx="76">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4480,7 +4544,7 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4806,11 +4870,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2F1CA-30C4-4F8B-806E-18ED2E09BE84}">
-  <dimension ref="A1:G72"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G74" sqref="G74"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5859,9 +5923,15 @@
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="27"/>
-      <c r="B66" s="176"/>
-      <c r="C66" s="28"/>
+      <c r="A66" s="27">
+        <v>45170</v>
+      </c>
+      <c r="B66" s="176">
+        <v>6186.32</v>
+      </c>
+      <c r="C66" s="28">
+        <v>2.35E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="27"/>
@@ -5876,64 +5946,99 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="27"/>
       <c r="B69" s="176"/>
-      <c r="C69" s="28">
-        <v>0</v>
-      </c>
-      <c r="D69" s="135">
-        <v>0</v>
-      </c>
-      <c r="E69" s="135">
-        <v>0</v>
-      </c>
-      <c r="F69" s="135">
-        <v>0</v>
-      </c>
+      <c r="C69" s="28"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="27"/>
       <c r="B70" s="176"/>
-      <c r="C70" s="28">
-        <v>0</v>
-      </c>
-      <c r="D70" s="135">
-        <v>0</v>
-      </c>
-      <c r="E70" s="135">
-        <v>0</v>
-      </c>
-      <c r="F70" s="135">
-        <v>0</v>
-      </c>
+      <c r="C70" s="28"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="27"/>
       <c r="B71" s="176"/>
-      <c r="C71" s="28">
-        <v>0</v>
-      </c>
-      <c r="D71" s="135">
-        <v>0</v>
-      </c>
-      <c r="E71" s="135">
-        <v>0</v>
-      </c>
-      <c r="F71" s="135">
-        <v>0</v>
-      </c>
+      <c r="C71" s="28"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="27"/>
-      <c r="B72" s="176">
+      <c r="B72" s="176"/>
+      <c r="C72" s="28"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="27"/>
+      <c r="B73" s="176"/>
+      <c r="C73" s="28"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="27"/>
+      <c r="B74" s="176"/>
+      <c r="C74" s="28"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="27"/>
+      <c r="B75" s="176"/>
+      <c r="C75" s="28">
+        <v>0</v>
+      </c>
+      <c r="D75" s="135">
+        <v>0</v>
+      </c>
+      <c r="E75" s="135">
+        <v>0</v>
+      </c>
+      <c r="F75" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="27"/>
+      <c r="B76" s="176"/>
+      <c r="C76" s="28"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="27"/>
+      <c r="B77" s="176"/>
+      <c r="C77" s="28">
+        <v>0</v>
+      </c>
+      <c r="D77" s="135">
+        <v>0</v>
+      </c>
+      <c r="E77" s="135">
+        <v>0</v>
+      </c>
+      <c r="F77" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="27"/>
+      <c r="B78" s="176"/>
+      <c r="C78" s="28">
+        <v>0</v>
+      </c>
+      <c r="D78" s="135">
+        <v>0</v>
+      </c>
+      <c r="E78" s="135">
+        <v>0</v>
+      </c>
+      <c r="F78" s="135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="27"/>
+      <c r="B79" s="176">
         <v>26009</v>
       </c>
-      <c r="C72" s="28"/>
-      <c r="D72" s="135">
-        <v>0</v>
-      </c>
-      <c r="E72" s="135">
-        <v>0</v>
-      </c>
-      <c r="F72" s="135">
+      <c r="C79" s="28"/>
+      <c r="D79" s="135">
+        <v>0</v>
+      </c>
+      <c r="E79" s="135">
+        <v>0</v>
+      </c>
+      <c r="F79" s="135">
         <v>0</v>
       </c>
     </row>
@@ -5950,8 +6055,8 @@
   <dimension ref="A1:W591"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A541" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K449" sqref="K449"/>
+      <pane ySplit="2" topLeftCell="A560" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O573" sqref="O573"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5978,47 +6083,47 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="210"/>
-      <c r="B1" s="216" t="s">
+      <c r="A1" s="211"/>
+      <c r="B1" s="217" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="218" t="s">
+      <c r="C1" s="219" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="220" t="s">
+      <c r="D1" s="221" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="222" t="s">
+      <c r="E1" s="223" t="s">
         <v>166</v>
       </c>
-      <c r="F1" s="215" t="s">
+      <c r="F1" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="215"/>
-      <c r="H1" s="215"/>
-      <c r="I1" s="215"/>
-      <c r="J1" s="214" t="s">
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="215" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
-      <c r="N1" s="214"/>
-      <c r="O1" s="214"/>
-      <c r="P1" s="214"/>
-      <c r="Q1" s="212" t="s">
+      <c r="K1" s="215"/>
+      <c r="L1" s="215"/>
+      <c r="M1" s="215"/>
+      <c r="N1" s="215"/>
+      <c r="O1" s="215"/>
+      <c r="P1" s="215"/>
+      <c r="Q1" s="213" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="208" t="s">
+      <c r="S1" s="209" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="8" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="211"/>
-      <c r="B2" s="217"/>
-      <c r="C2" s="219"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="223"/>
+      <c r="A2" s="212"/>
+      <c r="B2" s="218"/>
+      <c r="C2" s="220"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="224"/>
       <c r="F2" s="18" t="s">
         <v>115</v>
       </c>
@@ -6052,11 +6157,11 @@
       <c r="P2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="213"/>
+      <c r="Q2" s="214"/>
       <c r="R2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="S2" s="209"/>
+      <c r="S2" s="210"/>
     </row>
     <row r="3" spans="1:23" s="99" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="92"/>
@@ -6137,7 +6242,7 @@
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="12">
-        <v>106.6</v>
+        <v>108.98399999999999</v>
       </c>
       <c r="K4" s="12">
         <v>102.711</v>
@@ -6147,19 +6252,19 @@
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>4264</v>
+        <v>4359.3599999999997</v>
       </c>
       <c r="N4" s="23">
         <f t="shared" si="1"/>
-        <v>3.786351997351789E-2</v>
+        <v>6.1074276367672362E-2</v>
       </c>
       <c r="O4" s="11">
         <f>(J4-K4)*L4</f>
-        <v>155.55999999999983</v>
+        <v>250.91999999999985</v>
       </c>
       <c r="P4" s="23">
         <f t="shared" si="2"/>
-        <v>1.5259096706565169E-2</v>
+        <v>1.6542626817470547E-2</v>
       </c>
       <c r="Q4" s="80"/>
       <c r="S4" s="24"/>
@@ -6297,7 +6402,7 @@
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="12">
-        <v>118.791</v>
+        <v>117.741</v>
       </c>
       <c r="K7" s="12">
         <v>71.656000000000006</v>
@@ -6307,19 +6412,19 @@
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>5939.55</v>
+        <v>5887.05</v>
       </c>
       <c r="N7" s="23">
         <f t="shared" si="1"/>
-        <v>0.65779557887685591</v>
+        <v>0.6431422351233671</v>
       </c>
       <c r="O7" s="11">
         <f>(J7-K7)*L7</f>
-        <v>2356.7499999999995</v>
+        <v>2304.2499999999995</v>
       </c>
       <c r="P7" s="23">
         <f t="shared" si="2"/>
-        <v>2.1255198837588921E-2</v>
+        <v>2.2339809331138057E-2</v>
       </c>
       <c r="Q7" s="80"/>
       <c r="S7" s="24"/>
@@ -6348,7 +6453,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="15"/>
       <c r="J8" s="12">
-        <v>105.26900000000001</v>
+        <v>106.961</v>
       </c>
       <c r="K8" s="12">
         <v>105.64700000000001</v>
@@ -6358,19 +6463,19 @@
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>3158.07</v>
+        <v>3208.83</v>
       </c>
       <c r="N8" s="23">
         <f t="shared" si="1"/>
-        <v>-3.5779529944058998E-3</v>
+        <v>1.2437646123410915E-2</v>
       </c>
       <c r="O8" s="11">
         <f>(J8-K8)*L8</f>
-        <v>-11.340000000000003</v>
+        <v>39.419999999999789</v>
       </c>
       <c r="P8" s="23">
         <f t="shared" si="2"/>
-        <v>1.1301429534733178E-2</v>
+        <v>1.2176667494931371E-2</v>
       </c>
       <c r="Q8" s="80"/>
       <c r="S8" s="24"/>
@@ -6397,7 +6502,7 @@
         <v>65</v>
       </c>
       <c r="J9" s="12">
-        <v>114.52</v>
+        <v>110.422</v>
       </c>
       <c r="K9" s="12">
         <v>98.42</v>
@@ -6407,19 +6512,19 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>1145.2</v>
+        <v>1104.22</v>
       </c>
       <c r="N9" s="23">
         <f t="shared" si="1"/>
-        <v>0.16358463726884773</v>
+        <v>0.121946758788864</v>
       </c>
       <c r="O9" s="11">
         <f>(J9-K9)*L9</f>
-        <v>160.99999999999994</v>
+        <v>120.01999999999995</v>
       </c>
       <c r="P9" s="23">
         <f t="shared" si="2"/>
-        <v>4.0981982993335908E-3</v>
+        <v>4.1902250294509578E-3</v>
       </c>
       <c r="Q9" s="80"/>
       <c r="S9" s="24"/>
@@ -6768,55 +6873,52 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
-      <c r="B17" s="60">
+      <c r="B17" s="138">
         <v>15</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="204">
         <v>44389</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="140">
         <v>113519</v>
       </c>
-      <c r="E17" s="115" t="s">
+      <c r="E17" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="19">
-        <v>10</v>
-      </c>
-      <c r="G17" s="19">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14">
+      <c r="F17" s="142">
+        <v>10</v>
+      </c>
+      <c r="G17" s="142">
+        <v>0</v>
+      </c>
+      <c r="H17" s="143">
         <f t="shared" ref="H17:H23" si="4">F17*G17</f>
         <v>0</v>
       </c>
-      <c r="I17" s="15"/>
-      <c r="J17" s="12">
-        <v>125.22</v>
-      </c>
-      <c r="K17" s="12">
-        <v>100.438</v>
-      </c>
-      <c r="L17" s="12">
-        <v>40</v>
-      </c>
-      <c r="M17" s="11">
+      <c r="I17" s="144"/>
+      <c r="J17" s="144"/>
+      <c r="K17" s="144">
+        <v>0</v>
+      </c>
+      <c r="L17" s="144">
+        <v>0</v>
+      </c>
+      <c r="M17" s="143">
         <f t="shared" si="0"/>
-        <v>5008.8</v>
-      </c>
-      <c r="N17" s="23">
+        <v>0</v>
+      </c>
+      <c r="N17" s="145" t="e">
         <f t="shared" si="1"/>
-        <v>0.24673928194508052</v>
-      </c>
-      <c r="O17" s="11">
-        <f t="shared" si="3"/>
-        <v>991.27999999999986</v>
-      </c>
-      <c r="P17" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O17" s="143">
+        <v>1530.4</v>
+      </c>
+      <c r="P17" s="145">
         <f t="shared" si="2"/>
-        <v>1.7924428607843251E-2</v>
-      </c>
-      <c r="Q17" s="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="153"/>
       <c r="S17" s="45"/>
       <c r="T17" s="38"/>
     </row>
@@ -6877,7 +6979,7 @@
         <v>44389</v>
       </c>
       <c r="D19" s="30">
-        <v>128100</v>
+        <v>1281100</v>
       </c>
       <c r="E19" s="115" t="s">
         <v>37</v>
@@ -6899,9 +7001,7 @@
       <c r="K19" s="12">
         <v>97.801000000000002</v>
       </c>
-      <c r="L19" s="12">
-        <v>150</v>
-      </c>
+      <c r="L19" s="12"/>
       <c r="M19" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -6911,14 +7011,15 @@
         <v>-1</v>
       </c>
       <c r="O19" s="11">
-        <f t="shared" si="3"/>
-        <v>-14670.15</v>
+        <v>-14670</v>
       </c>
       <c r="P19" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="Q19" s="80"/>
+      <c r="Q19" s="80" t="s">
+        <v>313</v>
+      </c>
       <c r="S19" s="24"/>
     </row>
     <row r="20" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6946,7 +7047,7 @@
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="12">
-        <v>98.301000000000002</v>
+        <v>100.68899999999999</v>
       </c>
       <c r="K20" s="12">
         <v>98.27</v>
@@ -6956,19 +7057,19 @@
       </c>
       <c r="M20" s="11">
         <f t="shared" si="0"/>
-        <v>7864.08</v>
+        <v>8055.119999999999</v>
       </c>
       <c r="N20" s="23">
         <f t="shared" si="1"/>
-        <v>3.1545741324927155E-4</v>
+        <v>2.4615854279027141E-2</v>
       </c>
       <c r="O20" s="11">
         <f t="shared" si="3"/>
-        <v>2.4800000000004729</v>
+        <v>193.51999999999975</v>
       </c>
       <c r="P20" s="23">
         <f t="shared" si="2"/>
-        <v>2.8142297661389544E-2</v>
+        <v>3.0567065837632898E-2</v>
       </c>
       <c r="Q20" s="80"/>
       <c r="S20" s="24"/>
@@ -7000,7 +7101,7 @@
         <v>65</v>
       </c>
       <c r="J21" s="12">
-        <v>104.52</v>
+        <v>109.51</v>
       </c>
       <c r="K21" s="12">
         <v>102.69499999999999</v>
@@ -7010,19 +7111,19 @@
       </c>
       <c r="M21" s="11">
         <f t="shared" si="0"/>
-        <v>2090.4</v>
+        <v>2190.2000000000003</v>
       </c>
       <c r="N21" s="23">
         <f t="shared" si="1"/>
-        <v>1.7771069672330716E-2</v>
+        <v>6.6361556064073346E-2</v>
       </c>
       <c r="O21" s="11">
         <f t="shared" si="3"/>
-        <v>36.500000000000057</v>
+        <v>136.30000000000024</v>
       </c>
       <c r="P21" s="23">
         <f t="shared" si="2"/>
-        <v>7.480679117120974E-3</v>
+        <v>8.3112340471133382E-3</v>
       </c>
       <c r="Q21" s="80"/>
       <c r="S21" s="24"/>
@@ -7052,7 +7153,7 @@
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="12">
-        <v>108.60899999999999</v>
+        <v>108.68</v>
       </c>
       <c r="K22" s="12">
         <v>63.146999999999998</v>
@@ -7062,19 +7163,19 @@
       </c>
       <c r="M22" s="11">
         <f>J22*L22</f>
-        <v>5430.45</v>
+        <v>5434</v>
       </c>
       <c r="N22" s="23">
         <f t="shared" si="1"/>
-        <v>0.71993918951019042</v>
+        <v>0.72106355012906409</v>
       </c>
       <c r="O22" s="11">
         <f t="shared" si="3"/>
-        <v>2273.1</v>
+        <v>2276.6500000000005</v>
       </c>
       <c r="P22" s="23">
         <f t="shared" si="2"/>
-        <v>1.9433339988313043E-2</v>
+        <v>2.062060351201437E-2</v>
       </c>
       <c r="Q22" s="80"/>
       <c r="S22" s="24"/>
@@ -7103,7 +7204,7 @@
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="12">
-        <v>96.700999999999993</v>
+        <v>97.58</v>
       </c>
       <c r="K23" s="12">
         <v>96.222999999999999</v>
@@ -7113,19 +7214,19 @@
       </c>
       <c r="M23" s="11">
         <f t="shared" si="0"/>
-        <v>6769.07</v>
+        <v>6830.5999999999995</v>
       </c>
       <c r="N23" s="23">
         <f t="shared" si="1"/>
-        <v>4.9676272824583983E-3</v>
+        <v>1.4102657368820338E-2</v>
       </c>
       <c r="O23" s="11">
         <f t="shared" si="3"/>
-        <v>33.45999999999961</v>
+        <v>94.989999999999952</v>
       </c>
       <c r="P23" s="23">
         <f t="shared" si="2"/>
-        <v>2.4223708664049975E-2</v>
+        <v>2.592033388832634E-2</v>
       </c>
       <c r="Q23" s="80"/>
       <c r="S23" s="24"/>
@@ -7255,7 +7356,7 @@
         <v>51</v>
       </c>
       <c r="J26" s="12">
-        <v>112.5</v>
+        <v>112.96599999999999</v>
       </c>
       <c r="K26" s="12">
         <v>103.797</v>
@@ -7265,19 +7366,19 @@
       </c>
       <c r="M26" s="11">
         <f t="shared" si="0"/>
-        <v>1125</v>
+        <v>1129.6599999999999</v>
       </c>
       <c r="N26" s="23">
         <f t="shared" si="1"/>
-        <v>8.384635394086537E-2</v>
+        <v>8.8335886393633697E-2</v>
       </c>
       <c r="O26" s="11">
         <f>(J26-K26)*L26</f>
-        <v>87.03000000000003</v>
+        <v>91.689999999999969</v>
       </c>
       <c r="P26" s="23">
         <f t="shared" si="2"/>
-        <v>4.0259108336974242E-3</v>
+        <v>4.2867631511560823E-3</v>
       </c>
       <c r="Q26" s="80"/>
       <c r="S26" s="24"/>
@@ -7352,7 +7453,7 @@
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="12">
-        <v>107.331</v>
+        <v>109.01</v>
       </c>
       <c r="K28" s="12">
         <v>119.637</v>
@@ -7362,19 +7463,19 @@
       </c>
       <c r="M28" s="11">
         <f t="shared" si="0"/>
-        <v>10733.1</v>
+        <v>10901</v>
       </c>
       <c r="N28" s="23">
         <f t="shared" si="1"/>
-        <v>-0.1028611549938564</v>
+        <v>-8.8827035114554823E-2</v>
       </c>
       <c r="O28" s="11">
         <f>(J28-K28)*L28</f>
-        <v>-1230.5999999999997</v>
+        <v>-1062.6999999999996</v>
       </c>
       <c r="P28" s="23">
         <f t="shared" si="2"/>
-        <v>3.8409336505918067E-2</v>
+        <v>4.1366433361146232E-2</v>
       </c>
       <c r="Q28" s="80" t="s">
         <v>53</v>
@@ -7454,7 +7555,7 @@
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="12">
-        <v>93.036000000000001</v>
+        <v>95.436999999999998</v>
       </c>
       <c r="K30" s="12">
         <v>90.962999999999994</v>
@@ -7464,19 +7565,19 @@
       </c>
       <c r="M30" s="11">
         <f t="shared" si="0"/>
-        <v>4651.8</v>
+        <v>4771.8499999999995</v>
       </c>
       <c r="N30" s="23">
         <f t="shared" si="1"/>
-        <v>2.2789485834899988E-2</v>
+        <v>4.918483339379752E-2</v>
       </c>
       <c r="O30" s="11">
         <f>(J30-K30)*L30</f>
-        <v>103.65000000000038</v>
+        <v>223.70000000000019</v>
       </c>
       <c r="P30" s="23">
         <f t="shared" si="2"/>
-        <v>1.6646872903283268E-2</v>
+        <v>1.8107918084064364E-2</v>
       </c>
       <c r="Q30" s="80"/>
       <c r="S30" s="24"/>
@@ -7508,7 +7609,7 @@
         <v>51</v>
       </c>
       <c r="J31" s="12">
-        <v>114.541</v>
+        <v>114.518</v>
       </c>
       <c r="K31" s="12">
         <v>101.621</v>
@@ -7518,19 +7619,19 @@
       </c>
       <c r="M31" s="11">
         <f t="shared" si="0"/>
-        <v>1145.4099999999999</v>
+        <v>1145.18</v>
       </c>
       <c r="N31" s="23">
         <f t="shared" si="1"/>
-        <v>0.12713907558477089</v>
+        <v>0.1269127444130643</v>
       </c>
       <c r="O31" s="11">
         <f>(J31-K31)*L31</f>
-        <v>129.20000000000002</v>
+        <v>128.97000000000006</v>
       </c>
       <c r="P31" s="23">
         <f t="shared" si="2"/>
-        <v>4.0989498026892139E-3</v>
+        <v>4.3456574769761896E-3</v>
       </c>
       <c r="Q31" s="80"/>
       <c r="R31" s="7"/>
@@ -7611,7 +7712,7 @@
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="12">
-        <v>105.64700000000001</v>
+        <v>113.575</v>
       </c>
       <c r="K33" s="12">
         <v>101.00700000000001</v>
@@ -7621,19 +7722,19 @@
       </c>
       <c r="M33" s="11">
         <f t="shared" si="0"/>
-        <v>8451.76</v>
+        <v>9086</v>
       </c>
       <c r="N33" s="23">
         <f t="shared" si="1"/>
-        <v>4.5937410278495551E-2</v>
+        <v>0.12442701990951119</v>
       </c>
       <c r="O33" s="11">
         <f>(J33-K33)*L33</f>
-        <v>371.20000000000005</v>
+        <v>1005.4399999999998</v>
       </c>
       <c r="P33" s="23">
         <f t="shared" si="2"/>
-        <v>3.0245361909164926E-2</v>
+        <v>3.4478984819683943E-2</v>
       </c>
       <c r="Q33" s="80"/>
       <c r="R33" s="8"/>
@@ -7715,7 +7816,7 @@
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="12">
-        <v>91.408000000000001</v>
+        <v>94.066999999999993</v>
       </c>
       <c r="K35" s="12">
         <v>96.945999999999998</v>
@@ -7725,19 +7826,19 @@
       </c>
       <c r="M35" s="11">
         <f t="shared" ref="M35:M59" si="6">J35*L35</f>
-        <v>10054.880000000001</v>
+        <v>10347.369999999999</v>
       </c>
       <c r="N35" s="23">
         <f t="shared" ref="N35:N59" si="7">(J35-K35)/K35</f>
-        <v>-5.7124584820415457E-2</v>
+        <v>-2.969694469085888E-2</v>
       </c>
       <c r="O35" s="11">
         <f>(J35-K35)*L35</f>
-        <v>-609.17999999999961</v>
+        <v>-316.69000000000051</v>
       </c>
       <c r="P35" s="23">
         <f t="shared" si="2"/>
-        <v>3.5982266954246722E-2</v>
+        <v>3.9265552845438367E-2</v>
       </c>
       <c r="Q35" s="80"/>
       <c r="S35" s="24"/>
@@ -8300,7 +8401,7 @@
         <v>65</v>
       </c>
       <c r="J47" s="12">
-        <v>117.44</v>
+        <v>117.96</v>
       </c>
       <c r="K47" s="12">
         <v>115.91</v>
@@ -8310,19 +8411,19 @@
       </c>
       <c r="M47" s="11">
         <f t="shared" si="6"/>
-        <v>2348.8000000000002</v>
+        <v>2359.1999999999998</v>
       </c>
       <c r="N47" s="23">
         <f t="shared" si="7"/>
-        <v>1.3199896471400234E-2</v>
+        <v>1.7686135795013349E-2</v>
       </c>
       <c r="O47" s="11">
         <f t="shared" si="8"/>
-        <v>30.600000000000023</v>
+        <v>40.999999999999943</v>
       </c>
       <c r="P47" s="23">
         <f t="shared" si="2"/>
-        <v>8.4053861032786763E-3</v>
+        <v>8.9525446826544518E-3</v>
       </c>
       <c r="Q47" s="80"/>
       <c r="S47" s="24"/>
@@ -8956,58 +9057,52 @@
       <c r="Q60" s="80"/>
       <c r="S60" s="24"/>
     </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A61" s="7"/>
-      <c r="B61" s="60">
+    <row r="61" spans="1:19" s="47" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="138">
         <v>60</v>
       </c>
-      <c r="C61" s="29">
+      <c r="C61" s="139">
         <v>44627</v>
       </c>
-      <c r="D61" s="30">
+      <c r="D61" s="140">
         <v>128114</v>
       </c>
-      <c r="E61" s="122" t="s">
+      <c r="E61" s="206" t="s">
         <v>72</v>
       </c>
-      <c r="F61" s="19">
-        <v>10</v>
-      </c>
-      <c r="G61" s="19">
+      <c r="F61" s="142">
+        <v>10</v>
+      </c>
+      <c r="G61" s="142">
         <v>102.3</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="143">
         <f t="shared" si="9"/>
         <v>1023</v>
       </c>
-      <c r="I61" s="15"/>
-      <c r="J61" s="12">
-        <v>86.5</v>
-      </c>
-      <c r="K61" s="12">
-        <v>94.004000000000005</v>
-      </c>
-      <c r="L61" s="12">
-        <v>200</v>
-      </c>
-      <c r="M61" s="11">
+      <c r="I61" s="144"/>
+      <c r="J61" s="144"/>
+      <c r="K61" s="144"/>
+      <c r="L61" s="144">
+        <v>0</v>
+      </c>
+      <c r="M61" s="143">
         <f t="shared" ref="M61:M67" si="10">J61*L61</f>
-        <v>17300</v>
-      </c>
-      <c r="N61" s="23">
+        <v>0</v>
+      </c>
+      <c r="N61" s="145" t="e">
         <f t="shared" ref="N61:N95" si="11">(J61-K61)/K61</f>
-        <v>-7.9826390366367433E-2</v>
-      </c>
-      <c r="O61" s="11">
-        <f t="shared" si="8"/>
-        <v>-1500.8000000000011</v>
-      </c>
-      <c r="P61" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O61" s="143">
+        <v>-1149.8900000000001</v>
+      </c>
+      <c r="P61" s="145">
         <f t="shared" si="2"/>
-        <v>6.1909562153747051E-2</v>
-      </c>
-      <c r="Q61" s="80"/>
-      <c r="S61" s="24"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="153"/>
+      <c r="S61" s="147"/>
     </row>
     <row r="62" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
@@ -9283,7 +9378,7 @@
         <v>65</v>
       </c>
       <c r="J67" s="12">
-        <v>107.652</v>
+        <v>108.19799999999999</v>
       </c>
       <c r="K67" s="12">
         <v>105.10899999999999</v>
@@ -9293,19 +9388,19 @@
       </c>
       <c r="M67" s="11">
         <f t="shared" si="10"/>
-        <v>4306.08</v>
+        <v>4327.92</v>
       </c>
       <c r="N67" s="23">
         <f t="shared" si="11"/>
-        <v>2.4193932013433735E-2</v>
+        <v>2.9388539516121349E-2</v>
       </c>
       <c r="O67" s="11">
         <f t="shared" si="8"/>
-        <v>101.72000000000025</v>
+        <v>123.55999999999995</v>
       </c>
       <c r="P67" s="23">
         <f t="shared" ref="P67:P130" si="12">M67/$M$573</f>
-        <v>1.5409683664682492E-2</v>
+        <v>1.6423320270834971E-2</v>
       </c>
       <c r="Q67" s="80"/>
       <c r="S67" s="24"/>
@@ -9380,7 +9475,7 @@
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="12">
-        <v>100.8</v>
+        <v>100.25</v>
       </c>
       <c r="K69" s="12">
         <v>97.275999999999996</v>
@@ -9390,19 +9485,19 @@
       </c>
       <c r="M69" s="11">
         <f t="shared" ref="M69:M82" si="13">J69*L69</f>
-        <v>7056</v>
+        <v>7017.5</v>
       </c>
       <c r="N69" s="23">
         <f t="shared" si="11"/>
-        <v>3.6226818536946433E-2</v>
+        <v>3.0572803158024631E-2</v>
       </c>
       <c r="O69" s="11">
         <f>(J69-K69)*L69</f>
-        <v>246.68000000000006</v>
+        <v>208.18000000000026</v>
       </c>
       <c r="P69" s="23">
         <f t="shared" si="12"/>
-        <v>2.5250512748950245E-2</v>
+        <v>2.6629570324909979E-2</v>
       </c>
       <c r="Q69" s="80"/>
       <c r="S69" s="24"/>
@@ -9486,7 +9581,7 @@
         <v>51</v>
       </c>
       <c r="J71" s="12">
-        <v>104.999</v>
+        <v>105.40900000000001</v>
       </c>
       <c r="K71" s="12">
         <v>105.233</v>
@@ -9496,19 +9591,19 @@
       </c>
       <c r="M71" s="11">
         <f t="shared" si="13"/>
-        <v>5249.95</v>
+        <v>5270.4500000000007</v>
       </c>
       <c r="N71" s="23">
         <f t="shared" si="11"/>
-        <v>-2.2236370720212181E-3</v>
+        <v>1.6724791652808712E-3</v>
       </c>
       <c r="O71" s="11">
         <f>(J71-K71)*L71</f>
-        <v>-11.700000000000443</v>
+        <v>8.8000000000000966</v>
       </c>
       <c r="P71" s="23">
         <f t="shared" si="12"/>
-        <v>1.8787404961217592E-2</v>
+        <v>1.9999974195785083E-2</v>
       </c>
       <c r="Q71" s="80"/>
       <c r="S71" s="24"/>
@@ -9588,7 +9683,7 @@
         <v>51</v>
       </c>
       <c r="J73" s="12">
-        <v>118.32299999999999</v>
+        <v>120.62</v>
       </c>
       <c r="K73" s="12">
         <v>113.021</v>
@@ -9598,19 +9693,19 @@
       </c>
       <c r="M73" s="11">
         <f t="shared" si="13"/>
-        <v>1183.23</v>
+        <v>1206.2</v>
       </c>
       <c r="N73" s="23">
         <f t="shared" si="11"/>
-        <v>4.6911635890675117E-2</v>
+        <v>6.7235292556250645E-2</v>
       </c>
       <c r="O73" s="11">
         <f>(J73-K73)*L73</f>
-        <v>53.019999999999925</v>
+        <v>75.990000000000038</v>
       </c>
       <c r="P73" s="23">
         <f t="shared" si="12"/>
-        <v>4.2342919784496029E-3</v>
+        <v>4.5772123585189053E-3</v>
       </c>
       <c r="Q73" s="80"/>
       <c r="S73" s="24"/>
@@ -9790,7 +9885,7 @@
         <v>51</v>
       </c>
       <c r="J77" s="12">
-        <v>120.39100000000001</v>
+        <v>117.90900000000001</v>
       </c>
       <c r="K77" s="12">
         <v>96.376000000000005</v>
@@ -9800,19 +9895,19 @@
       </c>
       <c r="M77" s="11">
         <f t="shared" si="13"/>
-        <v>2407.8200000000002</v>
+        <v>2358.1800000000003</v>
       </c>
       <c r="N77" s="23">
         <f t="shared" si="11"/>
-        <v>0.24918029384909104</v>
+        <v>0.22342699427243298</v>
       </c>
       <c r="O77" s="11">
         <f t="shared" si="14"/>
-        <v>480.3</v>
+        <v>430.66</v>
       </c>
       <c r="P77" s="23">
         <f t="shared" si="12"/>
-        <v>8.6165943320829618E-3</v>
+        <v>8.9486740504162773E-3</v>
       </c>
       <c r="Q77" s="80"/>
       <c r="S77" s="24"/>
@@ -9894,7 +9989,7 @@
         <v>51</v>
       </c>
       <c r="J79" s="12">
-        <v>125.712</v>
+        <v>128.15</v>
       </c>
       <c r="K79" s="12">
         <v>108.59</v>
@@ -9904,19 +9999,19 @@
       </c>
       <c r="M79" s="11">
         <f t="shared" si="13"/>
-        <v>1257.1200000000001</v>
+        <v>1281.5</v>
       </c>
       <c r="N79" s="23">
         <f t="shared" si="11"/>
-        <v>0.15767566074224146</v>
+        <v>0.1801270835251865</v>
       </c>
       <c r="O79" s="11">
         <f t="shared" si="14"/>
-        <v>171.22</v>
+        <v>195.60000000000002</v>
       </c>
       <c r="P79" s="23">
         <f t="shared" si="12"/>
-        <v>4.4987138020068495E-3</v>
+        <v>4.8629560913961015E-3</v>
       </c>
       <c r="Q79" s="80"/>
       <c r="S79" s="24"/>
@@ -9947,7 +10042,7 @@
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="12">
-        <v>102</v>
+        <v>105.348</v>
       </c>
       <c r="K80" s="12">
         <v>102.825</v>
@@ -9957,19 +10052,19 @@
       </c>
       <c r="M80" s="11">
         <f t="shared" si="13"/>
-        <v>8160</v>
+        <v>8427.84</v>
       </c>
       <c r="N80" s="23">
         <f t="shared" si="11"/>
-        <v>-8.023340627279385E-3</v>
+        <v>2.45368344274252E-2</v>
       </c>
       <c r="O80" s="11">
         <f t="shared" si="14"/>
-        <v>-66.000000000000227</v>
+        <v>201.83999999999969</v>
       </c>
       <c r="P80" s="23">
         <f t="shared" si="12"/>
-        <v>2.9201273247085314E-2</v>
+        <v>3.1981440394312693E-2</v>
       </c>
       <c r="Q80" s="80"/>
       <c r="S80" s="24"/>
@@ -10048,7 +10143,7 @@
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="12">
-        <v>106.396</v>
+        <v>104.657</v>
       </c>
       <c r="K82" s="12">
         <v>102.733</v>
@@ -10058,19 +10153,19 @@
       </c>
       <c r="M82" s="11">
         <f t="shared" si="13"/>
-        <v>4255.84</v>
+        <v>4186.28</v>
       </c>
       <c r="N82" s="23">
         <f t="shared" si="11"/>
-        <v>3.5655534248975468E-2</v>
+        <v>1.8728159403502209E-2</v>
       </c>
       <c r="O82" s="11">
         <f t="shared" si="14"/>
-        <v>146.51999999999987</v>
+        <v>76.959999999999695</v>
       </c>
       <c r="P82" s="23">
         <f t="shared" si="12"/>
-        <v>1.5229895433318085E-2</v>
+        <v>1.5885833652976723E-2</v>
       </c>
       <c r="Q82" s="80"/>
       <c r="S82" s="24"/>
@@ -10150,7 +10245,7 @@
         <v>51</v>
       </c>
       <c r="J84" s="12">
-        <v>114</v>
+        <v>109.283</v>
       </c>
       <c r="K84" s="12">
         <v>107.426</v>
@@ -10160,19 +10255,19 @@
       </c>
       <c r="M84" s="11">
         <f t="shared" ref="M84:M95" si="15">J84*L84</f>
-        <v>2280</v>
+        <v>2185.66</v>
       </c>
       <c r="N84" s="23">
         <f t="shared" si="11"/>
-        <v>6.1195613724796587E-2</v>
+        <v>1.7286318023569707E-2</v>
       </c>
       <c r="O84" s="11">
         <f t="shared" si="14"/>
-        <v>131.47999999999996</v>
+        <v>37.139999999999986</v>
       </c>
       <c r="P84" s="23">
         <f t="shared" si="12"/>
-        <v>8.1591792896267799E-3</v>
+        <v>8.294005938915959E-3</v>
       </c>
       <c r="Q84" s="80"/>
       <c r="S84" s="24"/>
@@ -10203,7 +10298,7 @@
       </c>
       <c r="I85" s="15"/>
       <c r="J85" s="12">
-        <v>109.68</v>
+        <v>108.52</v>
       </c>
       <c r="K85" s="12">
         <v>104.024</v>
@@ -10213,19 +10308,19 @@
       </c>
       <c r="M85" s="11">
         <f t="shared" si="15"/>
-        <v>4387.2000000000007</v>
+        <v>4340.8</v>
       </c>
       <c r="N85" s="23">
         <f t="shared" si="11"/>
-        <v>5.4372067984311372E-2</v>
+        <v>4.3220795201107387E-2</v>
       </c>
       <c r="O85" s="11">
         <f t="shared" si="14"/>
-        <v>226.24000000000024</v>
+        <v>179.8399999999998</v>
       </c>
       <c r="P85" s="23">
         <f t="shared" si="12"/>
-        <v>1.5699978675197637E-2</v>
+        <v>1.6472196489685679E-2</v>
       </c>
       <c r="Q85" s="80"/>
       <c r="S85" s="24"/>
@@ -10450,7 +10545,7 @@
       </c>
       <c r="I90" s="15"/>
       <c r="J90" s="12">
-        <v>100.559</v>
+        <v>101.953</v>
       </c>
       <c r="K90" s="12">
         <v>101.515</v>
@@ -10460,19 +10555,19 @@
       </c>
       <c r="M90" s="11">
         <f t="shared" si="15"/>
-        <v>5027.95</v>
+        <v>5097.6500000000005</v>
       </c>
       <c r="N90" s="23">
         <f t="shared" si="11"/>
-        <v>-9.4173274885485207E-3</v>
+        <v>4.3146333054228676E-3</v>
       </c>
       <c r="O90" s="11">
         <f t="shared" si="14"/>
-        <v>-47.800000000000153</v>
+        <v>21.900000000000119</v>
       </c>
       <c r="P90" s="23">
         <f t="shared" si="12"/>
-        <v>1.79929585567013E-2</v>
+        <v>1.9344243557788014E-2</v>
       </c>
       <c r="Q90" s="80"/>
       <c r="S90" s="24"/>
@@ -11169,7 +11264,7 @@
       </c>
       <c r="I105" s="15"/>
       <c r="J105" s="12">
-        <v>86.488</v>
+        <v>88.146000000000001</v>
       </c>
       <c r="K105" s="12">
         <v>100.524</v>
@@ -11179,19 +11274,19 @@
       </c>
       <c r="M105" s="11">
         <f t="shared" si="17"/>
-        <v>8648.7999999999993</v>
+        <v>8814.6</v>
       </c>
       <c r="N105" s="23">
         <f t="shared" si="18"/>
-        <v>-0.13962834745931321</v>
+        <v>-0.12313477378536469</v>
       </c>
       <c r="O105" s="11">
         <f t="shared" si="14"/>
-        <v>-1403.6000000000001</v>
+        <v>-1237.8</v>
       </c>
       <c r="P105" s="23">
         <f t="shared" si="12"/>
-        <v>3.0950486771984247E-2</v>
+        <v>3.3449093065329748E-2</v>
       </c>
       <c r="Q105" s="80" t="s">
         <v>105</v>
@@ -11224,7 +11319,7 @@
       </c>
       <c r="I106" s="15"/>
       <c r="J106" s="12">
-        <v>109.342</v>
+        <v>113.837</v>
       </c>
       <c r="K106" s="12">
         <v>105.187</v>
@@ -11234,19 +11329,19 @@
       </c>
       <c r="M106" s="11">
         <f t="shared" si="17"/>
-        <v>3280.2599999999998</v>
+        <v>3415.11</v>
       </c>
       <c r="N106" s="23">
         <f t="shared" si="18"/>
-        <v>3.9501079030678711E-2</v>
+        <v>8.2234496658332365E-2</v>
       </c>
       <c r="O106" s="11">
         <f t="shared" si="14"/>
-        <v>124.65000000000003</v>
+        <v>259.50000000000017</v>
       </c>
       <c r="P106" s="23">
         <f t="shared" si="12"/>
-        <v>1.1738697130083832E-2</v>
+        <v>1.2959445944040374E-2</v>
       </c>
       <c r="Q106" s="80" t="s">
         <v>105</v>
@@ -11578,7 +11673,7 @@
       </c>
       <c r="I113" s="15"/>
       <c r="J113" s="12">
-        <v>97.319000000000003</v>
+        <v>103.648</v>
       </c>
       <c r="K113" s="12">
         <v>101</v>
@@ -11588,19 +11683,19 @@
       </c>
       <c r="M113" s="11">
         <f t="shared" si="17"/>
-        <v>2919.57</v>
+        <v>3109.44</v>
       </c>
       <c r="N113" s="23">
         <f t="shared" si="18"/>
-        <v>-3.6445544554455422E-2</v>
+        <v>2.6217821782178179E-2</v>
       </c>
       <c r="O113" s="11">
         <f t="shared" si="19"/>
-        <v>-110.42999999999992</v>
+        <v>79.439999999999884</v>
       </c>
       <c r="P113" s="23">
         <f t="shared" si="12"/>
-        <v>1.0447936437989323E-2</v>
+        <v>1.1799508535958403E-2</v>
       </c>
       <c r="Q113" s="80" t="s">
         <v>105</v>
@@ -12281,7 +12376,7 @@
       </c>
       <c r="I127" s="15"/>
       <c r="J127" s="12">
-        <v>112.194</v>
+        <v>108.77500000000001</v>
       </c>
       <c r="K127" s="12">
         <v>108.29900000000001</v>
@@ -12291,19 +12386,19 @@
       </c>
       <c r="M127" s="11">
         <f t="shared" si="17"/>
-        <v>2243.88</v>
+        <v>2175.5</v>
       </c>
       <c r="N127" s="23">
         <f t="shared" si="18"/>
-        <v>3.5965244369754068E-2</v>
+        <v>4.3952391065476045E-3</v>
       </c>
       <c r="O127" s="11">
         <f t="shared" si="19"/>
-        <v>77.89999999999992</v>
+        <v>9.5199999999999818</v>
       </c>
       <c r="P127" s="23">
         <f t="shared" si="12"/>
-        <v>8.0299207124595352E-3</v>
+        <v>8.2554514060337245E-3</v>
       </c>
       <c r="Q127" s="80" t="s">
         <v>105</v>
@@ -12579,7 +12674,7 @@
       </c>
       <c r="I133" s="15"/>
       <c r="J133" s="12">
-        <v>112.65600000000001</v>
+        <v>112.34699999999999</v>
       </c>
       <c r="K133" s="12">
         <v>111.721</v>
@@ -12589,19 +12684,19 @@
       </c>
       <c r="M133" s="11">
         <f t="shared" si="17"/>
-        <v>1126.56</v>
+        <v>1123.47</v>
       </c>
       <c r="N133" s="23">
         <f t="shared" si="23"/>
-        <v>8.3690622174882271E-3</v>
+        <v>5.603243794810202E-3</v>
       </c>
       <c r="O133" s="11">
         <f t="shared" si="21"/>
-        <v>9.3500000000000227</v>
+        <v>6.2599999999999056</v>
       </c>
       <c r="P133" s="23">
         <f t="shared" si="22"/>
-        <v>4.0314934300534839E-3</v>
+        <v>4.2632737261028312E-3</v>
       </c>
       <c r="Q133" s="80" t="s">
         <v>105</v>
@@ -12683,7 +12778,7 @@
       </c>
       <c r="I135" s="15"/>
       <c r="J135" s="12">
-        <v>110.057</v>
+        <v>110.34399999999999</v>
       </c>
       <c r="K135" s="12">
         <v>107.63</v>
@@ -12693,19 +12788,19 @@
       </c>
       <c r="M135" s="11">
         <f t="shared" si="17"/>
-        <v>1100.57</v>
+        <v>1103.44</v>
       </c>
       <c r="N135" s="23">
         <f t="shared" si="23"/>
-        <v>2.2549475053423831E-2</v>
+        <v>2.521601783889249E-2</v>
       </c>
       <c r="O135" s="11">
         <f t="shared" si="21"/>
-        <v>24.270000000000067</v>
+        <v>27.139999999999986</v>
       </c>
       <c r="P135" s="23">
         <f t="shared" si="22"/>
-        <v>3.9384859433265543E-3</v>
+        <v>4.1872651342099998E-3</v>
       </c>
       <c r="Q135" s="80" t="s">
         <v>119</v>
@@ -12838,7 +12933,7 @@
       </c>
       <c r="I138" s="15"/>
       <c r="J138" s="12">
-        <v>93.864999999999995</v>
+        <v>95.811000000000007</v>
       </c>
       <c r="K138" s="12">
         <v>104.178</v>
@@ -12848,19 +12943,19 @@
       </c>
       <c r="M138" s="11">
         <f t="shared" si="17"/>
-        <v>4693.25</v>
+        <v>4790.55</v>
       </c>
       <c r="N138" s="23">
         <f t="shared" si="23"/>
-        <v>-9.8994029449595913E-2</v>
+        <v>-8.0314461786557531E-2</v>
       </c>
       <c r="O138" s="11">
         <f t="shared" si="21"/>
-        <v>-515.65000000000009</v>
+        <v>-418.34999999999951</v>
       </c>
       <c r="P138" s="23">
         <f t="shared" si="22"/>
-        <v>1.679520535133372E-2</v>
+        <v>1.8178879675097615E-2</v>
       </c>
       <c r="Q138" s="80" t="s">
         <v>105</v>
@@ -12947,7 +13042,9 @@
       <c r="I140" s="51"/>
       <c r="J140" s="51"/>
       <c r="K140" s="51"/>
-      <c r="L140" s="51"/>
+      <c r="L140" s="51">
+        <v>0</v>
+      </c>
       <c r="M140" s="53"/>
       <c r="N140" s="54" t="e">
         <f t="shared" si="23"/>
@@ -12991,7 +13088,7 @@
       </c>
       <c r="I141" s="15"/>
       <c r="J141" s="12">
-        <v>110.31100000000001</v>
+        <v>113.041</v>
       </c>
       <c r="K141" s="12">
         <v>107.151</v>
@@ -13001,19 +13098,19 @@
       </c>
       <c r="M141" s="11">
         <f t="shared" ref="M141:M172" si="24">J141*L141</f>
-        <v>1103.1100000000001</v>
+        <v>1130.4099999999999</v>
       </c>
       <c r="N141" s="23">
         <f t="shared" si="23"/>
-        <v>2.9491092010340648E-2</v>
+        <v>5.4969155677501852E-2</v>
       </c>
       <c r="O141" s="11">
         <f>(J141-K141)*L141</f>
-        <v>31.600000000000108</v>
+        <v>58.900000000000006</v>
       </c>
       <c r="P141" s="23">
         <f t="shared" si="22"/>
-        <v>3.9475755553421915E-3</v>
+        <v>4.2896092042723887E-3</v>
       </c>
       <c r="Q141" s="80" t="s">
         <v>105</v>
@@ -13046,7 +13143,7 @@
       </c>
       <c r="I142" s="15"/>
       <c r="J142" s="12">
-        <v>113.86799999999999</v>
+        <v>115.41800000000001</v>
       </c>
       <c r="K142" s="12">
         <v>109.321</v>
@@ -13056,19 +13153,19 @@
       </c>
       <c r="M142" s="11">
         <f t="shared" si="24"/>
-        <v>1138.6799999999998</v>
+        <v>1154.18</v>
       </c>
       <c r="N142" s="23">
         <f t="shared" si="23"/>
-        <v>4.1593106539457171E-2</v>
+        <v>5.5771535203666345E-2</v>
       </c>
       <c r="O142" s="11">
         <f>(J142-K142)*L142</f>
-        <v>45.46999999999997</v>
+        <v>60.970000000000084</v>
       </c>
       <c r="P142" s="23">
         <f t="shared" si="22"/>
-        <v>4.0748659094351838E-3</v>
+        <v>4.379810114371871E-3</v>
       </c>
       <c r="Q142" s="80" t="s">
         <v>105</v>
@@ -13346,7 +13443,7 @@
       </c>
       <c r="I148" s="15"/>
       <c r="J148" s="12">
-        <v>107.999</v>
+        <v>114.929</v>
       </c>
       <c r="K148" s="12">
         <v>106.078</v>
@@ -13356,19 +13453,19 @@
       </c>
       <c r="M148" s="11">
         <f t="shared" si="24"/>
-        <v>1079.99</v>
+        <v>1149.29</v>
       </c>
       <c r="N148" s="23">
         <f t="shared" si="23"/>
-        <v>1.8109315786496657E-2</v>
+        <v>8.3438601783593191E-2</v>
       </c>
       <c r="O148" s="11">
         <f t="shared" si="25"/>
-        <v>19.209999999999923</v>
+        <v>88.509999999999991</v>
       </c>
       <c r="P148" s="23">
         <f t="shared" si="22"/>
-        <v>3.8648386144754499E-3</v>
+        <v>4.3612538480535508E-3</v>
       </c>
       <c r="Q148" s="80" t="s">
         <v>105</v>
@@ -13401,7 +13498,7 @@
       </c>
       <c r="I149" s="15"/>
       <c r="J149" s="12">
-        <v>124.818</v>
+        <v>122.452</v>
       </c>
       <c r="K149" s="77">
         <v>106.556</v>
@@ -13411,19 +13508,19 @@
       </c>
       <c r="M149" s="11">
         <f t="shared" si="24"/>
-        <v>3744.54</v>
+        <v>3673.56</v>
       </c>
       <c r="N149" s="23">
         <f t="shared" si="23"/>
-        <v>0.17138406096324937</v>
+        <v>0.14917977401554114</v>
       </c>
       <c r="O149" s="11">
         <f t="shared" si="25"/>
-        <v>547.86</v>
+        <v>476.88</v>
       </c>
       <c r="P149" s="23">
         <f t="shared" si="22"/>
-        <v>1.3400163691745202E-2</v>
+        <v>1.3940195847919673E-2</v>
       </c>
       <c r="Q149" s="80" t="s">
         <v>105</v>
@@ -13552,7 +13649,7 @@
       </c>
       <c r="I152" s="15"/>
       <c r="J152" s="12">
-        <v>106.07599999999999</v>
+        <v>109.3</v>
       </c>
       <c r="K152" s="12">
         <v>110.26300000000001</v>
@@ -13562,19 +13659,19 @@
       </c>
       <c r="M152" s="11">
         <f t="shared" si="24"/>
-        <v>3182.2799999999997</v>
+        <v>3279</v>
       </c>
       <c r="N152" s="23">
         <f t="shared" si="23"/>
-        <v>-3.7972846739160113E-2</v>
+        <v>-8.7336640577529E-3</v>
       </c>
       <c r="O152" s="11">
         <f t="shared" ref="O152:O163" si="26">(J152-K152)*L152</f>
-        <v>-125.61000000000035</v>
+        <v>-28.890000000000242</v>
       </c>
       <c r="P152" s="23">
         <f t="shared" si="22"/>
-        <v>1.1388067135874345E-2</v>
+        <v>1.2442944224493029E-2</v>
       </c>
       <c r="Q152" s="80" t="s">
         <v>131</v>
@@ -13806,7 +13903,7 @@
         <v>65</v>
       </c>
       <c r="J157" s="12">
-        <v>126.02800000000001</v>
+        <v>124.316</v>
       </c>
       <c r="K157" s="12">
         <v>109.09</v>
@@ -13816,19 +13913,19 @@
       </c>
       <c r="M157" s="11">
         <f t="shared" si="24"/>
-        <v>1260.28</v>
+        <v>1243.1600000000001</v>
       </c>
       <c r="N157" s="23">
         <f t="shared" si="23"/>
-        <v>0.15526629388578239</v>
+        <v>0.13957282977358143</v>
       </c>
       <c r="O157" s="11">
         <f t="shared" si="26"/>
-        <v>169.38000000000002</v>
+        <v>152.26</v>
       </c>
       <c r="P157" s="23">
         <f t="shared" si="22"/>
-        <v>4.5100221382152793E-3</v>
+        <v>4.7174658560905011E-3</v>
       </c>
       <c r="Q157" s="80" t="s">
         <v>135</v>
@@ -13912,7 +14009,7 @@
         <v>65</v>
       </c>
       <c r="J159" s="12">
-        <v>116.29900000000001</v>
+        <v>116.786</v>
       </c>
       <c r="K159" s="12">
         <v>107.64400000000001</v>
@@ -13922,19 +14019,19 @@
       </c>
       <c r="M159" s="11">
         <f t="shared" si="24"/>
-        <v>1162.99</v>
+        <v>1167.8600000000001</v>
       </c>
       <c r="N159" s="23">
         <f t="shared" si="23"/>
-        <v>8.0403924045929179E-2</v>
+        <v>8.4928096317490945E-2</v>
       </c>
       <c r="O159" s="11">
         <f t="shared" si="26"/>
-        <v>86.550000000000011</v>
+        <v>91.419999999999959</v>
       </c>
       <c r="P159" s="23">
         <f t="shared" si="22"/>
-        <v>4.1618613693171266E-3</v>
+        <v>4.4317221232133058E-3</v>
       </c>
       <c r="Q159" s="80"/>
       <c r="S159" s="24"/>
@@ -14112,7 +14209,7 @@
       </c>
       <c r="I163" s="15"/>
       <c r="J163" s="12">
-        <v>107.44499999999999</v>
+        <v>107.21899999999999</v>
       </c>
       <c r="K163" s="12">
         <v>107.374</v>
@@ -14122,19 +14219,19 @@
       </c>
       <c r="M163" s="11">
         <f t="shared" si="24"/>
-        <v>3223.35</v>
+        <v>3216.5699999999997</v>
       </c>
       <c r="N163" s="23">
         <f t="shared" si="23"/>
-        <v>6.6124015124702402E-4</v>
+        <v>-1.4435524428632737E-3</v>
       </c>
       <c r="O163" s="11">
         <f t="shared" si="26"/>
-        <v>2.1299999999999386</v>
+        <v>-4.6500000000000341</v>
       </c>
       <c r="P163" s="23">
         <f t="shared" si="22"/>
-        <v>1.1535039720709859E-2</v>
+        <v>1.2206038763091655E-2</v>
       </c>
       <c r="Q163" s="80" t="s">
         <v>105</v>
@@ -14411,7 +14508,7 @@
       </c>
       <c r="I169" s="15"/>
       <c r="J169" s="12">
-        <v>106.758</v>
+        <v>110.071</v>
       </c>
       <c r="K169" s="12">
         <v>105.581</v>
@@ -14421,19 +14518,19 @@
       </c>
       <c r="M169" s="11">
         <f t="shared" si="24"/>
-        <v>3202.74</v>
+        <v>3302.13</v>
       </c>
       <c r="N169" s="23">
         <f t="shared" si="28"/>
-        <v>1.1147839099837967E-2</v>
+        <v>4.2526590958600459E-2</v>
       </c>
       <c r="O169" s="11">
         <f t="shared" si="29"/>
-        <v>35.309999999999775</v>
+        <v>134.69999999999985</v>
       </c>
       <c r="P169" s="23">
         <f t="shared" si="22"/>
-        <v>1.1461285034236521E-2</v>
+        <v>1.2530716502599928E-2</v>
       </c>
       <c r="Q169" s="80" t="s">
         <v>105</v>
@@ -14517,7 +14614,7 @@
         <v>65</v>
       </c>
       <c r="J171" s="12">
-        <v>107.53400000000001</v>
+        <v>113.595</v>
       </c>
       <c r="K171" s="12">
         <v>106.58799999999999</v>
@@ -14527,19 +14624,19 @@
       </c>
       <c r="M171" s="11">
         <f t="shared" si="24"/>
-        <v>4301.3600000000006</v>
+        <v>4543.8</v>
       </c>
       <c r="N171" s="23">
         <f t="shared" si="28"/>
-        <v>8.875295530453825E-3</v>
+        <v>6.5739107591849033E-2</v>
       </c>
       <c r="O171" s="11">
         <f t="shared" si="29"/>
-        <v>37.840000000000487</v>
+        <v>280.2800000000002</v>
       </c>
       <c r="P171" s="23">
         <f t="shared" si="22"/>
-        <v>1.5392792732118004E-2</v>
+        <v>1.7242528199832699E-2</v>
       </c>
       <c r="Q171" s="80" t="s">
         <v>105</v>
@@ -14574,7 +14671,7 @@
         <v>65</v>
       </c>
       <c r="J172" s="12">
-        <v>116.58</v>
+        <v>117.3</v>
       </c>
       <c r="K172" s="12">
         <v>108.875</v>
@@ -14584,19 +14681,19 @@
       </c>
       <c r="M172" s="11">
         <f t="shared" si="24"/>
-        <v>2331.6</v>
+        <v>2346</v>
       </c>
       <c r="N172" s="23">
         <f t="shared" si="28"/>
-        <v>7.0769230769230751E-2</v>
+        <v>7.7382319173363925E-2</v>
       </c>
       <c r="O172" s="11">
         <f t="shared" si="29"/>
-        <v>154.09999999999997</v>
+        <v>168.49999999999994</v>
       </c>
       <c r="P172" s="23">
         <f t="shared" si="22"/>
-        <v>8.3438343998657009E-3</v>
+        <v>8.9024541478074544E-3</v>
       </c>
       <c r="Q172" s="80" t="s">
         <v>105</v>
@@ -14827,7 +14924,7 @@
       </c>
       <c r="I177" s="15"/>
       <c r="J177" s="12">
-        <v>107.81399999999999</v>
+        <v>108.289</v>
       </c>
       <c r="K177" s="12">
         <v>109.65</v>
@@ -14837,19 +14934,19 @@
       </c>
       <c r="M177" s="11">
         <f t="shared" si="30"/>
-        <v>1078.1399999999999</v>
+        <v>1082.8900000000001</v>
       </c>
       <c r="N177" s="23">
         <f t="shared" si="28"/>
-        <v>-1.6744186046511744E-2</v>
+        <v>-1.241222070223442E-2</v>
       </c>
       <c r="O177" s="11">
         <f t="shared" si="29"/>
-        <v>-18.360000000000127</v>
+        <v>-13.610000000000042</v>
       </c>
       <c r="P177" s="23">
         <f t="shared" si="22"/>
-        <v>3.8582182277711471E-3</v>
+        <v>4.1092832788231955E-3</v>
       </c>
       <c r="Q177" s="80" t="s">
         <v>149</v>
@@ -15183,7 +15280,7 @@
       </c>
       <c r="I184" s="15"/>
       <c r="J184" s="12">
-        <v>124.2</v>
+        <v>126.123</v>
       </c>
       <c r="K184" s="12">
         <v>105.38</v>
@@ -15193,19 +15290,19 @@
       </c>
       <c r="M184" s="11">
         <f t="shared" si="30"/>
-        <v>1242</v>
+        <v>1261.23</v>
       </c>
       <c r="N184" s="23">
         <f t="shared" si="28"/>
-        <v>0.17859176314291145</v>
+        <v>0.19684000759157344</v>
       </c>
       <c r="O184" s="11">
         <f t="shared" si="29"/>
-        <v>188.20000000000007</v>
+        <v>207.43000000000009</v>
       </c>
       <c r="P184" s="23">
         <f t="shared" si="22"/>
-        <v>4.4446055604019565E-3</v>
+        <v>4.7860367625060509E-3</v>
       </c>
       <c r="Q184" s="80" t="s">
         <v>156</v>
@@ -16219,7 +16316,7 @@
       </c>
       <c r="I205" s="15"/>
       <c r="J205" s="12">
-        <v>128.458</v>
+        <v>127.821</v>
       </c>
       <c r="K205" s="12">
         <v>108.934</v>
@@ -16229,19 +16326,19 @@
       </c>
       <c r="M205" s="11">
         <f t="shared" ref="M205:M227" si="34">J205*L205</f>
-        <v>2569.16</v>
+        <v>2556.42</v>
       </c>
       <c r="N205" s="23">
         <f t="shared" si="33"/>
-        <v>0.17922778930361505</v>
+        <v>0.1733802118714084</v>
       </c>
       <c r="O205" s="11">
         <f t="shared" si="29"/>
-        <v>390.48</v>
+        <v>377.74</v>
       </c>
       <c r="P205" s="23">
         <f t="shared" si="32"/>
-        <v>9.1939636244462875E-3</v>
+        <v>9.7009428101184712E-3</v>
       </c>
       <c r="Q205" s="113" t="s">
         <v>163</v>
@@ -16472,7 +16569,7 @@
         <v>51</v>
       </c>
       <c r="J210" s="12">
-        <v>93.495999999999995</v>
+        <v>101.221</v>
       </c>
       <c r="K210" s="13">
         <v>102.309</v>
@@ -16482,19 +16579,19 @@
       </c>
       <c r="M210" s="11">
         <f t="shared" si="34"/>
-        <v>4674.8</v>
+        <v>5061.05</v>
       </c>
       <c r="N210" s="23">
         <f t="shared" si="33"/>
-        <v>-8.6141004212728134E-2</v>
+        <v>-1.0634450537098338E-2</v>
       </c>
       <c r="O210" s="11">
         <f t="shared" si="29"/>
-        <v>-440.65000000000009</v>
+        <v>-54.399999999999693</v>
       </c>
       <c r="P210" s="23">
         <f t="shared" si="32"/>
-        <v>1.6729180413661084E-2</v>
+        <v>1.9205356165712242E-2</v>
       </c>
       <c r="Q210" s="128" t="s">
         <v>167</v>
@@ -17215,7 +17312,7 @@
       </c>
       <c r="I225" s="15"/>
       <c r="J225" s="12">
-        <v>114.681</v>
+        <v>117.506</v>
       </c>
       <c r="K225" s="12">
         <v>108.65</v>
@@ -17225,19 +17322,19 @@
       </c>
       <c r="M225" s="11">
         <f t="shared" si="34"/>
-        <v>2293.62</v>
+        <v>2350.12</v>
       </c>
       <c r="N225" s="23">
         <f t="shared" si="37"/>
-        <v>5.5508513575701718E-2</v>
+        <v>8.1509433962264094E-2</v>
       </c>
       <c r="O225" s="11">
         <f t="shared" si="29"/>
-        <v>120.61999999999983</v>
+        <v>177.11999999999989</v>
       </c>
       <c r="P225" s="23">
         <f t="shared" si="32"/>
-        <v>8.2079196501200751E-3</v>
+        <v>8.9180884662596986E-3</v>
       </c>
       <c r="Q225" s="130" t="s">
         <v>139</v>
@@ -17515,7 +17612,7 @@
       </c>
       <c r="I231" s="15"/>
       <c r="J231" s="12">
-        <v>103.999</v>
+        <v>104.265</v>
       </c>
       <c r="K231" s="12">
         <v>105.709</v>
@@ -17525,19 +17622,19 @@
       </c>
       <c r="M231" s="11">
         <f t="shared" ref="M231:M245" si="41">J231*L231</f>
-        <v>3119.97</v>
+        <v>3127.95</v>
       </c>
       <c r="N231" s="23">
         <f t="shared" ref="N231:N245" si="42">(J231-K231)/K231</f>
-        <v>-1.6176484499900747E-2</v>
+        <v>-1.3660142466582812E-2</v>
       </c>
       <c r="O231" s="11">
         <f t="shared" ref="O231:O245" si="43">(J231-K231)*L231</f>
-        <v>-51.300000000000239</v>
+        <v>-43.320000000000078</v>
       </c>
       <c r="P231" s="23">
         <f t="shared" si="32"/>
-        <v>1.1165085354498623E-2</v>
+        <v>1.1869749126868853E-2</v>
       </c>
       <c r="Q231" s="108" t="s">
         <v>181</v>
@@ -17667,7 +17764,7 @@
       </c>
       <c r="I234" s="15"/>
       <c r="J234" s="12">
-        <v>109.407</v>
+        <v>110.28700000000001</v>
       </c>
       <c r="K234" s="12">
         <v>106.96</v>
@@ -17677,19 +17774,19 @@
       </c>
       <c r="M234" s="11">
         <f t="shared" si="41"/>
-        <v>4376.28</v>
+        <v>4411.4800000000005</v>
       </c>
       <c r="N234" s="23">
         <f t="shared" si="42"/>
-        <v>2.2877711293941689E-2</v>
+        <v>3.1105086013463096E-2</v>
       </c>
       <c r="O234" s="11">
         <f t="shared" si="43"/>
-        <v>97.880000000000109</v>
+        <v>133.0800000000005</v>
       </c>
       <c r="P234" s="23">
         <f t="shared" si="32"/>
-        <v>1.5660900500705212E-2</v>
+        <v>1.6740408535366427E-2</v>
       </c>
       <c r="Q234" s="134"/>
       <c r="S234" s="24"/>
@@ -17767,7 +17864,7 @@
       </c>
       <c r="I236" s="15"/>
       <c r="J236" s="12">
-        <v>107.91200000000001</v>
+        <v>108.626</v>
       </c>
       <c r="K236" s="12">
         <v>108.294</v>
@@ -17777,19 +17874,19 @@
       </c>
       <c r="M236" s="11">
         <f t="shared" si="41"/>
-        <v>2158.2400000000002</v>
+        <v>2172.52</v>
       </c>
       <c r="N236" s="23">
         <f t="shared" si="42"/>
-        <v>-3.5274345762460598E-3</v>
+        <v>3.0657284798789207E-3</v>
       </c>
       <c r="O236" s="11">
         <f t="shared" si="43"/>
-        <v>-7.6399999999998158</v>
+        <v>6.6400000000001569</v>
       </c>
       <c r="P236" s="23">
         <f t="shared" si="32"/>
-        <v>7.7234504868614485E-3</v>
+        <v>8.2441430883182665E-3</v>
       </c>
       <c r="Q236" s="134"/>
       <c r="S236" s="24"/>
@@ -17820,7 +17917,7 @@
       </c>
       <c r="I237" s="15"/>
       <c r="J237" s="12">
-        <v>97</v>
+        <v>106.459</v>
       </c>
       <c r="K237" s="12">
         <v>104.71299999999999</v>
@@ -17830,19 +17927,19 @@
       </c>
       <c r="M237" s="11">
         <f t="shared" si="41"/>
-        <v>1940</v>
+        <v>2129.1800000000003</v>
       </c>
       <c r="N237" s="23">
         <f t="shared" si="42"/>
-        <v>-7.3658476024944311E-2</v>
+        <v>1.667414743155109E-2</v>
       </c>
       <c r="O237" s="11">
         <f t="shared" si="43"/>
-        <v>-154.25999999999988</v>
+        <v>34.920000000000186</v>
       </c>
       <c r="P237" s="23">
         <f t="shared" si="32"/>
-        <v>6.9424595709982242E-3</v>
+        <v>8.0796791655706225E-3</v>
       </c>
       <c r="Q237" s="134"/>
       <c r="S237" s="24"/>
@@ -17920,7 +18017,7 @@
       </c>
       <c r="I239" s="15"/>
       <c r="J239" s="12">
-        <v>113.297</v>
+        <v>112.07899999999999</v>
       </c>
       <c r="K239" s="12">
         <v>108.596</v>
@@ -17930,19 +18027,19 @@
       </c>
       <c r="M239" s="11">
         <f t="shared" si="41"/>
-        <v>2265.94</v>
+        <v>2241.58</v>
       </c>
       <c r="N239" s="23">
         <f t="shared" si="42"/>
-        <v>4.3288887251832421E-2</v>
+        <v>3.207300453055352E-2</v>
       </c>
       <c r="O239" s="11">
         <f t="shared" si="43"/>
-        <v>94.019999999999868</v>
+        <v>69.659999999999798</v>
       </c>
       <c r="P239" s="23">
         <f t="shared" si="32"/>
-        <v>8.1088643506740804E-3</v>
+        <v>8.5062076592677897E-3</v>
       </c>
       <c r="Q239" s="134" t="s">
         <v>190</v>
@@ -18213,7 +18310,7 @@
       </c>
       <c r="I245" s="15"/>
       <c r="J245" s="12">
-        <v>106.45</v>
+        <v>107.905</v>
       </c>
       <c r="K245" s="12">
         <v>106.852</v>
@@ -18223,19 +18320,19 @@
       </c>
       <c r="M245" s="11">
         <f t="shared" si="41"/>
-        <v>2129</v>
+        <v>2158.1</v>
       </c>
       <c r="N245" s="23">
         <f t="shared" si="42"/>
-        <v>-3.7622131546438159E-3</v>
+        <v>9.8547523677609897E-3</v>
       </c>
       <c r="O245" s="11">
         <f t="shared" si="43"/>
-        <v>-8.0400000000000205</v>
+        <v>21.059999999999945</v>
       </c>
       <c r="P245" s="23">
         <f t="shared" si="32"/>
-        <v>7.6188125910593915E-3</v>
+        <v>8.1894229737354083E-3</v>
       </c>
       <c r="Q245" s="80"/>
       <c r="S245" s="24"/>
@@ -18551,7 +18648,7 @@
       </c>
       <c r="I252" s="15"/>
       <c r="J252" s="12">
-        <v>111.8</v>
+        <v>109.15</v>
       </c>
       <c r="K252" s="12">
         <v>109.35</v>
@@ -18561,19 +18658,19 @@
       </c>
       <c r="M252" s="11">
         <f t="shared" si="44"/>
-        <v>1118</v>
+        <v>1091.5</v>
       </c>
       <c r="N252" s="23">
         <f t="shared" si="45"/>
-        <v>2.2405121170553297E-2</v>
+        <v>-1.828989483310367E-3</v>
       </c>
       <c r="O252" s="11">
         <f t="shared" si="46"/>
-        <v>24.500000000000028</v>
+        <v>-1.9999999999998863</v>
       </c>
       <c r="P252" s="23">
         <f t="shared" si="32"/>
-        <v>4.0008607218433067E-3</v>
+        <v>4.141955968598396E-3</v>
       </c>
       <c r="Q252" s="80" t="s">
         <v>105</v>
@@ -18605,7 +18702,7 @@
       </c>
       <c r="I253" s="15"/>
       <c r="J253" s="12">
-        <v>113.36199999999999</v>
+        <v>113.678</v>
       </c>
       <c r="K253" s="12">
         <v>109.39100000000001</v>
@@ -18615,19 +18712,19 @@
       </c>
       <c r="M253" s="11">
         <f t="shared" si="44"/>
-        <v>1133.6199999999999</v>
+        <v>1136.78</v>
       </c>
       <c r="N253" s="23">
         <f t="shared" si="45"/>
-        <v>3.6300975400169931E-2</v>
+        <v>3.9189695678803482E-2</v>
       </c>
       <c r="O253" s="11">
         <f t="shared" si="46"/>
-        <v>39.709999999999894</v>
+        <v>42.869999999999919</v>
       </c>
       <c r="P253" s="23">
         <f t="shared" si="32"/>
-        <v>4.056758257152065E-3</v>
+        <v>4.3137816820735539E-3</v>
       </c>
       <c r="Q253" s="80" t="s">
         <v>105</v>
@@ -19047,7 +19144,7 @@
       </c>
       <c r="I262" s="15"/>
       <c r="J262" s="12">
-        <v>98.95</v>
+        <v>103.955</v>
       </c>
       <c r="K262" s="12">
         <v>102.337</v>
@@ -19057,19 +19154,19 @@
       </c>
       <c r="M262" s="11">
         <f t="shared" si="44"/>
-        <v>1979</v>
+        <v>2079.1</v>
       </c>
       <c r="N262" s="23">
         <f t="shared" si="45"/>
-        <v>-3.3096534000410412E-2</v>
+        <v>1.5810508418265094E-2</v>
       </c>
       <c r="O262" s="11">
         <f t="shared" si="46"/>
-        <v>-67.740000000000009</v>
+        <v>32.3599999999999</v>
       </c>
       <c r="P262" s="23">
         <f t="shared" si="47"/>
-        <v>7.0820244798997355E-3</v>
+        <v>7.8896387121510994E-3</v>
       </c>
       <c r="Q262" s="80"/>
       <c r="S262" s="24"/>
@@ -19145,7 +19242,7 @@
       </c>
       <c r="I264" s="15"/>
       <c r="J264" s="12">
-        <v>106.39</v>
+        <v>108.87</v>
       </c>
       <c r="K264" s="12">
         <v>105.532</v>
@@ -19155,19 +19252,19 @@
       </c>
       <c r="M264" s="11">
         <f t="shared" si="44"/>
-        <v>1063.9000000000001</v>
+        <v>1088.7</v>
       </c>
       <c r="N264" s="23">
         <f t="shared" si="45"/>
-        <v>8.130235378842476E-3</v>
+        <v>3.1630216427244895E-2</v>
       </c>
       <c r="O264" s="11">
         <f t="shared" si="46"/>
-        <v>8.5800000000000409</v>
+        <v>33.380000000000081</v>
       </c>
       <c r="P264" s="23">
         <f t="shared" si="47"/>
-        <v>3.8072591430850576E-3</v>
+        <v>4.1313307036308514E-3</v>
       </c>
       <c r="Q264" s="80"/>
       <c r="S264" s="24"/>
@@ -19629,7 +19726,7 @@
       </c>
       <c r="I274" s="15"/>
       <c r="J274" s="12">
-        <v>101.807</v>
+        <v>103.726</v>
       </c>
       <c r="K274" s="12">
         <v>98.712000000000003</v>
@@ -19639,19 +19736,19 @@
       </c>
       <c r="M274" s="11">
         <f t="shared" si="48"/>
-        <v>3054.21</v>
+        <v>3111.7799999999997</v>
       </c>
       <c r="N274" s="23">
         <f t="shared" si="49"/>
-        <v>3.1353837426047478E-2</v>
+        <v>5.0794229678255892E-2</v>
       </c>
       <c r="O274" s="11">
         <f t="shared" si="50"/>
-        <v>92.849999999999966</v>
+        <v>150.41999999999987</v>
       </c>
       <c r="P274" s="23">
         <f t="shared" si="47"/>
-        <v>1.092975744656623E-2</v>
+        <v>1.1808388221681279E-2</v>
       </c>
       <c r="Q274" s="80"/>
       <c r="S274" s="24"/>
@@ -19777,7 +19874,7 @@
       </c>
       <c r="I277" s="15"/>
       <c r="J277" s="12">
-        <v>117.84</v>
+        <v>115.617</v>
       </c>
       <c r="K277" s="12">
         <v>108.184</v>
@@ -19787,19 +19884,19 @@
       </c>
       <c r="M277" s="11">
         <f t="shared" si="48"/>
-        <v>2356.8000000000002</v>
+        <v>2312.34</v>
       </c>
       <c r="N277" s="23">
         <f t="shared" si="49"/>
-        <v>8.9255342749389982E-2</v>
+        <v>6.8707017673593204E-2</v>
       </c>
       <c r="O277" s="11">
         <f t="shared" si="50"/>
-        <v>193.12000000000012</v>
+        <v>148.66000000000014</v>
       </c>
       <c r="P277" s="23">
         <f t="shared" si="47"/>
-        <v>8.4340148025405237E-3</v>
+        <v>8.7747232839476101E-3</v>
       </c>
       <c r="Q277" s="80"/>
       <c r="S277" s="24"/>
@@ -19877,7 +19974,7 @@
       </c>
       <c r="I279" s="15"/>
       <c r="J279" s="12">
-        <v>115.878</v>
+        <v>117.604</v>
       </c>
       <c r="K279" s="12">
         <v>108.63</v>
@@ -19887,19 +19984,19 @@
       </c>
       <c r="M279" s="11">
         <f t="shared" si="48"/>
-        <v>1158.78</v>
+        <v>1176.04</v>
       </c>
       <c r="N279" s="23">
         <f t="shared" si="49"/>
-        <v>6.6721900027616729E-2</v>
+        <v>8.2610696860904026E-2</v>
       </c>
       <c r="O279" s="11">
         <f t="shared" si="50"/>
-        <v>72.480000000000047</v>
+        <v>89.740000000000038</v>
       </c>
       <c r="P279" s="23">
         <f t="shared" si="47"/>
-        <v>4.146795516330579E-3</v>
+        <v>4.462763075868491E-3</v>
       </c>
       <c r="Q279" s="86" t="s">
         <v>218</v>
@@ -20072,7 +20169,7 @@
       </c>
       <c r="I283" s="15"/>
       <c r="J283" s="12">
-        <v>108.41</v>
+        <v>111.03</v>
       </c>
       <c r="K283" s="12">
         <v>107.79300000000001</v>
@@ -20082,19 +20179,19 @@
       </c>
       <c r="M283" s="11">
         <f t="shared" si="52"/>
-        <v>1084.0999999999999</v>
+        <v>1110.3</v>
       </c>
       <c r="N283" s="23">
         <f t="shared" si="53"/>
-        <v>5.7239338361488243E-3</v>
+        <v>3.0029779299212328E-2</v>
       </c>
       <c r="O283" s="11">
         <f t="shared" si="54"/>
-        <v>6.1699999999999022</v>
+        <v>32.369999999999948</v>
       </c>
       <c r="P283" s="23">
         <f t="shared" si="47"/>
-        <v>3.8795466087212238E-3</v>
+        <v>4.2132970333804845E-3</v>
       </c>
       <c r="Q283" s="80"/>
       <c r="S283" s="24"/>
@@ -20173,7 +20270,7 @@
       </c>
       <c r="I285" s="15"/>
       <c r="J285" s="12">
-        <v>111.831</v>
+        <v>114.973</v>
       </c>
       <c r="K285" s="12">
         <v>108.64</v>
@@ -20183,19 +20280,19 @@
       </c>
       <c r="M285" s="11">
         <f t="shared" si="52"/>
-        <v>1118.31</v>
+        <v>1149.73</v>
       </c>
       <c r="N285" s="23">
         <f t="shared" si="53"/>
-        <v>2.9372238586156136E-2</v>
+        <v>5.829344624447716E-2</v>
       </c>
       <c r="O285" s="11">
         <f t="shared" si="54"/>
-        <v>31.910000000000025</v>
+        <v>63.329999999999984</v>
       </c>
       <c r="P285" s="23">
         <f t="shared" si="47"/>
-        <v>4.0019700839397029E-3</v>
+        <v>4.362923532548451E-3</v>
       </c>
       <c r="Q285" s="80"/>
       <c r="S285" s="24"/>
@@ -20323,7 +20420,7 @@
       </c>
       <c r="I288" s="15"/>
       <c r="J288" s="12">
-        <v>126.4</v>
+        <v>125.782</v>
       </c>
       <c r="K288" s="12">
         <v>112.685</v>
@@ -20333,19 +20430,19 @@
       </c>
       <c r="M288" s="11">
         <f t="shared" si="52"/>
-        <v>1264</v>
+        <v>1257.82</v>
       </c>
       <c r="N288" s="23">
         <f t="shared" si="53"/>
-        <v>0.12171096419221727</v>
+        <v>0.11622664950969512</v>
       </c>
       <c r="O288" s="11">
         <f t="shared" si="54"/>
-        <v>137.15000000000003</v>
+        <v>130.96999999999994</v>
       </c>
       <c r="P288" s="23">
         <f t="shared" si="47"/>
-        <v>4.523334483372039E-3</v>
+        <v>4.7730967076705768E-3</v>
       </c>
       <c r="Q288" s="80" t="s">
         <v>227</v>
@@ -21096,29 +21193,29 @@
         <v>65</v>
       </c>
       <c r="J304" s="12">
-        <v>96.540999999999997</v>
+        <v>107.056</v>
       </c>
       <c r="K304" s="12">
-        <v>109.995</v>
+        <v>93.869</v>
       </c>
       <c r="L304" s="12">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="M304" s="11">
         <f t="shared" si="55"/>
-        <v>4827.05</v>
+        <v>1070.56</v>
       </c>
       <c r="N304" s="23">
         <f t="shared" si="56"/>
-        <v>-0.12231465066593943</v>
+        <v>0.14048301356145262</v>
       </c>
       <c r="O304" s="11">
         <f t="shared" si="57"/>
-        <v>-672.70000000000039</v>
+        <v>131.86999999999998</v>
       </c>
       <c r="P304" s="23">
         <f t="shared" si="47"/>
-        <v>1.7274020346488134E-2</v>
+        <v>4.0624941655911118E-3</v>
       </c>
       <c r="Q304" s="172"/>
       <c r="S304" s="24"/>
@@ -21479,7 +21576,7 @@
       </c>
       <c r="I312" s="15"/>
       <c r="J312" s="12">
-        <v>106.9</v>
+        <v>107.024</v>
       </c>
       <c r="K312" s="12">
         <v>107.489</v>
@@ -21489,19 +21586,19 @@
       </c>
       <c r="M312" s="11">
         <f t="shared" ref="M312:M326" si="59">J312*L312</f>
-        <v>2138</v>
+        <v>2140.48</v>
       </c>
       <c r="N312" s="23">
         <f t="shared" ref="N312:N326" si="60">(J312-K312)/K312</f>
-        <v>-5.4796304738159128E-3</v>
+        <v>-4.3260240582757622E-3</v>
       </c>
       <c r="O312" s="11">
         <f t="shared" ref="O312:O326" si="61">(J312-K312)*L312</f>
-        <v>-11.779999999999973</v>
+        <v>-9.3000000000000682</v>
       </c>
       <c r="P312" s="23">
         <f t="shared" si="47"/>
-        <v>7.6510198777289713E-3</v>
+        <v>8.1225596991896416E-3</v>
       </c>
       <c r="Q312" s="80"/>
       <c r="S312" s="24"/>
@@ -21606,52 +21703,47 @@
       <c r="B315" s="103">
         <v>314</v>
       </c>
-      <c r="C315" s="29">
+      <c r="C315" s="139">
         <v>44908</v>
       </c>
-      <c r="D315" s="30">
+      <c r="D315" s="140">
         <v>127041</v>
       </c>
-      <c r="E315" s="115" t="s">
+      <c r="E315" s="141" t="s">
         <v>240</v>
       </c>
-      <c r="F315" s="19">
-        <v>10</v>
-      </c>
-      <c r="G315" s="19">
+      <c r="F315" s="142">
+        <v>10</v>
+      </c>
+      <c r="G315" s="142">
         <v>107.17</v>
       </c>
-      <c r="H315" s="14">
+      <c r="H315" s="143">
         <f t="shared" si="58"/>
         <v>1071.7</v>
       </c>
-      <c r="I315" s="15"/>
-      <c r="J315" s="12">
-        <v>115.557</v>
-      </c>
-      <c r="K315" s="12">
-        <v>107.2</v>
-      </c>
-      <c r="L315" s="12">
-        <v>10</v>
-      </c>
-      <c r="M315" s="11">
+      <c r="I315" s="144"/>
+      <c r="J315" s="144"/>
+      <c r="K315" s="144"/>
+      <c r="L315" s="144">
+        <v>0</v>
+      </c>
+      <c r="M315" s="143">
         <f t="shared" si="59"/>
-        <v>1155.57</v>
-      </c>
-      <c r="N315" s="23">
+        <v>0</v>
+      </c>
+      <c r="N315" s="145" t="e">
         <f t="shared" si="60"/>
-        <v>7.7957089552238804E-2</v>
-      </c>
-      <c r="O315" s="11">
-        <f t="shared" si="61"/>
-        <v>83.57</v>
-      </c>
-      <c r="P315" s="23">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O315" s="143">
+        <v>230.75</v>
+      </c>
+      <c r="P315" s="145">
         <f t="shared" si="47"/>
-        <v>4.1353082507517621E-3</v>
-      </c>
-      <c r="Q315" s="80"/>
+        <v>0</v>
+      </c>
+      <c r="Q315" s="153"/>
       <c r="S315" s="24"/>
     </row>
     <row r="316" spans="2:19" x14ac:dyDescent="0.2">
@@ -21774,30 +21866,25 @@
       <c r="I318" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="J318" s="12">
-        <v>98.921999999999997</v>
-      </c>
-      <c r="K318" s="12">
-        <v>100</v>
-      </c>
+      <c r="J318" s="12"/>
+      <c r="K318" s="12"/>
       <c r="L318" s="12">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="M318" s="11">
         <f t="shared" si="59"/>
-        <v>989.22</v>
-      </c>
-      <c r="N318" s="23">
+        <v>0</v>
+      </c>
+      <c r="N318" s="23" t="e">
         <f t="shared" si="60"/>
-        <v>-1.0780000000000029E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="O318" s="11">
-        <f t="shared" si="61"/>
-        <v>-10.78000000000003</v>
+        <v>10.68</v>
       </c>
       <c r="P318" s="23">
         <f t="shared" si="47"/>
-        <v>3.5400102354757029E-3</v>
+        <v>0</v>
       </c>
       <c r="Q318" s="80"/>
       <c r="S318" s="24"/>
@@ -21827,7 +21914,7 @@
       </c>
       <c r="I319" s="15"/>
       <c r="J319" s="12">
-        <v>123.22</v>
+        <v>119.137</v>
       </c>
       <c r="K319" s="12">
         <v>74.602999999999994</v>
@@ -21837,19 +21924,19 @@
       </c>
       <c r="M319" s="11">
         <f t="shared" si="59"/>
-        <v>1232.2</v>
+        <v>1191.3699999999999</v>
       </c>
       <c r="N319" s="23">
         <f t="shared" si="60"/>
-        <v>0.65167620605069509</v>
+        <v>0.59694650349181677</v>
       </c>
       <c r="O319" s="11">
         <f t="shared" si="61"/>
-        <v>486.17000000000007</v>
+        <v>445.34000000000003</v>
       </c>
       <c r="P319" s="23">
         <f t="shared" si="47"/>
-        <v>4.4095354038061916E-3</v>
+        <v>4.5209364015658003E-3</v>
       </c>
       <c r="Q319" s="80"/>
       <c r="S319" s="24"/>
@@ -21879,7 +21966,7 @@
       </c>
       <c r="I320" s="15"/>
       <c r="J320" s="12">
-        <v>119.9</v>
+        <v>117.23399999999999</v>
       </c>
       <c r="K320" s="12">
         <v>107.321</v>
@@ -21889,19 +21976,19 @@
       </c>
       <c r="M320" s="11">
         <f t="shared" si="59"/>
-        <v>1199</v>
+        <v>1172.3399999999999</v>
       </c>
       <c r="N320" s="23">
         <f t="shared" si="60"/>
-        <v>0.11720912030264355</v>
+        <v>9.2367756543453722E-2</v>
       </c>
       <c r="O320" s="11">
         <f t="shared" si="61"/>
-        <v>125.79000000000008</v>
+        <v>99.129999999999967</v>
       </c>
       <c r="P320" s="23">
         <f t="shared" si="47"/>
-        <v>4.2907263018695215E-3</v>
+        <v>4.4487225471613774E-3</v>
       </c>
       <c r="Q320" s="80"/>
       <c r="S320" s="24"/>
@@ -21931,7 +22018,7 @@
       </c>
       <c r="I321" s="15"/>
       <c r="J321" s="12">
-        <v>120.92700000000001</v>
+        <v>123.238</v>
       </c>
       <c r="K321" s="12">
         <v>107.5</v>
@@ -21941,19 +22028,19 @@
       </c>
       <c r="M321" s="11">
         <f t="shared" si="59"/>
-        <v>1209.27</v>
+        <v>1232.3800000000001</v>
       </c>
       <c r="N321" s="23">
         <f t="shared" si="60"/>
-        <v>0.12490232558139541</v>
+        <v>0.1464</v>
       </c>
       <c r="O321" s="11">
         <f t="shared" si="61"/>
-        <v>134.27000000000007</v>
+        <v>157.38</v>
       </c>
       <c r="P321" s="23">
         <f t="shared" si="47"/>
-        <v>4.3274783945469186E-3</v>
+        <v>4.6765585859654532E-3</v>
       </c>
       <c r="Q321" s="80"/>
       <c r="S321" s="24"/>
@@ -22029,7 +22116,7 @@
       </c>
       <c r="I323" s="15"/>
       <c r="J323" s="12">
-        <v>112.482</v>
+        <v>111.92100000000001</v>
       </c>
       <c r="K323" s="12">
         <v>108.402</v>
@@ -22039,19 +22126,19 @@
       </c>
       <c r="M323" s="11">
         <f t="shared" si="59"/>
-        <v>1124.82</v>
+        <v>1119.21</v>
       </c>
       <c r="N323" s="23">
         <f t="shared" si="60"/>
-        <v>3.7637681961587406E-2</v>
+        <v>3.2462500691869206E-2</v>
       </c>
       <c r="O323" s="11">
         <f t="shared" si="61"/>
-        <v>40.799999999999983</v>
+        <v>35.190000000000055</v>
       </c>
       <c r="P323" s="23">
         <f t="shared" ref="P323:P388" si="62">M323/$M$573</f>
-        <v>4.0252666879640325E-3</v>
+        <v>4.2471081444022092E-3</v>
       </c>
       <c r="Q323" s="80"/>
       <c r="S323" s="24"/>
@@ -22081,7 +22168,7 @@
       </c>
       <c r="I324" s="15"/>
       <c r="J324" s="12">
-        <v>103.886</v>
+        <v>104.04</v>
       </c>
       <c r="K324" s="12">
         <v>106.306</v>
@@ -22091,19 +22178,19 @@
       </c>
       <c r="M324" s="11">
         <f t="shared" si="59"/>
-        <v>1038.8599999999999</v>
+        <v>1040.4000000000001</v>
       </c>
       <c r="N324" s="23">
         <f t="shared" si="60"/>
-        <v>-2.2764472372208546E-2</v>
+        <v>-2.1315824130340631E-2</v>
       </c>
       <c r="O324" s="11">
         <f t="shared" si="61"/>
-        <v>-24.200000000000017</v>
+        <v>-22.659999999999911</v>
       </c>
       <c r="P324" s="23">
         <f t="shared" si="62"/>
-        <v>3.7176513143954717E-3</v>
+        <v>3.9480448829406975E-3</v>
       </c>
       <c r="Q324" s="80"/>
       <c r="S324" s="24"/>
@@ -22133,7 +22220,7 @@
       </c>
       <c r="I325" s="15"/>
       <c r="J325" s="12">
-        <v>106.11199999999999</v>
+        <v>107.322</v>
       </c>
       <c r="K325" s="12">
         <v>107.97499999999999</v>
@@ -22143,19 +22230,19 @@
       </c>
       <c r="M325" s="11">
         <f t="shared" si="59"/>
-        <v>1061.1199999999999</v>
+        <v>1073.22</v>
       </c>
       <c r="N325" s="23">
         <f t="shared" si="60"/>
-        <v>-1.7253993980087982E-2</v>
+        <v>-6.047696225978158E-3</v>
       </c>
       <c r="O325" s="11">
         <f t="shared" si="61"/>
-        <v>-18.629999999999995</v>
+        <v>-6.5299999999999159</v>
       </c>
       <c r="P325" s="23">
         <f t="shared" si="62"/>
-        <v>3.7973106700915646E-3</v>
+        <v>4.0725881673102805E-3</v>
       </c>
       <c r="Q325" s="80"/>
       <c r="S325" s="24"/>
@@ -22185,7 +22272,7 @@
       </c>
       <c r="I326" s="15"/>
       <c r="J326" s="12">
-        <v>106.22</v>
+        <v>105.264</v>
       </c>
       <c r="K326" s="12">
         <v>104.95</v>
@@ -22195,19 +22282,19 @@
       </c>
       <c r="M326" s="11">
         <f t="shared" si="59"/>
-        <v>1062.2</v>
+        <v>1052.6399999999999</v>
       </c>
       <c r="N326" s="23">
         <f t="shared" si="60"/>
-        <v>1.2101000476417304E-2</v>
+        <v>2.9919009051928816E-3</v>
       </c>
       <c r="O326" s="11">
         <f t="shared" si="61"/>
-        <v>12.69999999999996</v>
+        <v>3.1399999999999295</v>
       </c>
       <c r="P326" s="23">
         <f t="shared" si="62"/>
-        <v>3.8011755444919146E-3</v>
+        <v>3.9944924697988228E-3</v>
       </c>
       <c r="Q326" s="80"/>
       <c r="S326" s="24"/>
@@ -22285,7 +22372,7 @@
       </c>
       <c r="I328" s="15"/>
       <c r="J328" s="12">
-        <v>112.774</v>
+        <v>115.399</v>
       </c>
       <c r="K328" s="12">
         <v>108.532</v>
@@ -22295,19 +22382,19 @@
       </c>
       <c r="M328" s="11">
         <f t="shared" si="63"/>
-        <v>1127.74</v>
+        <v>1153.99</v>
       </c>
       <c r="N328" s="23">
         <f t="shared" si="64"/>
-        <v>3.9085246747503084E-2</v>
+        <v>6.3271661814027241E-2</v>
       </c>
       <c r="O328" s="11">
         <f t="shared" si="65"/>
-        <v>42.420000000000044</v>
+        <v>68.670000000000044</v>
       </c>
       <c r="P328" s="23">
         <f t="shared" si="62"/>
-        <v>4.0357161631946071E-3</v>
+        <v>4.3790891142490729E-3</v>
       </c>
       <c r="Q328" s="80"/>
       <c r="S328" s="24"/>
@@ -22337,7 +22424,7 @@
       </c>
       <c r="I329" s="15"/>
       <c r="J329" s="12">
-        <v>111.63200000000001</v>
+        <v>111.729</v>
       </c>
       <c r="K329" s="12">
         <v>108.93</v>
@@ -22347,19 +22434,19 @@
       </c>
       <c r="M329" s="11">
         <f t="shared" si="63"/>
-        <v>1116.3200000000002</v>
+        <v>1117.29</v>
       </c>
       <c r="N329" s="23">
         <f t="shared" si="64"/>
-        <v>2.4804920591205343E-2</v>
+        <v>2.569540071605611E-2</v>
       </c>
       <c r="O329" s="11">
         <f t="shared" si="65"/>
-        <v>27.019999999999982</v>
+        <v>27.989999999999924</v>
       </c>
       <c r="P329" s="23">
         <f t="shared" si="62"/>
-        <v>3.9948486949983189E-3</v>
+        <v>4.2398222484244632E-3</v>
       </c>
       <c r="Q329" s="80"/>
       <c r="S329" s="24"/>
@@ -23423,7 +23510,7 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="Q352" s="206" t="s">
+      <c r="Q352" s="207" t="s">
         <v>254</v>
       </c>
       <c r="S352" s="24"/>
@@ -23471,7 +23558,7 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="Q353" s="207"/>
+      <c r="Q353" s="208"/>
       <c r="S353" s="24"/>
     </row>
     <row r="354" spans="1:19" x14ac:dyDescent="0.2">
@@ -23872,7 +23959,9 @@
       </c>
       <c r="J362" s="51"/>
       <c r="K362" s="51"/>
-      <c r="L362" s="51"/>
+      <c r="L362" s="51">
+        <v>0</v>
+      </c>
       <c r="M362" s="53"/>
       <c r="N362" s="54" t="e">
         <f t="shared" si="74"/>
@@ -24009,7 +24098,7 @@
         <v>65</v>
       </c>
       <c r="J365" s="12">
-        <v>110.84099999999999</v>
+        <v>110.131</v>
       </c>
       <c r="K365" s="12">
         <v>108.342</v>
@@ -24019,19 +24108,19 @@
       </c>
       <c r="M365" s="11">
         <f t="shared" si="73"/>
-        <v>1108.4099999999999</v>
+        <v>1101.31</v>
       </c>
       <c r="N365" s="23">
         <f t="shared" si="74"/>
-        <v>2.3065847039929071E-2</v>
+        <v>1.6512525151834021E-2</v>
       </c>
       <c r="O365" s="11">
         <f t="shared" si="75"/>
-        <v>24.989999999999952</v>
+        <v>17.890000000000015</v>
       </c>
       <c r="P365" s="23">
         <f t="shared" si="62"/>
-        <v>3.9665420686031657E-3</v>
+        <v>4.1791823433596879E-3</v>
       </c>
       <c r="Q365" s="80"/>
       <c r="S365" s="24"/>
@@ -24253,7 +24342,7 @@
       </c>
       <c r="I370" s="15"/>
       <c r="J370" s="12">
-        <v>111.541</v>
+        <v>111.39700000000001</v>
       </c>
       <c r="K370" s="12">
         <v>109.801</v>
@@ -24263,19 +24352,19 @@
       </c>
       <c r="M370" s="11">
         <f t="shared" si="73"/>
-        <v>1115.4099999999999</v>
+        <v>1113.97</v>
       </c>
       <c r="N370" s="23">
         <f t="shared" si="77"/>
-        <v>1.5846850210835921E-2</v>
+        <v>1.4535386745111643E-2</v>
       </c>
       <c r="O370" s="11">
         <f t="shared" si="78"/>
-        <v>17.399999999999949</v>
+        <v>15.960000000000036</v>
       </c>
       <c r="P370" s="23">
         <f t="shared" si="62"/>
-        <v>3.9915921804572832E-3</v>
+        <v>4.2272237199629456E-3</v>
       </c>
       <c r="Q370" s="80"/>
       <c r="S370" s="24"/>
@@ -24539,7 +24628,7 @@
         <v>276</v>
       </c>
       <c r="J376" s="12">
-        <v>104.946</v>
+        <v>107.917</v>
       </c>
       <c r="K376" s="12">
         <v>108.158</v>
@@ -24549,19 +24638,19 @@
       </c>
       <c r="M376" s="11">
         <f t="shared" si="79"/>
-        <v>2098.92</v>
+        <v>2158.34</v>
       </c>
       <c r="N376" s="23">
         <f t="shared" si="80"/>
-        <v>-2.9697294698496673E-2</v>
+        <v>-2.228221675696663E-3</v>
       </c>
       <c r="O376" s="11">
         <f t="shared" si="81"/>
-        <v>-64.240000000000066</v>
+        <v>-4.8199999999999932</v>
       </c>
       <c r="P376" s="23">
         <f t="shared" si="62"/>
-        <v>7.5111686818348424E-3</v>
+        <v>8.1903337107326266E-3</v>
       </c>
       <c r="Q376" s="80"/>
       <c r="S376" s="24"/>
@@ -24685,7 +24774,7 @@
         <v>65</v>
       </c>
       <c r="J379" s="12">
-        <v>111.64</v>
+        <v>110.60299999999999</v>
       </c>
       <c r="K379" s="12">
         <v>109.14100000000001</v>
@@ -24695,19 +24784,19 @@
       </c>
       <c r="M379" s="11">
         <f t="shared" si="79"/>
-        <v>1116.4000000000001</v>
+        <v>1106.03</v>
       </c>
       <c r="N379" s="23">
         <f t="shared" si="80"/>
-        <v>2.2896986467047169E-2</v>
+        <v>1.3395515892286025E-2</v>
       </c>
       <c r="O379" s="11">
         <f t="shared" si="81"/>
-        <v>24.989999999999952</v>
+        <v>14.619999999999891</v>
       </c>
       <c r="P379" s="23">
         <f t="shared" si="62"/>
-        <v>3.9951349819909374E-3</v>
+        <v>4.1970935043049787E-3</v>
       </c>
       <c r="Q379" s="80"/>
       <c r="S379" s="24"/>
@@ -24921,7 +25010,7 @@
       </c>
       <c r="I384" s="15"/>
       <c r="J384" s="12">
-        <v>118.55800000000001</v>
+        <v>114.45</v>
       </c>
       <c r="K384" s="12">
         <v>109.128</v>
@@ -24931,19 +25020,19 @@
       </c>
       <c r="M384" s="11">
         <f t="shared" si="79"/>
-        <v>1185.5800000000002</v>
+        <v>1144.5</v>
       </c>
       <c r="N384" s="23">
         <f t="shared" si="80"/>
-        <v>8.6412286489260387E-2</v>
+        <v>4.8768418737629229E-2</v>
       </c>
       <c r="O384" s="11">
         <f t="shared" si="81"/>
-        <v>94.300000000000068</v>
+        <v>53.220000000000027</v>
       </c>
       <c r="P384" s="23">
         <f t="shared" si="62"/>
-        <v>4.2427016588577711E-3</v>
+        <v>4.3430770554840721E-3</v>
       </c>
       <c r="Q384" s="80"/>
       <c r="S384" s="24"/>
@@ -25111,7 +25200,7 @@
       </c>
       <c r="I388" s="15"/>
       <c r="J388" s="12">
-        <v>113.88800000000001</v>
+        <v>116.354</v>
       </c>
       <c r="K388" s="12">
         <v>109.63200000000001</v>
@@ -25121,19 +25210,19 @@
       </c>
       <c r="M388" s="11">
         <f t="shared" si="79"/>
-        <v>1138.8800000000001</v>
+        <v>1163.54</v>
       </c>
       <c r="N388" s="23">
         <f t="shared" si="80"/>
-        <v>3.8820782253356688E-2</v>
+        <v>6.1314214827787449E-2</v>
       </c>
       <c r="O388" s="11">
         <f t="shared" si="81"/>
-        <v>42.56</v>
+        <v>67.219999999999942</v>
       </c>
       <c r="P388" s="23">
         <f t="shared" si="62"/>
-        <v>4.0755816269167312E-3</v>
+        <v>4.4153288572633788E-3</v>
       </c>
       <c r="Q388" s="80"/>
       <c r="S388" s="24"/>
@@ -25306,29 +25395,29 @@
         <v>65</v>
       </c>
       <c r="J392" s="12">
-        <v>107.554</v>
+        <v>107.11499999999999</v>
       </c>
       <c r="K392" s="12">
-        <v>109.98399999999999</v>
+        <v>108.163</v>
       </c>
       <c r="L392" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M392" s="11">
         <f t="shared" si="82"/>
-        <v>1075.54</v>
+        <v>2142.2999999999997</v>
       </c>
       <c r="N392" s="23">
         <f t="shared" si="83"/>
-        <v>-2.2094122781495425E-2</v>
+        <v>-9.6890803694424325E-3</v>
       </c>
       <c r="O392" s="11">
         <f t="shared" si="84"/>
-        <v>-24.299999999999926</v>
+        <v>-20.960000000000036</v>
       </c>
       <c r="P392" s="23">
         <f t="shared" si="85"/>
-        <v>3.8489139005110466E-3</v>
+        <v>8.1294661214185455E-3</v>
       </c>
       <c r="Q392" s="80"/>
       <c r="S392" s="24"/>
@@ -26245,7 +26334,7 @@
       </c>
       <c r="I412" s="15"/>
       <c r="J412" s="12">
-        <v>108.6</v>
+        <v>109.22199999999999</v>
       </c>
       <c r="K412" s="12">
         <v>107.4</v>
@@ -26255,19 +26344,19 @@
       </c>
       <c r="M412" s="11">
         <f t="shared" si="86"/>
-        <v>1086</v>
+        <v>1092.22</v>
       </c>
       <c r="N412" s="23">
         <f t="shared" si="87"/>
-        <v>1.1173184357541792E-2</v>
+        <v>1.6964618249534342E-2</v>
       </c>
       <c r="O412" s="11">
         <f t="shared" si="88"/>
-        <v>11.999999999999886</v>
+        <v>18.219999999999885</v>
       </c>
       <c r="P412" s="23">
         <f t="shared" si="89"/>
-        <v>3.8863459247959133E-3</v>
+        <v>4.1446881795900508E-3</v>
       </c>
       <c r="Q412" s="80"/>
       <c r="S412" s="24"/>
@@ -26297,7 +26386,7 @@
       </c>
       <c r="I413" s="15"/>
       <c r="J413" s="12">
-        <v>112.21299999999999</v>
+        <v>113.898</v>
       </c>
       <c r="K413" s="12">
         <v>109.3</v>
@@ -26307,19 +26396,19 @@
       </c>
       <c r="M413" s="11">
         <f t="shared" si="86"/>
-        <v>1122.1299999999999</v>
+        <v>1138.98</v>
       </c>
       <c r="N413" s="23">
         <f t="shared" si="87"/>
-        <v>2.6651418115279019E-2</v>
+        <v>4.2067703568161016E-2</v>
       </c>
       <c r="O413" s="11">
         <f t="shared" si="88"/>
-        <v>29.129999999999967</v>
+        <v>45.97999999999999</v>
       </c>
       <c r="P413" s="23">
         <f t="shared" si="89"/>
-        <v>4.0156402878372358E-3</v>
+        <v>4.3221301045480538E-3</v>
       </c>
       <c r="Q413" s="80"/>
       <c r="S413" s="24"/>
@@ -26395,7 +26484,7 @@
       </c>
       <c r="I415" s="15"/>
       <c r="J415" s="12">
-        <v>97.82</v>
+        <v>98.057000000000002</v>
       </c>
       <c r="K415" s="12">
         <v>95.531000000000006</v>
@@ -26405,19 +26494,19 @@
       </c>
       <c r="M415" s="11">
         <f t="shared" si="86"/>
-        <v>978.19999999999993</v>
+        <v>980.57</v>
       </c>
       <c r="N415" s="23">
         <f t="shared" si="90"/>
-        <v>2.396080853335553E-2</v>
+        <v>2.6441678617412107E-2</v>
       </c>
       <c r="O415" s="11">
         <f t="shared" si="91"/>
-        <v>22.889999999999873</v>
+        <v>25.259999999999962</v>
       </c>
       <c r="P415" s="23">
         <f t="shared" si="92"/>
-        <v>3.5005742022425064E-3</v>
+        <v>3.7210057390091888E-3</v>
       </c>
       <c r="Q415" s="80"/>
       <c r="S415" s="24"/>
@@ -26539,7 +26628,7 @@
       </c>
       <c r="I418" s="15"/>
       <c r="J418" s="12">
-        <v>110.53</v>
+        <v>111.776</v>
       </c>
       <c r="K418" s="12">
         <v>105.82299999999999</v>
@@ -26549,19 +26638,19 @@
       </c>
       <c r="M418" s="11">
         <f t="shared" si="86"/>
-        <v>1105.3</v>
+        <v>1117.76</v>
       </c>
       <c r="N418" s="23">
         <f t="shared" si="90"/>
-        <v>4.4479933473819566E-2</v>
+        <v>5.6254311444582025E-2</v>
       </c>
       <c r="O418" s="11">
         <f t="shared" si="91"/>
-        <v>47.070000000000078</v>
+        <v>59.53000000000003</v>
       </c>
       <c r="P418" s="23">
         <f t="shared" si="92"/>
-        <v>3.955412661765122E-3</v>
+        <v>4.2416057750440158E-3</v>
       </c>
       <c r="Q418" s="80"/>
       <c r="S418" s="24"/>
@@ -26591,7 +26680,7 @@
       </c>
       <c r="I419" s="15"/>
       <c r="J419" s="12">
-        <v>119.145</v>
+        <v>119.372</v>
       </c>
       <c r="K419" s="12">
         <v>109.39</v>
@@ -26601,19 +26690,19 @@
       </c>
       <c r="M419" s="11">
         <f t="shared" si="86"/>
-        <v>1191.45</v>
+        <v>1193.72</v>
       </c>
       <c r="N419" s="23">
         <f t="shared" si="90"/>
-        <v>8.9176341530304376E-2</v>
+        <v>9.1251485510558547E-2</v>
       </c>
       <c r="O419" s="11">
         <f t="shared" si="91"/>
-        <v>97.549999999999955</v>
+        <v>99.82</v>
       </c>
       <c r="P419" s="23">
         <f t="shared" si="92"/>
-        <v>4.2637079669411524E-3</v>
+        <v>4.5298540346635618E-3</v>
       </c>
       <c r="Q419" s="80"/>
       <c r="S419" s="24"/>
@@ -26781,7 +26870,7 @@
       </c>
       <c r="I423" s="15"/>
       <c r="J423" s="12">
-        <v>110.878</v>
+        <v>110.176</v>
       </c>
       <c r="K423" s="12">
         <v>109.82299999999999</v>
@@ -26791,19 +26880,19 @@
       </c>
       <c r="M423" s="11">
         <f t="shared" si="86"/>
-        <v>1108.78</v>
+        <v>1101.76</v>
       </c>
       <c r="N423" s="23">
         <f t="shared" si="90"/>
-        <v>9.6063666080876218E-3</v>
+        <v>3.2142629503838782E-3</v>
       </c>
       <c r="O423" s="11">
         <f t="shared" si="91"/>
-        <v>10.550000000000068</v>
+        <v>3.5300000000000864</v>
       </c>
       <c r="P423" s="23">
         <f t="shared" si="92"/>
-        <v>3.9678661459440264E-3</v>
+        <v>4.180889975229472E-3</v>
       </c>
       <c r="Q423" s="80"/>
       <c r="S423" s="24"/>
@@ -26879,7 +26968,7 @@
       </c>
       <c r="I425" s="15"/>
       <c r="J425" s="12">
-        <v>109.85</v>
+        <v>106.92</v>
       </c>
       <c r="K425" s="12">
         <v>108.205</v>
@@ -26889,19 +26978,19 @@
       </c>
       <c r="M425" s="11">
         <f t="shared" si="86"/>
-        <v>1098.5</v>
+        <v>1069.2</v>
       </c>
       <c r="N425" s="23">
         <f t="shared" si="90"/>
-        <v>1.5202624647659499E-2</v>
+        <v>-1.187560648768538E-2</v>
       </c>
       <c r="O425" s="11">
         <f t="shared" si="91"/>
-        <v>16.44999999999996</v>
+        <v>-12.849999999999966</v>
       </c>
       <c r="P425" s="23">
         <f t="shared" si="92"/>
-        <v>3.931078267392551E-3</v>
+        <v>4.0573333226068759E-3</v>
       </c>
       <c r="Q425" s="80"/>
       <c r="S425" s="24"/>
@@ -26931,7 +27020,7 @@
       </c>
       <c r="I426" s="15"/>
       <c r="J426" s="12">
-        <v>111.10899999999999</v>
+        <v>114.777</v>
       </c>
       <c r="K426" s="12">
         <v>108.21</v>
@@ -26941,19 +27030,19 @@
       </c>
       <c r="M426" s="11">
         <f t="shared" si="86"/>
-        <v>1111.0899999999999</v>
+        <v>1147.77</v>
       </c>
       <c r="N426" s="23">
         <f t="shared" si="90"/>
-        <v>2.679049995379356E-2</v>
+        <v>6.0687551982256796E-2</v>
       </c>
       <c r="O426" s="11">
         <f t="shared" si="91"/>
-        <v>28.990000000000009</v>
+        <v>65.670000000000073</v>
       </c>
       <c r="P426" s="23">
         <f t="shared" si="92"/>
-        <v>3.976132682855885E-3</v>
+        <v>4.3554858470711694E-3</v>
       </c>
       <c r="Q426" s="80"/>
       <c r="S426" s="24"/>
@@ -26983,29 +27072,29 @@
       </c>
       <c r="I427" s="15"/>
       <c r="J427" s="12">
-        <v>108.52</v>
+        <v>106.68</v>
       </c>
       <c r="K427" s="12">
-        <v>109.922</v>
+        <v>108.48399999999999</v>
       </c>
       <c r="L427" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M427" s="11">
         <f t="shared" si="86"/>
-        <v>1085.2</v>
+        <v>2133.6000000000004</v>
       </c>
       <c r="N427" s="23">
         <f t="shared" si="90"/>
-        <v>-1.2754498644493378E-2</v>
+        <v>-1.6629180339957854E-2</v>
       </c>
       <c r="O427" s="11">
         <f t="shared" si="91"/>
-        <v>-14.02000000000001</v>
+        <v>-36.079999999999757</v>
       </c>
       <c r="P427" s="23">
         <f t="shared" si="92"/>
-        <v>3.8834830548697286E-3</v>
+        <v>8.09645190526939E-3</v>
       </c>
       <c r="Q427" s="80"/>
       <c r="S427" s="24"/>
@@ -27035,29 +27124,29 @@
       </c>
       <c r="I428" s="15"/>
       <c r="J428" s="12">
-        <v>102.559</v>
+        <v>103.1</v>
       </c>
       <c r="K428" s="12">
-        <v>107.59699999999999</v>
+        <v>105.114</v>
       </c>
       <c r="L428" s="12">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M428" s="11">
         <f t="shared" si="86"/>
-        <v>1025.5899999999999</v>
+        <v>2062</v>
       </c>
       <c r="N428" s="23">
         <f t="shared" si="90"/>
-        <v>-4.682286680855411E-2</v>
+        <v>-1.9160149932454382E-2</v>
       </c>
       <c r="O428" s="11">
         <f t="shared" si="91"/>
-        <v>-50.379999999999967</v>
+        <v>-40.2800000000002</v>
       </c>
       <c r="P428" s="23">
         <f t="shared" si="92"/>
-        <v>3.6701634594948807E-3</v>
+        <v>7.8247487010993065E-3</v>
       </c>
       <c r="Q428" s="80"/>
       <c r="S428" s="24"/>
@@ -27179,7 +27268,7 @@
       </c>
       <c r="I431" s="15"/>
       <c r="J431" s="12">
-        <v>109.19799999999999</v>
+        <v>109.833</v>
       </c>
       <c r="K431" s="12">
         <v>109.211</v>
@@ -27189,19 +27278,19 @@
       </c>
       <c r="M431" s="11">
         <f t="shared" si="86"/>
-        <v>1091.98</v>
+        <v>1098.33</v>
       </c>
       <c r="N431" s="23">
         <f t="shared" si="90"/>
-        <v>-1.1903562827925053E-4</v>
+        <v>5.6953969838203101E-3</v>
       </c>
       <c r="O431" s="11">
         <f t="shared" si="91"/>
-        <v>-0.1300000000000523</v>
+        <v>6.2199999999999989</v>
       </c>
       <c r="P431" s="23">
         <f t="shared" si="92"/>
-        <v>3.9077458774941448E-3</v>
+        <v>4.1678740256442292E-3</v>
       </c>
       <c r="Q431" s="80"/>
       <c r="S431" s="24"/>
@@ -27231,7 +27320,7 @@
       </c>
       <c r="I432" s="15"/>
       <c r="J432" s="12">
-        <v>110.946</v>
+        <v>109.718</v>
       </c>
       <c r="K432" s="12">
         <v>109.928</v>
@@ -27241,19 +27330,19 @@
       </c>
       <c r="M432" s="11">
         <f t="shared" si="86"/>
-        <v>1109.46</v>
+        <v>1097.18</v>
       </c>
       <c r="N432" s="23">
         <f t="shared" si="90"/>
-        <v>9.2606069427261552E-3</v>
+        <v>-1.9103413143147674E-3</v>
       </c>
       <c r="O432" s="11">
         <f t="shared" si="91"/>
-        <v>10.180000000000007</v>
+        <v>-2.0999999999999375</v>
       </c>
       <c r="P432" s="23">
         <f t="shared" si="92"/>
-        <v>3.9702995853812834E-3</v>
+        <v>4.163510077532559E-3</v>
       </c>
       <c r="Q432" s="80"/>
       <c r="S432" s="24"/>
@@ -27421,7 +27510,7 @@
       </c>
       <c r="I436" s="15"/>
       <c r="J436" s="12">
-        <v>112.663</v>
+        <v>113.318</v>
       </c>
       <c r="K436" s="12">
         <v>109.125</v>
@@ -27431,19 +27520,19 @@
       </c>
       <c r="M436" s="11">
         <f t="shared" si="86"/>
-        <v>1126.6299999999999</v>
+        <v>1133.18</v>
       </c>
       <c r="N436" s="23">
         <f t="shared" si="90"/>
-        <v>3.2421534936998828E-2</v>
+        <v>3.8423825887743394E-2</v>
       </c>
       <c r="O436" s="11">
         <f t="shared" si="91"/>
-        <v>35.379999999999967</v>
+        <v>41.929999999999978</v>
       </c>
       <c r="P436" s="23">
         <f t="shared" si="92"/>
-        <v>4.0317439311720249E-3</v>
+        <v>4.3001206271152826E-3</v>
       </c>
       <c r="Q436" s="80"/>
       <c r="S436" s="24"/>
@@ -27797,7 +27886,7 @@
       </c>
       <c r="I444" s="15"/>
       <c r="J444" s="12">
-        <v>110.581</v>
+        <v>110</v>
       </c>
       <c r="K444" s="12">
         <v>109.95099999999999</v>
@@ -27807,19 +27896,19 @@
       </c>
       <c r="M444" s="11">
         <f t="shared" si="86"/>
-        <v>1105.81</v>
+        <v>1100</v>
       </c>
       <c r="N444" s="23">
         <f t="shared" si="90"/>
-        <v>5.7298251039100117E-3</v>
+        <v>4.4565306363749849E-4</v>
       </c>
       <c r="O444" s="11">
         <f t="shared" si="91"/>
-        <v>6.3000000000000966</v>
+        <v>0.49000000000006594</v>
       </c>
       <c r="P444" s="23">
         <f t="shared" si="92"/>
-        <v>3.9572377413430648E-3</v>
+        <v>4.1742112372498722E-3</v>
       </c>
       <c r="Q444" s="80"/>
       <c r="S444" s="24"/>
@@ -27916,53 +28005,81 @@
       <c r="S446" s="24"/>
     </row>
     <row r="447" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B447" s="160">
+      <c r="B447" s="109">
         <v>446</v>
       </c>
-      <c r="C447" s="29"/>
-      <c r="D447" s="30"/>
-      <c r="E447" s="115"/>
-      <c r="F447" s="19"/>
-      <c r="G447" s="19"/>
+      <c r="C447" s="29">
+        <v>45126</v>
+      </c>
+      <c r="D447" s="30">
+        <v>118031</v>
+      </c>
+      <c r="E447" s="115" t="s">
+        <v>265</v>
+      </c>
+      <c r="F447" s="19">
+        <v>10</v>
+      </c>
+      <c r="G447" s="19">
+        <v>109.589</v>
+      </c>
       <c r="H447" s="14">
         <f t="shared" si="58"/>
-        <v>0</v>
-      </c>
-      <c r="I447" s="15"/>
-      <c r="J447" s="12"/>
-      <c r="K447" s="12"/>
-      <c r="L447" s="12"/>
+        <v>1095.8899999999999</v>
+      </c>
+      <c r="I447" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="J447" s="12">
+        <v>108.372</v>
+      </c>
+      <c r="K447" s="12">
+        <v>109.60899999999999</v>
+      </c>
+      <c r="L447" s="12">
+        <v>10</v>
+      </c>
       <c r="M447" s="11">
         <f t="shared" si="86"/>
-        <v>0</v>
-      </c>
-      <c r="N447" s="23" t="e">
+        <v>1083.72</v>
+      </c>
+      <c r="N447" s="23">
         <f t="shared" si="71"/>
-        <v>#DIV/0!</v>
+        <v>-1.1285569615633706E-2</v>
       </c>
       <c r="O447" s="11">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>-12.369999999999948</v>
       </c>
       <c r="P447" s="23">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>4.1124329109385746E-3</v>
       </c>
       <c r="Q447" s="80"/>
       <c r="S447" s="24"/>
     </row>
     <row r="448" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B448" s="160">
+      <c r="B448" s="109">
         <v>447</v>
       </c>
-      <c r="C448" s="29"/>
-      <c r="D448" s="30"/>
-      <c r="E448" s="115"/>
-      <c r="F448" s="19"/>
-      <c r="G448" s="19"/>
+      <c r="C448" s="29">
+        <v>45127</v>
+      </c>
+      <c r="D448" s="30">
+        <v>113519</v>
+      </c>
+      <c r="E448" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="F448" s="19">
+        <v>-10</v>
+      </c>
+      <c r="G448" s="19">
+        <v>132.71</v>
+      </c>
       <c r="H448" s="14">
         <f t="shared" ref="H448:H464" si="93">F448*G448</f>
-        <v>0</v>
+        <v>-1327.1000000000001</v>
       </c>
       <c r="I448" s="15"/>
       <c r="J448" s="12"/>
@@ -27988,17 +28105,27 @@
       <c r="S448" s="24"/>
     </row>
     <row r="449" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B449" s="160">
+      <c r="B449" s="109">
         <v>448</v>
       </c>
-      <c r="C449" s="29"/>
-      <c r="D449" s="30"/>
-      <c r="E449" s="115"/>
-      <c r="F449" s="19"/>
-      <c r="G449" s="19"/>
+      <c r="C449" s="29">
+        <v>45127</v>
+      </c>
+      <c r="D449" s="30">
+        <v>127075</v>
+      </c>
+      <c r="E449" s="115" t="s">
+        <v>303</v>
+      </c>
+      <c r="F449" s="19">
+        <v>10</v>
+      </c>
+      <c r="G449" s="19">
+        <v>107.01600000000001</v>
+      </c>
       <c r="H449" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>1070.1600000000001</v>
       </c>
       <c r="I449" s="15"/>
       <c r="J449" s="12"/>
@@ -28024,17 +28151,27 @@
       <c r="S449" s="24"/>
     </row>
     <row r="450" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B450" s="160">
+      <c r="B450" s="109">
         <v>449</v>
       </c>
-      <c r="C450" s="29"/>
-      <c r="D450" s="30"/>
-      <c r="E450" s="115"/>
-      <c r="F450" s="19"/>
-      <c r="G450" s="19"/>
+      <c r="C450" s="29">
+        <v>45128</v>
+      </c>
+      <c r="D450" s="30">
+        <v>128114</v>
+      </c>
+      <c r="E450" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="F450" s="19">
+        <v>-190</v>
+      </c>
+      <c r="G450" s="19">
+        <v>90.408000000000001</v>
+      </c>
       <c r="H450" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>-17177.52</v>
       </c>
       <c r="I450" s="15"/>
       <c r="J450" s="12"/>
@@ -28060,53 +28197,79 @@
       <c r="S450" s="24"/>
     </row>
     <row r="451" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B451" s="160">
+      <c r="B451" s="109">
         <v>450</v>
       </c>
-      <c r="C451" s="29"/>
-      <c r="D451" s="30"/>
-      <c r="E451" s="115"/>
-      <c r="F451" s="19"/>
-      <c r="G451" s="19"/>
+      <c r="C451" s="29">
+        <v>45128</v>
+      </c>
+      <c r="D451" s="30">
+        <v>113665</v>
+      </c>
+      <c r="E451" s="115" t="s">
+        <v>312</v>
+      </c>
+      <c r="F451" s="19">
+        <v>10</v>
+      </c>
+      <c r="G451" s="19">
+        <v>109.946</v>
+      </c>
       <c r="H451" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>1099.46</v>
       </c>
       <c r="I451" s="15"/>
-      <c r="J451" s="12"/>
-      <c r="K451" s="12"/>
-      <c r="L451" s="12"/>
+      <c r="J451" s="12">
+        <v>113.003</v>
+      </c>
+      <c r="K451" s="12">
+        <v>109.96599999999999</v>
+      </c>
+      <c r="L451" s="12">
+        <v>10</v>
+      </c>
       <c r="M451" s="11">
         <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="N451" s="23" t="e">
+        <v>1130.03</v>
+      </c>
+      <c r="N451" s="23">
         <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
+        <v>2.7617627266609737E-2</v>
       </c>
       <c r="O451" s="11">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>30.370000000000061</v>
       </c>
       <c r="P451" s="23">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>4.2881672040267936E-3</v>
       </c>
       <c r="Q451" s="80"/>
       <c r="S451" s="24"/>
     </row>
     <row r="452" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B452" s="160">
+      <c r="B452" s="109">
         <v>451</v>
       </c>
-      <c r="C452" s="29"/>
-      <c r="D452" s="30"/>
-      <c r="E452" s="115"/>
-      <c r="F452" s="19"/>
-      <c r="G452" s="19"/>
+      <c r="C452" s="29">
+        <v>45128</v>
+      </c>
+      <c r="D452" s="30">
+        <v>118026</v>
+      </c>
+      <c r="E452" s="115" t="s">
+        <v>304</v>
+      </c>
+      <c r="F452" s="19">
+        <v>10</v>
+      </c>
+      <c r="G452" s="19">
+        <v>102.601</v>
+      </c>
       <c r="H452" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>1026.01</v>
       </c>
       <c r="I452" s="15"/>
       <c r="J452" s="12"/>
@@ -28132,17 +28295,27 @@
       <c r="S452" s="24"/>
     </row>
     <row r="453" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B453" s="160">
+      <c r="B453" s="109">
         <v>452</v>
       </c>
-      <c r="C453" s="29"/>
-      <c r="D453" s="30"/>
-      <c r="E453" s="115"/>
-      <c r="F453" s="19"/>
-      <c r="G453" s="19"/>
+      <c r="C453" s="29">
+        <v>45147</v>
+      </c>
+      <c r="D453" s="30">
+        <v>128114</v>
+      </c>
+      <c r="E453" s="115" t="s">
+        <v>72</v>
+      </c>
+      <c r="F453" s="19">
+        <v>-10</v>
+      </c>
+      <c r="G453" s="19">
+        <v>89</v>
+      </c>
       <c r="H453" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>-890</v>
       </c>
       <c r="I453" s="15"/>
       <c r="J453" s="12"/>
@@ -28168,17 +28341,27 @@
       <c r="S453" s="24"/>
     </row>
     <row r="454" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B454" s="160">
+      <c r="B454" s="109">
         <v>453</v>
       </c>
-      <c r="C454" s="29"/>
-      <c r="D454" s="30"/>
-      <c r="E454" s="115"/>
-      <c r="F454" s="19"/>
-      <c r="G454" s="19"/>
+      <c r="C454" s="29">
+        <v>45147</v>
+      </c>
+      <c r="D454" s="30">
+        <v>113601</v>
+      </c>
+      <c r="E454" s="115" t="s">
+        <v>73</v>
+      </c>
+      <c r="F454" s="19">
+        <v>-40</v>
+      </c>
+      <c r="G454" s="19">
+        <v>114</v>
+      </c>
       <c r="H454" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>-4560</v>
       </c>
       <c r="I454" s="15"/>
       <c r="J454" s="12"/>
@@ -28204,53 +28387,75 @@
       <c r="S454" s="24"/>
     </row>
     <row r="455" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B455" s="160">
+      <c r="B455" s="109">
         <v>454</v>
       </c>
-      <c r="C455" s="29"/>
-      <c r="D455" s="30"/>
-      <c r="E455" s="115"/>
-      <c r="F455" s="19"/>
-      <c r="G455" s="19"/>
-      <c r="H455" s="14">
+      <c r="C455" s="139">
+        <v>45147</v>
+      </c>
+      <c r="D455" s="140">
+        <v>113065</v>
+      </c>
+      <c r="E455" s="141" t="s">
+        <v>241</v>
+      </c>
+      <c r="F455" s="142">
+        <v>-10</v>
+      </c>
+      <c r="G455" s="142">
+        <v>101.098</v>
+      </c>
+      <c r="H455" s="143">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="I455" s="15"/>
-      <c r="J455" s="12"/>
-      <c r="K455" s="12"/>
-      <c r="L455" s="12"/>
-      <c r="M455" s="11">
+        <v>-1010.98</v>
+      </c>
+      <c r="I455" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="J455" s="144"/>
+      <c r="K455" s="144"/>
+      <c r="L455" s="144"/>
+      <c r="M455" s="143">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="N455" s="23" t="e">
+      <c r="N455" s="145" t="e">
         <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O455" s="11">
+      <c r="O455" s="143">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="P455" s="23">
+      <c r="P455" s="145">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="Q455" s="80"/>
+      <c r="Q455" s="153"/>
       <c r="S455" s="24"/>
     </row>
     <row r="456" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B456" s="160">
+      <c r="B456" s="109">
         <v>455</v>
       </c>
-      <c r="C456" s="29"/>
-      <c r="D456" s="30"/>
-      <c r="E456" s="115"/>
-      <c r="F456" s="19"/>
-      <c r="G456" s="19"/>
+      <c r="C456" s="29">
+        <v>45148</v>
+      </c>
+      <c r="D456" s="30">
+        <v>113519</v>
+      </c>
+      <c r="E456" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="F456" s="19">
+        <v>-10</v>
+      </c>
+      <c r="G456" s="19">
+        <v>135.73699999999999</v>
+      </c>
       <c r="H456" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>-1357.37</v>
       </c>
       <c r="I456" s="15"/>
       <c r="J456" s="12"/>
@@ -28276,53 +28481,81 @@
       <c r="S456" s="24"/>
     </row>
     <row r="457" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B457" s="160">
+      <c r="B457" s="109">
         <v>456</v>
       </c>
-      <c r="C457" s="29"/>
-      <c r="D457" s="30"/>
-      <c r="E457" s="115"/>
-      <c r="F457" s="19"/>
-      <c r="G457" s="19"/>
+      <c r="C457" s="29">
+        <v>45153</v>
+      </c>
+      <c r="D457" s="30">
+        <v>118022</v>
+      </c>
+      <c r="E457" s="115" t="s">
+        <v>314</v>
+      </c>
+      <c r="F457" s="19">
+        <v>10</v>
+      </c>
+      <c r="G457" s="19">
+        <v>108.90600000000001</v>
+      </c>
       <c r="H457" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="I457" s="15"/>
-      <c r="J457" s="12"/>
-      <c r="K457" s="12"/>
-      <c r="L457" s="12"/>
+        <v>1089.06</v>
+      </c>
+      <c r="I457" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="J457" s="12">
+        <v>106.512</v>
+      </c>
+      <c r="K457" s="12">
+        <v>108.926</v>
+      </c>
+      <c r="L457" s="12">
+        <v>10</v>
+      </c>
       <c r="M457" s="11">
         <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="N457" s="23" t="e">
+        <v>1065.1199999999999</v>
+      </c>
+      <c r="N457" s="23">
         <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
+        <v>-2.216183464003086E-2</v>
       </c>
       <c r="O457" s="11">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>-24.140000000000015</v>
       </c>
       <c r="P457" s="23">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>4.0418507936541672E-3</v>
       </c>
       <c r="Q457" s="80"/>
       <c r="S457" s="24"/>
     </row>
     <row r="458" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B458" s="103">
+      <c r="B458" s="109">
         <v>457</v>
       </c>
-      <c r="C458" s="29"/>
-      <c r="D458" s="30"/>
-      <c r="E458" s="115"/>
-      <c r="F458" s="19"/>
-      <c r="G458" s="19"/>
+      <c r="C458" s="29">
+        <v>45155</v>
+      </c>
+      <c r="D458" s="30">
+        <v>113519</v>
+      </c>
+      <c r="E458" s="115" t="s">
+        <v>35</v>
+      </c>
+      <c r="F458" s="19">
+        <v>-10</v>
+      </c>
+      <c r="G458" s="19">
+        <v>137.33000000000001</v>
+      </c>
       <c r="H458" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>-1373.3000000000002</v>
       </c>
       <c r="I458" s="15"/>
       <c r="J458" s="12"/>
@@ -28348,53 +28581,75 @@
       <c r="S458" s="24"/>
     </row>
     <row r="459" spans="2:19" x14ac:dyDescent="0.2">
-      <c r="B459" s="103">
+      <c r="B459" s="109">
         <v>458</v>
       </c>
-      <c r="C459" s="29"/>
-      <c r="D459" s="30"/>
-      <c r="E459" s="115"/>
-      <c r="F459" s="19"/>
-      <c r="G459" s="19"/>
-      <c r="H459" s="14">
+      <c r="C459" s="139">
+        <v>45156</v>
+      </c>
+      <c r="D459" s="140">
+        <v>113519</v>
+      </c>
+      <c r="E459" s="141" t="s">
+        <v>35</v>
+      </c>
+      <c r="F459" s="142">
+        <v>-10</v>
+      </c>
+      <c r="G459" s="142">
+        <v>149.095</v>
+      </c>
+      <c r="H459" s="143">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="I459" s="15"/>
-      <c r="J459" s="12"/>
-      <c r="K459" s="12"/>
-      <c r="L459" s="12"/>
-      <c r="M459" s="11">
+        <v>-1490.95</v>
+      </c>
+      <c r="I459" s="144" t="s">
+        <v>63</v>
+      </c>
+      <c r="J459" s="144"/>
+      <c r="K459" s="144"/>
+      <c r="L459" s="144"/>
+      <c r="M459" s="143">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="N459" s="23" t="e">
+      <c r="N459" s="145" t="e">
         <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O459" s="11">
+      <c r="O459" s="143">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="P459" s="23">
+      <c r="P459" s="145">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="Q459" s="80"/>
+      <c r="Q459" s="153"/>
       <c r="S459" s="24"/>
     </row>
     <row r="460" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B460" s="103">
         <v>459</v>
       </c>
-      <c r="C460" s="29"/>
-      <c r="D460" s="30"/>
-      <c r="E460" s="115"/>
-      <c r="F460" s="19"/>
-      <c r="G460" s="19"/>
+      <c r="C460" s="29">
+        <v>45161</v>
+      </c>
+      <c r="D460" s="30">
+        <v>118000</v>
+      </c>
+      <c r="E460" s="115" t="s">
+        <v>316</v>
+      </c>
+      <c r="F460" s="19">
+        <v>10</v>
+      </c>
+      <c r="G460" s="19">
+        <v>106.322</v>
+      </c>
       <c r="H460" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>1063.22</v>
       </c>
       <c r="I460" s="15"/>
       <c r="J460" s="12"/>
@@ -28423,34 +28678,50 @@
       <c r="B461" s="103">
         <v>460</v>
       </c>
-      <c r="C461" s="29"/>
-      <c r="D461" s="30"/>
-      <c r="E461" s="115"/>
-      <c r="F461" s="19"/>
-      <c r="G461" s="19"/>
+      <c r="C461" s="29">
+        <v>45162</v>
+      </c>
+      <c r="D461" s="30">
+        <v>118008</v>
+      </c>
+      <c r="E461" s="115" t="s">
+        <v>317</v>
+      </c>
+      <c r="F461" s="19">
+        <v>10</v>
+      </c>
+      <c r="G461" s="19">
+        <v>109.179</v>
+      </c>
       <c r="H461" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>1091.79</v>
       </c>
       <c r="I461" s="15"/>
-      <c r="J461" s="12"/>
-      <c r="K461" s="12"/>
-      <c r="L461" s="12"/>
+      <c r="J461" s="12">
+        <v>109.898</v>
+      </c>
+      <c r="K461" s="12">
+        <v>109.209</v>
+      </c>
+      <c r="L461" s="12">
+        <v>10</v>
+      </c>
       <c r="M461" s="11">
         <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="N461" s="23" t="e">
+        <v>1098.98</v>
+      </c>
+      <c r="N461" s="23">
         <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
+        <v>6.3090038366800626E-3</v>
       </c>
       <c r="O461" s="11">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>6.8899999999999295</v>
       </c>
       <c r="P461" s="23">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>4.1703406050116951E-3</v>
       </c>
       <c r="Q461" s="80"/>
       <c r="S461" s="24"/>
@@ -28459,34 +28730,50 @@
       <c r="B462" s="103">
         <v>461</v>
       </c>
-      <c r="C462" s="29"/>
-      <c r="D462" s="30"/>
-      <c r="E462" s="115"/>
-      <c r="F462" s="19"/>
-      <c r="G462" s="19"/>
+      <c r="C462" s="29">
+        <v>45163</v>
+      </c>
+      <c r="D462" s="30">
+        <v>113053</v>
+      </c>
+      <c r="E462" s="115" t="s">
+        <v>318</v>
+      </c>
+      <c r="F462" s="19">
+        <v>10</v>
+      </c>
+      <c r="G462" s="19">
+        <v>106.134</v>
+      </c>
       <c r="H462" s="14">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>1061.3399999999999</v>
       </c>
       <c r="I462" s="15"/>
-      <c r="J462" s="12"/>
-      <c r="K462" s="12"/>
-      <c r="L462" s="12"/>
+      <c r="J462" s="12">
+        <v>107.05500000000001</v>
+      </c>
+      <c r="K462" s="12">
+        <v>106.164</v>
+      </c>
+      <c r="L462" s="12">
+        <v>10</v>
+      </c>
       <c r="M462" s="11">
         <f t="shared" si="94"/>
-        <v>0</v>
-      </c>
-      <c r="N462" s="23" t="e">
+        <v>1070.5500000000002</v>
+      </c>
+      <c r="N462" s="23">
         <f t="shared" si="95"/>
-        <v>#DIV/0!</v>
+        <v>8.3926754832146996E-3</v>
       </c>
       <c r="O462" s="11">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>8.9100000000000534</v>
       </c>
       <c r="P462" s="23">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>4.0624562182162288E-3</v>
       </c>
       <c r="Q462" s="80"/>
       <c r="S462" s="24"/>
@@ -28495,36 +28782,48 @@
       <c r="B463" s="103">
         <v>462</v>
       </c>
-      <c r="C463" s="29"/>
-      <c r="D463" s="30"/>
-      <c r="E463" s="115"/>
-      <c r="F463" s="19"/>
-      <c r="G463" s="19"/>
-      <c r="H463" s="14">
+      <c r="C463" s="139">
+        <v>45167</v>
+      </c>
+      <c r="D463" s="140">
+        <v>127041</v>
+      </c>
+      <c r="E463" s="141" t="s">
+        <v>240</v>
+      </c>
+      <c r="F463" s="142">
+        <v>-10</v>
+      </c>
+      <c r="G463" s="142">
+        <v>129.54499999999999</v>
+      </c>
+      <c r="H463" s="143">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="I463" s="15"/>
-      <c r="J463" s="12"/>
-      <c r="K463" s="12"/>
-      <c r="L463" s="12"/>
-      <c r="M463" s="11">
+        <v>-1295.4499999999998</v>
+      </c>
+      <c r="I463" s="144" t="s">
+        <v>319</v>
+      </c>
+      <c r="J463" s="144"/>
+      <c r="K463" s="144"/>
+      <c r="L463" s="144"/>
+      <c r="M463" s="143">
         <f t="shared" si="94"/>
         <v>0</v>
       </c>
-      <c r="N463" s="23" t="e">
+      <c r="N463" s="145" t="e">
         <f t="shared" si="95"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="O463" s="11">
+      <c r="O463" s="143">
         <f t="shared" si="96"/>
         <v>0</v>
       </c>
-      <c r="P463" s="23">
+      <c r="P463" s="145">
         <f t="shared" si="97"/>
         <v>0</v>
       </c>
-      <c r="Q463" s="80"/>
+      <c r="Q463" s="153"/>
       <c r="S463" s="24"/>
     </row>
     <row r="464" spans="2:19" x14ac:dyDescent="0.2">
@@ -31006,31 +31305,31 @@
       <c r="E573" s="115"/>
       <c r="F573" s="19">
         <f>SUM(F3:F572)</f>
-        <v>2890</v>
+        <v>2670</v>
       </c>
       <c r="G573" s="19"/>
       <c r="H573" s="14">
         <f>SUM(H3:H572)</f>
-        <v>281259.87999999971</v>
+        <v>259374.13999999972</v>
       </c>
       <c r="I573" s="15"/>
       <c r="J573" s="12"/>
       <c r="K573" s="12"/>
       <c r="L573" s="12">
         <f>SUM(L3:L572)</f>
-        <v>2830</v>
+        <v>2460</v>
       </c>
       <c r="M573" s="11">
         <f>SUM(M3:M572)</f>
-        <v>279439.87000000005</v>
+        <v>263522.83999999997</v>
       </c>
       <c r="N573" s="23">
         <f>O573/M573</f>
-        <v>2.2520408415592067E-3</v>
+        <v>2.3477357788038417E-2</v>
       </c>
       <c r="O573" s="11">
         <f>SUM(O3:O572)</f>
-        <v>629.3099999999954</v>
+        <v>6186.8200000000006</v>
       </c>
       <c r="P573" s="23"/>
       <c r="Q573" s="80"/>
@@ -31168,16 +31467,16 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="224">
+      <c r="B2" s="225">
         <v>44805</v>
       </c>
-      <c r="C2" s="225"/>
-      <c r="D2" s="225"/>
-      <c r="E2" s="225"/>
-      <c r="F2" s="225"/>
-      <c r="G2" s="225"/>
-      <c r="H2" s="225"/>
-      <c r="I2" s="226"/>
+      <c r="C2" s="226"/>
+      <c r="D2" s="226"/>
+      <c r="E2" s="226"/>
+      <c r="F2" s="226"/>
+      <c r="G2" s="226"/>
+      <c r="H2" s="226"/>
+      <c r="I2" s="227"/>
       <c r="M2" s="183" t="s">
         <v>260</v>
       </c>
@@ -33372,14 +33671,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
-      <c r="B1" s="227" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="227"/>
-      <c r="D1" s="228" t="s">
+      <c r="B1" s="228" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="228"/>
+      <c r="D1" s="229" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="229"/>
+      <c r="E1" s="230"/>
       <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
